--- a/EuroEvolutie.xlsx
+++ b/EuroEvolutie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Desktop\ROBOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B76521-4B3A-4F26-981C-698B14D4F08D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC160EC-2434-42CF-BD10-B9FD2DECB6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="390000" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="50">
   <si>
     <t>Data</t>
   </si>
@@ -161,7 +161,10 @@
     <t>2011.64 </t>
   </si>
   <si>
-    <t>Euro</t>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
   </si>
   <si>
     <t>ROBOR</t>
@@ -170,7 +173,7 @@
     <t>IRCC</t>
   </si>
   <si>
-    <t>IMO (E/mp)</t>
+    <t>IMO (mii E/mp)</t>
   </si>
 </sst>
 </file>
@@ -210,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +229,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,42 +316,1291 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="58">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -376,20 +1634,17 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>None</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Analiza</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> indicatori </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.43779915250623208"/>
-          <c:y val="2.5225225225225221E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -401,92 +1656,230 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.5481274418905017E-2"/>
+          <c:y val="0.16646216768916161"/>
+          <c:w val="0.92874250999820107"/>
+          <c:h val="0.64509862647537153"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'390000'!$B$1</c:f>
+              <c:f>Indici!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ING_DobandaPA</c:v>
+                  <c:v>ROBOR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'390000'!$A$2:$A$7</c:f>
+              <c:f>Indici!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>44287</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>44288</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>44291</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44292</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44293</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>44294</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
+                  <c:v>44298</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>44299</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>44299</c:v>
+                <c:pt idx="14">
+                  <c:v>44300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44305</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44306</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44312</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44322</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44325</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44326</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44342</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44344</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'390000'!$B$2:$B$7</c:f>
+              <c:f>Indici!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>4.63</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.63</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.63</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.63</c:v>
+                  <c:v>1.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.63</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.63</c:v>
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C3F5-4A25-9F00-7A6DD43C603A}"/>
+              <c16:uniqueId val="{00000000-206A-426C-8EEE-AABDCEE51F1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -495,82 +1888,211 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'390000'!$J$1</c:f>
+              <c:f>Indici!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Raif_DobandaPA</c:v>
+                  <c:v>IRCC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'390000'!$A$2:$A$7</c:f>
+              <c:f>Indici!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>44287</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>44288</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>44291</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44292</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44293</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>44294</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
+                  <c:v>44298</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>44299</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>44299</c:v>
+                <c:pt idx="14">
+                  <c:v>44300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44305</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44306</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44312</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44322</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44325</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44326</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44342</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44344</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'390000'!$J$2:$J$7</c:f>
+              <c:f>Indici!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>4.67</c:v>
+                  <c:v>1.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.67</c:v>
+                  <c:v>1.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.67</c:v>
+                  <c:v>1.39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.67</c:v>
+                  <c:v>1.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.67</c:v>
+                  <c:v>1.64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.67</c:v>
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C3F5-4A25-9F00-7A6DD43C603A}"/>
+              <c16:uniqueId val="{00000001-206A-426C-8EEE-AABDCEE51F1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -579,250 +2101,211 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'390000'!$R$1</c:f>
+              <c:f>Indici!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BRD_Dobanda</c:v>
+                  <c:v>IMO (mii E/mp)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'390000'!$A$2:$A$7</c:f>
+              <c:f>Indici!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44286</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>44287</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>44288</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>44291</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44292</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44293</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>44294</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
+                  <c:v>44298</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>44299</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>44299</c:v>
+                <c:pt idx="14">
+                  <c:v>44300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44305</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44306</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44312</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44322</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44325</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44326</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44342</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44344</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'390000'!$R$2:$R$7</c:f>
+              <c:f>Indici!$D$2:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5.25</c:v>
+                  <c:v>1.425</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.25</c:v>
+                  <c:v>1.425</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.25</c:v>
+                  <c:v>1.4119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.25</c:v>
+                  <c:v>1.395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.25</c:v>
+                  <c:v>1.4179999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.25</c:v>
+                  <c:v>1.4179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C3F5-4A25-9F00-7A6DD43C603A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'390000'!$V$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BCR_Dobanda</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'390000'!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>44287</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44288</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44294</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44299</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44299</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'390000'!$V$2:$V$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.68</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.68</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.68</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.68</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.68</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C3F5-4A25-9F00-7A6DD43C603A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'390000'!$AG$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CEC_Dobanda</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'390000'!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>44287</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44288</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44294</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44299</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44299</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'390000'!$AG$2:$AG$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C3F5-4A25-9F00-7A6DD43C603A}"/>
+              <c16:uniqueId val="{00000002-206A-426C-8EEE-AABDCEE51F1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -834,13 +2317,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="778850687"/>
-        <c:axId val="778849023"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="778850687"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="857676671"/>
+        <c:axId val="857677503"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="857676671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,15 +2366,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778849023"/>
+        <c:crossAx val="857677503"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="778849023"/>
+        <c:axId val="857677503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,7 +2424,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778850687"/>
+        <c:crossAx val="857676671"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -979,7 +2461,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -994,23 +2476,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>346074</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1029,6 +2511,166 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:AN14" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56">
+  <autoFilter ref="A1:AN14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="40">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Data" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ING_DobandaPA" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ING_DAE" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ING_PrimaRata" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ING_RambursTotal" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="INGPrima_DobandaPA" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="INGPrima_DAE" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="INGPrima_PrimaRata" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="INGPrima_RambursTotal" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Raif_DobandaPA" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Raif_DAE" dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Raif_PrimaRata" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Raif_RambursTotal" dataDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="RaifPrima_DobandaPA" dataDxfId="41"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="RaifPrima_DAE" dataDxfId="40"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="RaifPrima_PrimaRata" dataDxfId="39"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="RaifPrima_RambursTotal" dataDxfId="38"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="BRD_Dobanda" dataDxfId="37"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="BRD_DAE" dataDxfId="36"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="BRD_Rata" dataDxfId="35"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="BRD_Total" dataDxfId="34"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="BCR_Dobanda" dataDxfId="33"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="BCR_DAE" dataDxfId="32"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="BCR_Rata" dataDxfId="31"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="BCR_Total" dataDxfId="30"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="BCRPrima_Dobanda" dataDxfId="29"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="BCRPrima_DAE" dataDxfId="28"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="BCRPrima_Rata" dataDxfId="27"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="BCRPrima_Total" dataDxfId="26"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="BT_DAE" dataDxfId="25"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="BT_Rata" dataDxfId="24"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="BT_Total" dataDxfId="23"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="CEC_Dobanda" dataDxfId="22"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="CEC_DAE" dataDxfId="21"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="CEC_Rata" dataDxfId="20"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="CEC_Total" dataDxfId="19"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="CECPrima_Dobanda" dataDxfId="18"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="CECPrima_DAE" dataDxfId="17"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="CECPrima_Rata" dataDxfId="16"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="CECPrima_Total" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:AN16" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A1:AN16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="40">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Data" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DobandaPA"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="DAE"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="PrimaRata"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="RambursTotal"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="INGPrima_DobandaPA"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="INGPrima_DAE"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="INGPrima_PrimaRata"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="INGPrima_RambursTotal"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Raif_DobandaPA"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Raif_DAE"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Raif_PrimaRata"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Raif_RambursTotal"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="RaifPrima_DobandaPA"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="RaifPrima_DAE"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="RaifPrima_PrimaRata"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="RaifPrima_RambursTotal" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="BRD_Dobanda"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="BRD_DAE"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="BRD_Rata"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="BRD_Total"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="BCR_Dobanda"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="BCR_DAE"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="BCR_Rata"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="BCR_Total"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="BCRPrima_Dobanda"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="BCRPrima_DAE"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="BCRPrima_Rata"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="BCRPrima_Total"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="BT_DAE"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="BT_Rata"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" name="BT_Total"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" name="CEC_Dobanda"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0100-000022000000}" name="CEC_DAE"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0100-000023000000}" name="CEC_Rata"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="CEC_Total"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0100-000025000000}" name="CECPrima_Dobanda"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0100-000026000000}" name="CECPrima_DAE"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0100-000027000000}" name="CECPrima_Rata"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0100-000028000000}" name="CECPrima_Total"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table6" displayName="Table6" ref="A1:AN17" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:AN17" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="40">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Data" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="DobandaPA"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="DAE"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="PrimaRata"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="RambursTotal"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="INGPrima_DobandaPA"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="INGPrima_DAE"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="INGPrima_PrimaRata"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="INGPrima_RambursTotal"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Column1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Raif_DAE"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Raif_PrimaRata"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Column2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="RaifPrima_DobandaPA"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="RaifPrima_DAE"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="RaifPrima_PrimaRata"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="RaifPrima_RambursTotal"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="BRD_Dobanda"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="BRD_DAE"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="BRD_Rata"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0200-000015000000}" name="BRD_Total"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="BCR_Dobanda"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="BCR_DAE"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="BCR_Rata" dataDxfId="5"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="BCR_Total" dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" name="BCRPrima_Dobanda"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" name="BCRPrima_DAE"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0200-00001C000000}" name="BCRPrima_Rata"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0200-00001D000000}" name="BCRPrima_Total"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0200-00001E000000}" name="BT_DAE"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0200-00001F000000}" name="BT_Rata"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0200-000020000000}" name="BT_Total"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0200-000021000000}" name="CEC_Dobanda"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0200-000022000000}" name="CEC_DAE"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0200-000023000000}" name="CEC_Rata"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0200-000024000000}" name="CEC_Total"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0200-000025000000}" name="CECPrima_Dobanda"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0200-000026000000}" name="CECPrima_DAE"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0200-000027000000}" name="CECPrima_Rata"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0200-000028000000}" name="CECPrima_Total"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="A1:D26" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:D26" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Data" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ROBOR"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="IRCC"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="IMO (mii E/mp)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1328,172 +2970,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN12"/>
+  <dimension ref="A1:AN1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.08984375" style="1" customWidth="1"/>
-    <col min="10" max="13" width="7.26953125" style="8" customWidth="1"/>
-    <col min="14" max="17" width="7.26953125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.1796875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="7.7265625" style="8" customWidth="1"/>
-    <col min="20" max="20" width="10" style="8" customWidth="1"/>
-    <col min="21" max="21" width="10.54296875" style="8" customWidth="1"/>
-    <col min="22" max="25" width="8.7265625" style="8" customWidth="1"/>
-    <col min="26" max="29" width="8.7265625" style="5" customWidth="1"/>
-    <col min="30" max="35" width="8.7265625" style="8" customWidth="1"/>
-    <col min="36" max="36" width="12.54296875" style="8" customWidth="1"/>
-    <col min="37" max="40" width="8.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" customWidth="1"/>
+    <col min="9" max="9" width="23.36328125" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" customWidth="1"/>
+    <col min="13" max="13" width="18.6328125" customWidth="1"/>
+    <col min="14" max="14" width="21.6328125" customWidth="1"/>
+    <col min="15" max="15" width="15.26953125" customWidth="1"/>
+    <col min="16" max="16" width="20.36328125" customWidth="1"/>
+    <col min="17" max="17" width="23.453125" customWidth="1"/>
+    <col min="18" max="18" width="14.90625" customWidth="1"/>
+    <col min="19" max="19" width="10.7265625" customWidth="1"/>
+    <col min="20" max="20" width="11.08984375" customWidth="1"/>
+    <col min="21" max="21" width="11.54296875" customWidth="1"/>
+    <col min="22" max="22" width="14.7265625" customWidth="1"/>
+    <col min="23" max="23" width="10.54296875" customWidth="1"/>
+    <col min="24" max="24" width="10.81640625" customWidth="1"/>
+    <col min="25" max="25" width="11.26953125" customWidth="1"/>
+    <col min="26" max="26" width="19.54296875" customWidth="1"/>
+    <col min="27" max="27" width="15.36328125" customWidth="1"/>
+    <col min="28" max="28" width="15.6328125" customWidth="1"/>
+    <col min="29" max="29" width="16.08984375" customWidth="1"/>
+    <col min="30" max="30" width="9.36328125" customWidth="1"/>
+    <col min="31" max="31" width="9.7265625" customWidth="1"/>
+    <col min="32" max="32" width="10.1796875" customWidth="1"/>
+    <col min="33" max="33" width="14.6328125" customWidth="1"/>
+    <col min="34" max="34" width="10.453125" customWidth="1"/>
+    <col min="35" max="35" width="10.7265625" customWidth="1"/>
+    <col min="36" max="36" width="11.1796875" customWidth="1"/>
+    <col min="37" max="37" width="19.453125" customWidth="1"/>
+    <col min="38" max="38" width="15.26953125" customWidth="1"/>
+    <col min="39" max="39" width="15.54296875" customWidth="1"/>
+    <col min="40" max="40" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:40" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="23" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A2" s="26">
+      <c r="A2" s="16">
         <v>44287</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>4.63</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>5.57</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>1705.36</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>655661.06000000006</v>
       </c>
       <c r="F2" s="1">
@@ -1508,16 +3170,16 @@
       <c r="I2" s="1">
         <v>629543.41</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="6">
         <v>4.67</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="6">
         <v>5.14</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="6">
         <v>2020</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="6">
         <v>754331</v>
       </c>
       <c r="N2" s="1">
@@ -1532,28 +3194,28 @@
       <c r="Q2" s="1">
         <v>655209</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="6">
         <v>5.25</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="6">
         <v>5.8</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="6">
         <v>2326.71</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="6">
         <v>794383</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="6">
         <v>4.68</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="6">
         <v>6.4</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="6">
         <v>2388.5</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="6">
         <v>844095.31</v>
       </c>
       <c r="Z2" s="5">
@@ -1577,16 +3239,16 @@
       <c r="AF2" s="4">
         <v>709079</v>
       </c>
-      <c r="AG2" s="8">
+      <c r="AG2" s="6">
         <v>4.17</v>
       </c>
-      <c r="AH2" s="8">
+      <c r="AH2" s="6">
         <v>4.76</v>
       </c>
-      <c r="AI2" s="8">
+      <c r="AI2" s="6">
         <v>2049.77</v>
       </c>
-      <c r="AJ2" s="19">
+      <c r="AJ2" s="14">
         <v>715490.86</v>
       </c>
       <c r="AK2" s="1">
@@ -1603,141 +3265,141 @@
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A3" s="26">
+      <c r="A3" s="16">
         <v>44288</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="6">
         <v>4.63</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <v>5.57</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
         <v>1705.36</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
         <v>655661.06000000006</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="1">
         <v>4.41</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="1">
         <v>5.38</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="1">
         <v>1661.98</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="1">
         <v>629543.41</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="6">
         <v>4.67</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="6">
         <v>5.14</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="6">
         <v>2020</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="6">
         <v>754331</v>
       </c>
-      <c r="N3" s="11">
-        <v>3.67</v>
-      </c>
-      <c r="O3" s="11">
+      <c r="N3" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="O3" s="1">
         <v>3.9</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="1">
         <v>1788</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="1">
         <v>655209</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="6">
         <v>5.25</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="6">
         <v>5.8</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="6">
         <v>2326.7199999999998</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="6">
         <v>795383</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="6">
         <v>4.68</v>
       </c>
-      <c r="W3" s="10">
+      <c r="W3" s="6">
         <v>6.4</v>
       </c>
-      <c r="X3" s="10">
+      <c r="X3" s="6">
         <v>2388.5</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Y3" s="6">
         <v>844095.31</v>
       </c>
-      <c r="Z3" s="16">
-        <v>3.67</v>
-      </c>
-      <c r="AA3" s="16">
+      <c r="Z3" s="5">
+        <v>3.67</v>
+      </c>
+      <c r="AA3" s="5">
         <v>3.93</v>
       </c>
-      <c r="AB3" s="16">
+      <c r="AB3" s="5">
         <v>1788.49</v>
       </c>
-      <c r="AC3" s="16">
+      <c r="AC3" s="5">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD3" s="17">
+      <c r="AD3" s="4">
         <v>4.5599999999999996</v>
       </c>
-      <c r="AE3" s="17">
+      <c r="AE3" s="4">
         <v>1.958</v>
       </c>
-      <c r="AF3" s="17">
+      <c r="AF3" s="4">
         <v>709079</v>
       </c>
-      <c r="AG3" s="10">
+      <c r="AG3" s="6">
         <v>4.17</v>
       </c>
-      <c r="AH3" s="10">
+      <c r="AH3" s="6">
         <v>4.76</v>
       </c>
-      <c r="AI3" s="10">
+      <c r="AI3" s="6">
         <v>2049.77</v>
       </c>
-      <c r="AJ3" s="18">
+      <c r="AJ3" s="10">
         <v>715491.29</v>
       </c>
-      <c r="AK3" s="11">
-        <v>3.67</v>
-      </c>
-      <c r="AL3" s="11">
+      <c r="AK3" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AL3" s="1">
         <v>3.73</v>
       </c>
-      <c r="AM3" s="11">
+      <c r="AM3" s="1">
         <v>1783.04</v>
       </c>
-      <c r="AN3" s="11">
+      <c r="AN3" s="1">
         <v>641893.84</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A4" s="16">
         <v>44294</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>4.63</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>5.57</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>1705.36</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>655661.06000000006</v>
       </c>
       <c r="F4" s="1">
@@ -1752,16 +3414,16 @@
       <c r="I4" s="1">
         <v>629543.41</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <v>4.67</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <v>5.14</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="6">
         <v>2020</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <v>754331</v>
       </c>
       <c r="N4" s="1">
@@ -1776,28 +3438,28 @@
       <c r="Q4" s="1">
         <v>655209</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="6">
         <v>5.25</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="6">
         <v>5.82</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="6">
         <v>2329.09</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="6">
         <v>795196</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="6">
         <v>4.68</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="6">
         <v>6.4</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="6">
         <v>2388.5</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="6">
         <v>844095.31</v>
       </c>
       <c r="Z4" s="5">
@@ -1821,16 +3483,16 @@
       <c r="AF4" s="4">
         <v>709079</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AG4" s="6">
         <v>4.17</v>
       </c>
-      <c r="AH4" s="8">
+      <c r="AH4" s="6">
         <v>4.76</v>
       </c>
-      <c r="AI4" s="8">
+      <c r="AI4" s="6">
         <v>2049.77</v>
       </c>
-      <c r="AJ4" s="13">
+      <c r="AJ4" s="10">
         <v>715491.29</v>
       </c>
       <c r="AK4" s="1">
@@ -1846,20 +3508,20 @@
         <v>641893.84</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A5" s="16">
         <v>44295</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>4.63</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>5.57</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>1705.36</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>655661.06000000006</v>
       </c>
       <c r="F5" s="1">
@@ -1874,16 +3536,16 @@
       <c r="I5" s="1">
         <v>629543.41</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <v>4.67</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>5.14</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="6">
         <v>2020</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="6">
         <v>754331</v>
       </c>
       <c r="N5" s="1">
@@ -1898,28 +3560,28 @@
       <c r="Q5" s="1">
         <v>655209</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="6">
         <v>5.25</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="6">
         <v>5.82</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="6">
         <v>2329.09</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="6">
         <v>795196</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="6">
         <v>4.68</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="6">
         <v>5.79</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="6">
         <v>2244.1999999999998</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="6">
         <v>760469.86</v>
       </c>
       <c r="Z5" s="1">
@@ -1943,16 +3605,16 @@
       <c r="AF5" s="4">
         <v>709079</v>
       </c>
-      <c r="AG5" s="8">
+      <c r="AG5" s="6">
         <v>4.17</v>
       </c>
-      <c r="AH5" s="8">
+      <c r="AH5" s="6">
         <v>4.76</v>
       </c>
-      <c r="AI5" s="8">
+      <c r="AI5" s="6">
         <v>2049.77</v>
       </c>
-      <c r="AJ5" s="13">
+      <c r="AJ5" s="10">
         <v>715491.29</v>
       </c>
       <c r="AK5" s="1">
@@ -1968,20 +3630,20 @@
         <v>641893.84</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A6" s="16">
         <v>44299</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>4.63</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>5.57</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>1705.36</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>655661.06000000006</v>
       </c>
       <c r="F6" s="1">
@@ -1996,16 +3658,16 @@
       <c r="I6" s="1">
         <v>402860.66</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>4.67</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>5.14</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="6">
         <v>2020</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="6">
         <v>754331</v>
       </c>
       <c r="N6" s="1">
@@ -2020,28 +3682,28 @@
       <c r="Q6" s="1">
         <v>655209</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="6">
         <v>5.25</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="6">
         <v>5.82</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="6">
         <v>2329.09</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="6">
         <v>795196</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="6">
         <v>4.68</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="6">
         <v>5.79</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="6">
         <v>2244.1999999999998</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="6">
         <v>760469.86</v>
       </c>
       <c r="Z6" s="1">
@@ -2056,25 +3718,25 @@
       <c r="AC6" s="1">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AD6" s="6">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AE6" s="6">
         <v>2004</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AF6" s="6">
         <v>725783</v>
       </c>
-      <c r="AG6" s="8">
+      <c r="AG6" s="6">
         <v>4.17</v>
       </c>
-      <c r="AH6" s="8">
+      <c r="AH6" s="6">
         <v>4.76</v>
       </c>
-      <c r="AI6" s="8">
+      <c r="AI6" s="6">
         <v>2043.94</v>
       </c>
-      <c r="AJ6" s="13">
+      <c r="AJ6" s="10">
         <v>713454.64</v>
       </c>
       <c r="AK6" s="1">
@@ -2090,20 +3752,20 @@
         <v>641893.84</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
         <v>44299</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>4.63</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>5.57</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>1705.36</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>655661.06000000006</v>
       </c>
       <c r="F7" s="1">
@@ -2118,16 +3780,16 @@
       <c r="I7" s="1">
         <v>402860.66</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>4.67</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>5.14</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="6">
         <v>2020</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="6">
         <v>754331</v>
       </c>
       <c r="N7" s="1">
@@ -2142,28 +3804,28 @@
       <c r="Q7" s="1">
         <v>655209</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="6">
         <v>5.25</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="6">
         <v>5.82</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="6">
         <v>2329.09</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="6">
         <v>795196</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="6">
         <v>4.68</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="6">
         <v>5.79</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="6">
         <v>2244.1999999999998</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y7" s="6">
         <v>760469.86</v>
       </c>
       <c r="Z7" s="1">
@@ -2178,25 +3840,25 @@
       <c r="AC7" s="1">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD7" s="8">
+      <c r="AD7" s="6">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE7" s="8">
+      <c r="AE7" s="6">
         <v>2004</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AF7" s="6">
         <v>725783</v>
       </c>
-      <c r="AG7" s="8">
+      <c r="AG7" s="6">
         <v>4.17</v>
       </c>
-      <c r="AH7" s="8">
+      <c r="AH7" s="6">
         <v>4.76</v>
       </c>
-      <c r="AI7" s="8">
+      <c r="AI7" s="6">
         <v>2043.94</v>
       </c>
-      <c r="AJ7" s="13">
+      <c r="AJ7" s="10">
         <v>713454.64</v>
       </c>
       <c r="AK7" s="1">
@@ -2212,20 +3874,20 @@
         <v>642672.81999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A8" s="16">
         <v>44300</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>4.63</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>5.57</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>1705.36</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>655661.06000000006</v>
       </c>
       <c r="F8" s="1">
@@ -2240,16 +3902,16 @@
       <c r="I8" s="1">
         <v>402860.66</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <v>4.67</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>5.14</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="6">
         <v>2020</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="6">
         <v>754331</v>
       </c>
       <c r="N8" s="1">
@@ -2264,28 +3926,28 @@
       <c r="Q8" s="1">
         <v>655209</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="6">
         <v>5.25</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="6">
         <v>5.82</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="6">
         <v>2329.09</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="6">
         <v>795196</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="6">
         <v>4.68</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="6">
         <v>5.79</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X8" s="6">
         <v>2244.1999999999998</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Y8" s="6">
         <v>760469.86</v>
       </c>
       <c r="Z8" s="1">
@@ -2300,25 +3962,25 @@
       <c r="AC8" s="1">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD8" s="8">
+      <c r="AD8" s="6">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE8" s="8">
+      <c r="AE8" s="6">
         <v>2004</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AF8" s="6">
         <v>725783</v>
       </c>
-      <c r="AG8" s="8">
+      <c r="AG8" s="6">
         <v>4.17</v>
       </c>
-      <c r="AH8" s="8">
+      <c r="AH8" s="6">
         <v>4.76</v>
       </c>
-      <c r="AI8" s="8">
+      <c r="AI8" s="6">
         <v>2043.94</v>
       </c>
-      <c r="AJ8" s="8">
+      <c r="AJ8" s="6">
         <v>713455.08</v>
       </c>
       <c r="AK8" s="1">
@@ -2334,20 +3996,20 @@
         <v>642673.18000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A9" s="16">
         <v>44305</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>4.63</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>5.57</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>1705.36</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>655661.06000000006</v>
       </c>
       <c r="F9" s="1">
@@ -2362,16 +4024,16 @@
       <c r="I9" s="1">
         <v>592448.41</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <v>4.67</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <v>5.14</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="6">
         <v>2020</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="6">
         <v>754331</v>
       </c>
       <c r="N9" s="1">
@@ -2386,28 +4048,28 @@
       <c r="Q9" s="1">
         <v>655209</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="6">
         <v>5.25</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="6">
         <v>5.82</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="6">
         <v>2329.09</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="6">
         <v>795196</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="6">
         <v>4.68</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W9" s="6">
         <v>5.79</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X9" s="6">
         <v>2244.1999999999998</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Y9" s="6">
         <v>760469.86</v>
       </c>
       <c r="Z9" s="1">
@@ -2422,25 +4084,25 @@
       <c r="AC9" s="1">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD9" s="8">
+      <c r="AD9" s="6">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE9" s="8">
+      <c r="AE9" s="6">
         <v>2004</v>
       </c>
-      <c r="AF9" s="8">
+      <c r="AF9" s="6">
         <v>725783</v>
       </c>
-      <c r="AG9" s="8">
+      <c r="AG9" s="6">
         <v>4.17</v>
       </c>
-      <c r="AH9" s="8">
+      <c r="AH9" s="6">
         <v>4.76</v>
       </c>
-      <c r="AI9" s="8">
+      <c r="AI9" s="6">
         <v>2043.94</v>
       </c>
-      <c r="AJ9" s="8">
+      <c r="AJ9" s="6">
         <v>713454.64</v>
       </c>
       <c r="AK9" s="1">
@@ -2456,20 +4118,20 @@
         <v>642672.81999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A10" s="16">
         <v>44306</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>4.63</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>5.57</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>1705.36</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>655661.06000000006</v>
       </c>
       <c r="F10" s="1">
@@ -2484,16 +4146,16 @@
       <c r="I10" s="1">
         <v>592448.41</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <v>4.67</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>5.14</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="6">
         <v>2020</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="6">
         <v>754331</v>
       </c>
       <c r="N10" s="1">
@@ -2508,28 +4170,28 @@
       <c r="Q10" s="1">
         <v>655209</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="6">
         <v>5.25</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="6">
         <v>5.82</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="6">
         <v>2329.09</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="6">
         <v>795196</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="6">
         <v>4.68</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="6">
         <v>5.79</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X10" s="6">
         <v>2244.1999999999998</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y10" s="6">
         <v>760469.86</v>
       </c>
       <c r="Z10" s="1">
@@ -2544,25 +4206,25 @@
       <c r="AC10" s="1">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD10" s="8">
+      <c r="AD10" s="6">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE10" s="8">
+      <c r="AE10" s="6">
         <v>2004</v>
       </c>
-      <c r="AF10" s="8">
+      <c r="AF10" s="6">
         <v>725783</v>
       </c>
-      <c r="AG10" s="8">
+      <c r="AG10" s="6">
         <v>4.17</v>
       </c>
-      <c r="AH10" s="8">
+      <c r="AH10" s="6">
         <v>4.76</v>
       </c>
-      <c r="AI10" s="8">
+      <c r="AI10" s="6">
         <v>2043.94</v>
       </c>
-      <c r="AJ10" s="8">
+      <c r="AJ10" s="6">
         <v>713454.64</v>
       </c>
       <c r="AK10" s="1">
@@ -2579,339 +4241,732 @@
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
+      <c r="A11" s="16">
+        <v>44312</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4.63</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5.57</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1705.36</v>
+      </c>
+      <c r="E11" s="6">
+        <v>655661.06000000006</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1559.78</v>
+      </c>
+      <c r="I11" s="1">
+        <v>592448.41</v>
+      </c>
+      <c r="J11" s="6">
+        <v>4.67</v>
+      </c>
+      <c r="K11" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2020</v>
+      </c>
+      <c r="M11" s="6">
+        <v>754331</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1788</v>
+      </c>
       <c r="Q11" s="1">
         <v>655209</v>
       </c>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="22"/>
-      <c r="AL11" s="22"/>
-      <c r="AM11" s="22"/>
-      <c r="AN11" s="22"/>
+      <c r="R11" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="S11" s="6">
+        <v>5.82</v>
+      </c>
+      <c r="T11" s="6">
+        <v>2329.09</v>
+      </c>
+      <c r="U11" s="6">
+        <v>795196</v>
+      </c>
+      <c r="V11" s="6">
+        <v>4.68</v>
+      </c>
+      <c r="W11" s="6">
+        <v>5.79</v>
+      </c>
+      <c r="X11" s="6">
+        <v>2244.1999999999998</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>760469.86</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>1788.49</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>2004</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>725783</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>4.17</v>
+      </c>
+      <c r="AH11" s="6">
+        <v>4.76</v>
+      </c>
+      <c r="AI11" s="6">
+        <v>2043.94</v>
+      </c>
+      <c r="AJ11" s="6">
+        <v>713454.64</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>1785.22</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>642672.81999999995</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A12" s="26">
-        <v>44312</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="16">
+        <v>44325</v>
+      </c>
+      <c r="B12" s="6">
         <v>4.63</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>5.57</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>1705.36</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>655661.06000000006</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>3.88</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>4.8</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>1559.78</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>592448.41</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="6">
         <v>4.67</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="6">
         <v>5.14</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="6">
         <v>2020</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="6">
         <v>754331</v>
       </c>
-      <c r="N12">
-        <v>3.67</v>
-      </c>
-      <c r="O12">
+      <c r="N12" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="O12" s="1">
         <v>3.9</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="1">
         <v>1788</v>
       </c>
       <c r="Q12" s="1">
         <v>655209</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="6">
         <v>5.25</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="6">
         <v>5.82</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="6">
         <v>2329.09</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="6">
         <v>795196</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="6">
         <v>4.68</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="6">
         <v>5.79</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="6">
         <v>2244.1999999999998</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="6">
         <v>760469.86</v>
       </c>
-      <c r="Z12">
-        <v>3.67</v>
-      </c>
-      <c r="AA12">
+      <c r="Z12" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AA12" s="1">
         <v>3.93</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="1">
         <v>1788.49</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="1">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="6">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="6">
         <v>2004</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="6">
         <v>725783</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="6">
         <v>4.17</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="6">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AI12" s="6">
+        <v>2044.16</v>
+      </c>
+      <c r="AJ12" s="6">
+        <v>713536.86</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>1785.4</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>642739.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A13" s="16">
+        <v>44326</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4.63</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5.57</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1705.36</v>
+      </c>
+      <c r="E13" s="6">
+        <v>655661.06000000006</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1559.78</v>
+      </c>
+      <c r="I13" s="1">
+        <v>592448.41</v>
+      </c>
+      <c r="J13" s="6">
+        <v>4.67</v>
+      </c>
+      <c r="K13" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="L13" s="6">
+        <v>2020</v>
+      </c>
+      <c r="M13" s="6">
+        <v>754331</v>
+      </c>
+      <c r="N13" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="O13" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1788</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>655209</v>
+      </c>
+      <c r="R13" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="S13" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="T13" s="6">
+        <v>2329.09</v>
+      </c>
+      <c r="U13" s="6">
+        <v>793396</v>
+      </c>
+      <c r="V13" s="6">
+        <v>4.68</v>
+      </c>
+      <c r="W13" s="6">
+        <v>5.79</v>
+      </c>
+      <c r="X13" s="6">
+        <v>2244.1999999999998</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>760469.86</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1788.49</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>2004</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>725783</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>4.17</v>
+      </c>
+      <c r="AH13" s="6">
         <v>4.76</v>
       </c>
-      <c r="AI12">
+      <c r="AI13" s="6">
         <v>2043.94</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ13" s="6">
         <v>713454.64</v>
       </c>
-      <c r="AK12">
-        <v>3.67</v>
-      </c>
-      <c r="AL12">
+      <c r="AK13" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AL13" s="1">
         <v>3.73</v>
       </c>
-      <c r="AM12">
+      <c r="AM13" s="1">
         <v>1785.22</v>
       </c>
-      <c r="AN12">
+      <c r="AN13" s="1">
         <v>642672.81999999995</v>
       </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A14" s="29">
+        <v>44344</v>
+      </c>
+      <c r="B14" s="27">
+        <v>4.63</v>
+      </c>
+      <c r="C14" s="27">
+        <v>5.57</v>
+      </c>
+      <c r="D14" s="27">
+        <v>1705.36</v>
+      </c>
+      <c r="E14" s="27">
+        <v>655801.06000000006</v>
+      </c>
+      <c r="F14" s="28">
+        <v>3.88</v>
+      </c>
+      <c r="G14" s="28">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="28">
+        <v>1559.78</v>
+      </c>
+      <c r="I14" s="28">
+        <v>592448.41</v>
+      </c>
+      <c r="J14" s="27">
+        <v>4.67</v>
+      </c>
+      <c r="K14" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="L14" s="6">
+        <v>2020</v>
+      </c>
+      <c r="M14" s="6">
+        <v>754331</v>
+      </c>
+      <c r="N14" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="O14" s="28">
+        <v>3.93</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1788</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>655209</v>
+      </c>
+      <c r="R14" s="27">
+        <v>5.25</v>
+      </c>
+      <c r="S14" s="27">
+        <v>5.8</v>
+      </c>
+      <c r="T14" s="27">
+        <v>2329.09</v>
+      </c>
+      <c r="U14" s="27">
+        <v>793396</v>
+      </c>
+      <c r="V14" s="27">
+        <v>4.68</v>
+      </c>
+      <c r="W14" s="27">
+        <v>5.79</v>
+      </c>
+      <c r="X14" s="27">
+        <v>2244.1999999999998</v>
+      </c>
+      <c r="Y14" s="27">
+        <v>760469.86</v>
+      </c>
+      <c r="Z14" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AA14" s="28">
+        <v>3.93</v>
+      </c>
+      <c r="AB14" s="28">
+        <v>1788.49</v>
+      </c>
+      <c r="AC14" s="28">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD14" s="27">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE14" s="27">
+        <v>2004</v>
+      </c>
+      <c r="AF14" s="27">
+        <v>725783</v>
+      </c>
+      <c r="AG14" s="27">
+        <v>4.17</v>
+      </c>
+      <c r="AH14" s="27">
+        <v>4.76</v>
+      </c>
+      <c r="AI14" s="27">
+        <v>2043.94</v>
+      </c>
+      <c r="AJ14" s="27">
+        <v>713455.08</v>
+      </c>
+      <c r="AK14" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AL14" s="28">
+        <v>3.73</v>
+      </c>
+      <c r="AM14" s="28">
+        <v>1785.22</v>
+      </c>
+      <c r="AN14" s="28">
+        <v>642673.18000000005</v>
+      </c>
+    </row>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1048576" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A1048576" s="26"/>
+      <c r="B1048576" s="8"/>
+      <c r="C1048576" s="8"/>
+      <c r="D1048576" s="8"/>
+      <c r="E1048576" s="8"/>
+      <c r="F1048576" s="9"/>
+      <c r="G1048576" s="9"/>
+      <c r="H1048576" s="9"/>
+      <c r="I1048576" s="9"/>
+      <c r="J1048576" s="8"/>
+      <c r="K1048576" s="8"/>
+      <c r="L1048576" s="8"/>
+      <c r="M1048576" s="8"/>
+      <c r="N1048576" s="9"/>
+      <c r="O1048576" s="9"/>
+      <c r="P1048576" s="9"/>
+      <c r="Q1048576" s="9"/>
+      <c r="R1048576" s="8"/>
+      <c r="S1048576" s="8"/>
+      <c r="T1048576" s="8"/>
+      <c r="U1048576" s="8"/>
+      <c r="V1048576" s="8"/>
+      <c r="W1048576" s="8"/>
+      <c r="X1048576" s="8"/>
+      <c r="Y1048576" s="8"/>
+      <c r="Z1048576" s="12"/>
+      <c r="AA1048576" s="12"/>
+      <c r="AB1048576" s="12"/>
+      <c r="AC1048576" s="12"/>
+      <c r="AD1048576" s="8"/>
+      <c r="AE1048576" s="8"/>
+      <c r="AF1048576" s="8"/>
+      <c r="AG1048576" s="8"/>
+      <c r="AH1048576" s="8"/>
+      <c r="AI1048576" s="8"/>
+      <c r="AJ1048576" s="8"/>
+      <c r="AK1048576" s="9"/>
+      <c r="AL1048576" s="9"/>
+      <c r="AM1048576" s="9"/>
+      <c r="AN1048576" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AN12"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView zoomScale="96" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="8" customWidth="1"/>
-    <col min="6" max="8" width="8.7265625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" style="3" customWidth="1"/>
-    <col min="10" max="13" width="8.7265625" style="8" customWidth="1"/>
-    <col min="14" max="17" width="8.7265625" style="1" customWidth="1"/>
-    <col min="18" max="25" width="8.7265625" style="8" customWidth="1"/>
-    <col min="26" max="29" width="8.7265625" style="5" customWidth="1"/>
-    <col min="30" max="35" width="8.7265625" style="8" customWidth="1"/>
-    <col min="36" max="36" width="12" style="13" customWidth="1"/>
-    <col min="37" max="39" width="8.7265625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.81640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14" style="6" customWidth="1"/>
+    <col min="6" max="6" width="21" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="18" style="6" customWidth="1"/>
+    <col min="14" max="14" width="21" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.90625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.90625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.7265625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.54296875" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7265625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="11" style="6" customWidth="1"/>
+    <col min="21" max="21" width="11.36328125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="14.1796875" style="6" customWidth="1"/>
+    <col min="23" max="23" width="10.26953125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="10.54296875" style="6" customWidth="1"/>
+    <col min="25" max="25" width="11" style="6" customWidth="1"/>
+    <col min="26" max="26" width="18.90625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="15" style="5" customWidth="1"/>
+    <col min="28" max="28" width="15.26953125" style="5" customWidth="1"/>
+    <col min="29" max="29" width="15.7265625" style="5" customWidth="1"/>
+    <col min="30" max="30" width="9.26953125" style="6" customWidth="1"/>
+    <col min="31" max="31" width="9.54296875" style="6" customWidth="1"/>
+    <col min="32" max="32" width="9.90625" style="6" customWidth="1"/>
+    <col min="33" max="33" width="14.08984375" style="6" customWidth="1"/>
+    <col min="34" max="34" width="10.08984375" style="6" customWidth="1"/>
+    <col min="35" max="35" width="10.453125" style="6" customWidth="1"/>
+    <col min="36" max="36" width="12" style="10" customWidth="1"/>
+    <col min="37" max="37" width="18.81640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="14.90625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="15.1796875" style="1" customWidth="1"/>
+    <col min="40" max="40" width="15.6328125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AN1" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44287</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>4.63</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>5.56</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>1924</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>739150.35</v>
       </c>
       <c r="F2" s="1">
@@ -2926,16 +4981,16 @@
       <c r="I2" s="1">
         <v>709780.2</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="6">
         <v>4.67</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="6">
         <v>5.13</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="6">
         <v>2278</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="6">
         <v>850174</v>
       </c>
       <c r="N2" s="1">
@@ -2950,28 +5005,28 @@
       <c r="Q2" s="1">
         <v>738919</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="6">
         <v>5.22</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="6">
         <v>5.82</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="6">
         <v>2631.28</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="6">
         <v>898050</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="6">
         <v>4.68</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="6">
         <v>6.4</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="6">
         <v>2694.72</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="6">
         <v>952247.27</v>
       </c>
       <c r="Z2" s="5">
@@ -2986,25 +5041,25 @@
       <c r="AC2" s="5">
         <v>740968.73</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AD2" s="6">
         <v>4.5599999999999996</v>
       </c>
-      <c r="AE2" s="8">
+      <c r="AE2" s="6">
         <v>2209</v>
       </c>
-      <c r="AF2" s="8">
+      <c r="AF2" s="6">
         <v>799428</v>
       </c>
-      <c r="AG2" s="8">
+      <c r="AG2" s="6">
         <v>4.17</v>
       </c>
-      <c r="AH2" s="8">
+      <c r="AH2" s="6">
         <v>4.76</v>
       </c>
-      <c r="AI2" s="8">
+      <c r="AI2" s="6">
         <v>2312.56</v>
       </c>
-      <c r="AJ2" s="13">
+      <c r="AJ2" s="10">
         <v>807221.09</v>
       </c>
       <c r="AK2" s="1">
@@ -3016,24 +5071,24 @@
       <c r="AM2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="15">
+      <c r="AN2" s="11">
         <v>724186.02</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44288</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>4.63</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>5.56</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>1924</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>739150.35</v>
       </c>
       <c r="F3" s="1">
@@ -3048,16 +5103,16 @@
       <c r="I3" s="1">
         <v>709780.2</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <v>4.67</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>5.13</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="6">
         <v>2278</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="6">
         <v>850174</v>
       </c>
       <c r="N3" s="1">
@@ -3072,28 +5127,28 @@
       <c r="Q3" s="1">
         <v>738919</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="6">
         <v>5.22</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="6">
         <v>5.82</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="6">
         <v>2631.28</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="6">
         <v>898050</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="6">
         <v>4.68</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="6">
         <v>6.4</v>
       </c>
-      <c r="X3" s="8">
+      <c r="X3" s="6">
         <v>2694.72</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y3" s="6">
         <v>952247.27</v>
       </c>
       <c r="Z3" s="5">
@@ -3108,25 +5163,25 @@
       <c r="AC3" s="5">
         <v>740968.73</v>
       </c>
-      <c r="AD3" s="8">
+      <c r="AD3" s="6">
         <v>4.5599999999999996</v>
       </c>
-      <c r="AE3" s="8">
+      <c r="AE3" s="6">
         <v>2209</v>
       </c>
-      <c r="AF3" s="8">
+      <c r="AF3" s="6">
         <v>799428</v>
       </c>
-      <c r="AG3" s="8">
+      <c r="AG3" s="6">
         <v>4.17</v>
       </c>
-      <c r="AH3" s="8">
+      <c r="AH3" s="6">
         <v>4.76</v>
       </c>
-      <c r="AI3" s="8">
+      <c r="AI3" s="6">
         <v>2312.56</v>
       </c>
-      <c r="AJ3" s="13">
+      <c r="AJ3" s="10">
         <v>807221.58</v>
       </c>
       <c r="AK3" s="1">
@@ -3138,24 +5193,24 @@
       <c r="AM3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AN3" s="15">
+      <c r="AN3" s="11">
         <v>724186.43</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44291</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>4.63</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>5.56</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>1924</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>739150.35</v>
       </c>
       <c r="F4" s="1">
@@ -3170,16 +5225,16 @@
       <c r="I4" s="1">
         <v>709780.2</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <v>4.67</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <v>5.13</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="6">
         <v>2278</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <v>850174</v>
       </c>
       <c r="N4" s="1">
@@ -3194,28 +5249,28 @@
       <c r="Q4" s="1">
         <v>738919</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="6">
         <v>5.22</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="6">
         <v>5.82</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="6">
         <v>2631.28</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="6">
         <v>898050</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="6">
         <v>4.68</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="6">
         <v>6.4</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="6">
         <v>2694.72</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="6">
         <v>952247.27</v>
       </c>
       <c r="Z4" s="5">
@@ -3230,25 +5285,25 @@
       <c r="AC4" s="5">
         <v>740968.73</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AD4" s="6">
         <v>4.5599999999999996</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AE4" s="6">
         <v>2209</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AF4" s="6">
         <v>799428</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AG4" s="6">
         <v>4.17</v>
       </c>
-      <c r="AH4" s="8">
+      <c r="AH4" s="6">
         <v>4.76</v>
       </c>
-      <c r="AI4" s="8">
+      <c r="AI4" s="6">
         <v>2312.56</v>
       </c>
-      <c r="AJ4" s="13">
+      <c r="AJ4" s="10">
         <v>807221.58</v>
       </c>
       <c r="AK4" s="1">
@@ -3260,24 +5315,24 @@
       <c r="AM4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AN4" s="15">
+      <c r="AN4" s="11">
         <v>724187.43</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44294</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>4.63</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>5.56</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>1924</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>739150.35</v>
       </c>
       <c r="F5" s="1">
@@ -3292,16 +5347,16 @@
       <c r="I5" s="1">
         <v>709780.2</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <v>4.67</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>5.13</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="6">
         <v>2278</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="6">
         <v>850174</v>
       </c>
       <c r="N5" s="1">
@@ -3316,28 +5371,28 @@
       <c r="Q5" s="1">
         <v>738919</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="6">
         <v>5.25</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="6">
         <v>5.82</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="6">
         <v>2627.7</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="6">
         <v>896830</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="6">
         <v>4.68</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="6">
         <v>6.4</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="6">
         <v>2694.72</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="6">
         <v>952247.27</v>
       </c>
       <c r="Z5" s="5">
@@ -3352,25 +5407,25 @@
       <c r="AC5" s="5">
         <v>740968.73</v>
       </c>
-      <c r="AD5" s="8">
+      <c r="AD5" s="6">
         <v>4.5599999999999996</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="6">
         <v>2209</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AF5" s="6">
         <v>799428</v>
       </c>
-      <c r="AG5" s="8">
+      <c r="AG5" s="6">
         <v>4.17</v>
       </c>
-      <c r="AH5" s="8">
+      <c r="AH5" s="6">
         <v>4.76</v>
       </c>
-      <c r="AI5" s="8">
+      <c r="AI5" s="6">
         <v>2312.56</v>
       </c>
-      <c r="AJ5" s="13">
+      <c r="AJ5" s="10">
         <v>807221.58</v>
       </c>
       <c r="AK5" s="1">
@@ -3382,24 +5437,24 @@
       <c r="AM5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AN5" s="15">
+      <c r="AN5" s="11">
         <v>724187.43</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44295</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>4.63</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>5.56</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>1924</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>739150.35</v>
       </c>
       <c r="F6" s="1">
@@ -3414,16 +5469,16 @@
       <c r="I6" s="1">
         <v>667929.43999999994</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>4.67</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>5.13</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="6">
         <v>2278</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="6">
         <v>850174</v>
       </c>
       <c r="N6" s="1">
@@ -3438,28 +5493,28 @@
       <c r="Q6" s="1">
         <v>738919</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="6">
         <v>5.25</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="6">
         <v>5.82</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="6">
         <v>2627.7</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="6">
         <v>896830</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="6">
         <v>4.68</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="6">
         <v>6.4</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="6">
         <v>2694.72</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="6">
         <v>952247.27</v>
       </c>
       <c r="Z6" s="5">
@@ -3474,25 +5529,25 @@
       <c r="AC6" s="5">
         <v>740968.73</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AD6" s="6">
         <v>4.5599999999999996</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AE6" s="6">
         <v>2209</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AF6" s="6">
         <v>799428</v>
       </c>
-      <c r="AG6" s="8">
+      <c r="AG6" s="6">
         <v>4.17</v>
       </c>
-      <c r="AH6" s="8">
+      <c r="AH6" s="6">
         <v>4.76</v>
       </c>
-      <c r="AI6" s="8">
+      <c r="AI6" s="6">
         <v>2312.56</v>
       </c>
-      <c r="AJ6" s="13">
+      <c r="AJ6" s="10">
         <v>807221.58</v>
       </c>
       <c r="AK6" s="1">
@@ -3504,24 +5559,24 @@
       <c r="AM6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AN6" s="15">
+      <c r="AN6" s="11">
         <v>724187.43</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44299</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>4.63</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>5.56</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>1924</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>739150.35</v>
       </c>
       <c r="F7" s="1">
@@ -3536,16 +5591,16 @@
       <c r="I7" s="1">
         <v>667929.43999999994</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>4.67</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>5.13</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="6">
         <v>2278</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="6">
         <v>850174</v>
       </c>
       <c r="N7" s="1">
@@ -3560,28 +5615,28 @@
       <c r="Q7" s="1">
         <v>738919</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="6">
         <v>5.25</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="6">
         <v>5.82</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="6">
         <v>2627.7</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="6">
         <v>896830</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="6">
         <v>4.68</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="6">
         <v>5.79</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="6">
         <v>2531.92</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y7" s="6">
         <v>857900.61</v>
       </c>
       <c r="Z7" s="1">
@@ -3596,25 +5651,25 @@
       <c r="AC7" s="1">
         <v>740968.73</v>
       </c>
-      <c r="AD7" s="8">
+      <c r="AD7" s="6">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE7" s="8">
+      <c r="AE7" s="6">
         <v>2261</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AF7" s="6">
         <v>818274</v>
       </c>
-      <c r="AG7" s="8">
+      <c r="AG7" s="6">
         <v>4.17</v>
       </c>
-      <c r="AH7" s="8">
+      <c r="AH7" s="6">
         <v>4.76</v>
       </c>
-      <c r="AI7" s="8">
+      <c r="AI7" s="6">
         <v>2313.13</v>
       </c>
-      <c r="AJ7" s="8">
+      <c r="AJ7" s="6">
         <v>807420.9</v>
       </c>
       <c r="AK7" s="1">
@@ -3630,20 +5685,20 @@
         <v>724840.82</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44300</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>4.63</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>5.56</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>1924</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>739150.35</v>
       </c>
       <c r="F8" s="1">
@@ -3658,16 +5713,16 @@
       <c r="I8" s="1">
         <v>667929.43999999994</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <v>4.67</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>5.13</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="6">
         <v>2278</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="6">
         <v>850174</v>
       </c>
       <c r="N8" s="1">
@@ -3682,28 +5737,28 @@
       <c r="Q8" s="1">
         <v>738919</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="6">
         <v>5.25</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="6">
         <v>5.82</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="6">
         <v>2627.7</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="6">
         <v>896830</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="6">
         <v>4.68</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="6">
         <v>5.79</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X8" s="6">
         <v>2531.92</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Y8" s="6">
         <v>857900.61</v>
       </c>
       <c r="Z8" s="1">
@@ -3718,25 +5773,25 @@
       <c r="AC8" s="1">
         <v>740968.73</v>
       </c>
-      <c r="AD8" s="8">
+      <c r="AD8" s="6">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE8" s="8">
+      <c r="AE8" s="6">
         <v>2261</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AF8" s="6">
         <v>818274</v>
       </c>
-      <c r="AG8" s="8">
+      <c r="AG8" s="6">
         <v>4.17</v>
       </c>
-      <c r="AH8" s="8">
+      <c r="AH8" s="6">
         <v>4.76</v>
       </c>
-      <c r="AI8" s="8">
+      <c r="AI8" s="6">
         <v>2313.13</v>
       </c>
-      <c r="AJ8" s="8">
+      <c r="AJ8" s="6">
         <v>807421.39</v>
       </c>
       <c r="AK8" s="1">
@@ -3752,20 +5807,20 @@
         <v>724841.23</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44305</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>4.63</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>5.56</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>1924</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>739150.35</v>
       </c>
       <c r="F9" s="1">
@@ -3780,16 +5835,16 @@
       <c r="I9" s="1">
         <v>667929.43999999994</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <v>4.67</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <v>5.13</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="6">
         <v>2278</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="6">
         <v>850174</v>
       </c>
       <c r="N9" s="1">
@@ -3804,28 +5859,28 @@
       <c r="Q9" s="1">
         <v>738919</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="6">
         <v>5.25</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="6">
         <v>5.82</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="6">
         <v>2627.7</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="6">
         <v>896830</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="6">
         <v>4.68</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W9" s="6">
         <v>5.79</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X9" s="6">
         <v>2531.92</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Y9" s="6">
         <v>857900.61</v>
       </c>
       <c r="Z9" s="1">
@@ -3840,25 +5895,25 @@
       <c r="AC9" s="1">
         <v>740968.73</v>
       </c>
-      <c r="AD9" s="8">
+      <c r="AD9" s="6">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE9" s="8">
+      <c r="AE9" s="6">
         <v>2261</v>
       </c>
-      <c r="AF9" s="8">
+      <c r="AF9" s="6">
         <v>818274</v>
       </c>
-      <c r="AG9" s="8">
+      <c r="AG9" s="6">
         <v>4.17</v>
       </c>
-      <c r="AH9" s="8">
+      <c r="AH9" s="6">
         <v>4.76</v>
       </c>
-      <c r="AI9" s="8">
+      <c r="AI9" s="6">
         <v>2313.13</v>
       </c>
-      <c r="AJ9" s="8">
+      <c r="AJ9" s="6">
         <v>807420.9</v>
       </c>
       <c r="AK9" s="1">
@@ -3874,20 +5929,20 @@
         <v>724840.82</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>44306</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>4.63</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>5.56</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>1924</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>739150.35</v>
       </c>
       <c r="F10" s="1">
@@ -3902,16 +5957,16 @@
       <c r="I10" s="1">
         <v>667929.43999999994</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <v>4.67</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>5.13</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="6">
         <v>2278</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="6">
         <v>850174</v>
       </c>
       <c r="N10" s="1">
@@ -3926,28 +5981,28 @@
       <c r="Q10" s="1">
         <v>738919</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="6">
         <v>5.25</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="6">
         <v>5.83</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="6">
         <v>2299.23</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="6">
         <v>785032</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="6">
         <v>4.68</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="6">
         <v>5.79</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X10" s="6">
         <v>2531.92</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y10" s="6">
         <v>857900.61</v>
       </c>
       <c r="Z10" s="1">
@@ -3962,25 +6017,25 @@
       <c r="AC10" s="1">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD10" s="8">
+      <c r="AD10" s="6">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE10" s="8">
+      <c r="AE10" s="6">
         <v>2261</v>
       </c>
-      <c r="AF10" s="8">
+      <c r="AF10" s="6">
         <v>818274</v>
       </c>
-      <c r="AG10" s="8">
+      <c r="AG10" s="6">
         <v>4.17</v>
       </c>
-      <c r="AH10" s="8">
+      <c r="AH10" s="6">
         <v>4.76</v>
       </c>
-      <c r="AI10" s="8">
+      <c r="AI10" s="6">
         <v>2313.13</v>
       </c>
-      <c r="AJ10" s="8">
+      <c r="AJ10" s="6">
         <v>807420.9</v>
       </c>
       <c r="AK10" s="1">
@@ -3997,413 +6052,975 @@
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A11" s="26">
+      <c r="A11" s="30">
         <v>44312</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="27">
         <v>4.63</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="27">
         <v>5.56</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="27">
         <v>1924</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="27">
         <v>739150.35</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="28">
         <v>3.88</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="28">
         <v>4.79</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="28">
         <v>1759.76</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="28">
         <v>667929.43999999994</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="27">
         <v>4.67</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="27">
         <v>5.13</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="27">
         <v>2278</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="27">
         <v>850174</v>
       </c>
-      <c r="N11">
-        <v>3.67</v>
-      </c>
-      <c r="O11">
+      <c r="N11" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="O11" s="28">
         <v>3.9</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="28">
         <v>2017</v>
       </c>
       <c r="Q11" s="1">
         <v>738919</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="27">
         <v>5.25</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="27">
         <v>5.82</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="27">
         <v>2627.7</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="27">
         <v>896830</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="27">
         <v>4.68</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="27">
         <v>5.79</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="27">
         <v>2531.92</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="27">
         <v>857900.61</v>
       </c>
-      <c r="Z11">
-        <v>3.67</v>
-      </c>
-      <c r="AA11">
+      <c r="Z11" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AA11" s="28">
         <v>3.93</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="28">
         <v>2017.79</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="28">
         <v>740968.73</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="27">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="27">
         <v>2261</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="27">
         <v>818274</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="27">
         <v>4.17</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="27">
         <v>4.76</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" s="27">
         <v>2313.13</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" s="27">
         <v>807420.9</v>
       </c>
-      <c r="AK11">
-        <v>3.67</v>
-      </c>
-      <c r="AL11">
+      <c r="AK11" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AL11" s="28">
         <v>3.73</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" s="28">
         <v>2013.45</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" s="28">
         <v>724840.82</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A12" s="27">
+      <c r="A12" s="30">
         <v>44322</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="27">
         <v>4.63</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="27">
         <v>5.56</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="27">
         <v>1924</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="27">
         <v>739150.35</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="28">
         <v>3.88</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="28">
         <v>4.79</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="28">
         <v>1759.76</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="28">
         <v>667929.43999999994</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="27">
         <v>4.67</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="27">
         <v>5.13</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="27">
         <v>2278</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="27">
         <v>850174</v>
       </c>
-      <c r="N12">
-        <v>3.67</v>
-      </c>
-      <c r="O12">
+      <c r="N12" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="O12" s="28">
         <v>3.9</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="28">
         <v>2017</v>
       </c>
       <c r="Q12" s="1">
         <v>738919</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="27">
         <v>5.25</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="27">
         <v>5.82</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="27">
         <v>2627.7</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="27">
         <v>896830</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="27">
         <v>4.68</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="27">
         <v>5.79</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="27">
         <v>2531.92</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="27">
         <v>857900.61</v>
       </c>
-      <c r="Z12">
-        <v>3.67</v>
-      </c>
-      <c r="AA12">
+      <c r="Z12" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AA12" s="28">
         <v>3.93</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="28">
         <v>2017.79</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="28">
         <v>740968.73</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="27">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="27">
         <v>2261</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="27">
         <v>818274</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="27">
         <v>4.17</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="27">
         <v>4.76</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" s="27">
         <v>2313.13</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" s="27">
         <v>807421.39</v>
       </c>
-      <c r="AK12">
-        <v>3.67</v>
-      </c>
-      <c r="AL12">
+      <c r="AK12" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AL12" s="28">
         <v>3.73</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" s="28">
         <v>2013.45</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" s="28">
         <v>724841.23</v>
       </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A13" s="30">
+        <v>44325</v>
+      </c>
+      <c r="B13" s="27">
+        <v>4.63</v>
+      </c>
+      <c r="C13" s="27">
+        <v>5.56</v>
+      </c>
+      <c r="D13" s="27">
+        <v>1924</v>
+      </c>
+      <c r="E13" s="27">
+        <v>739150.35</v>
+      </c>
+      <c r="F13" s="28">
+        <v>3.88</v>
+      </c>
+      <c r="G13" s="28">
+        <v>4.79</v>
+      </c>
+      <c r="H13" s="28">
+        <v>1759.76</v>
+      </c>
+      <c r="I13" s="28">
+        <v>667929.43999999994</v>
+      </c>
+      <c r="J13" s="27">
+        <v>4.67</v>
+      </c>
+      <c r="K13" s="27">
+        <v>5.13</v>
+      </c>
+      <c r="L13" s="27">
+        <v>2278</v>
+      </c>
+      <c r="M13" s="27">
+        <v>850174</v>
+      </c>
+      <c r="N13" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="O13" s="28">
+        <v>3.9</v>
+      </c>
+      <c r="P13" s="28">
+        <v>2017</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>738919</v>
+      </c>
+      <c r="R13" s="27">
+        <v>5.25</v>
+      </c>
+      <c r="S13" s="27">
+        <v>5.82</v>
+      </c>
+      <c r="T13" s="27">
+        <v>2627.7</v>
+      </c>
+      <c r="U13" s="27">
+        <v>896830</v>
+      </c>
+      <c r="V13" s="27">
+        <v>4.68</v>
+      </c>
+      <c r="W13" s="27">
+        <v>5.79</v>
+      </c>
+      <c r="X13" s="27">
+        <v>2531.92</v>
+      </c>
+      <c r="Y13" s="27">
+        <v>857900.61</v>
+      </c>
+      <c r="Z13" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AA13" s="28">
+        <v>3.93</v>
+      </c>
+      <c r="AB13" s="28">
+        <v>2017.79</v>
+      </c>
+      <c r="AC13" s="28">
+        <v>740968.73</v>
+      </c>
+      <c r="AD13" s="27">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE13" s="27">
+        <v>2261</v>
+      </c>
+      <c r="AF13" s="27">
+        <v>818274</v>
+      </c>
+      <c r="AG13" s="27">
+        <v>4.17</v>
+      </c>
+      <c r="AH13" s="27">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AI13" s="27">
+        <v>2313.37</v>
+      </c>
+      <c r="AJ13" s="27">
+        <v>807517.69</v>
+      </c>
+      <c r="AK13" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AL13" s="28">
+        <v>3.73</v>
+      </c>
+      <c r="AM13" s="28">
+        <v>2013.66</v>
+      </c>
+      <c r="AN13" s="28">
+        <v>724913.58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A14" s="30">
+        <v>44326</v>
+      </c>
+      <c r="B14" s="27">
+        <v>4.63</v>
+      </c>
+      <c r="C14" s="27">
+        <v>5.56</v>
+      </c>
+      <c r="D14" s="27">
+        <v>1924</v>
+      </c>
+      <c r="E14" s="27">
+        <v>739150.35</v>
+      </c>
+      <c r="F14" s="28">
+        <v>3.88</v>
+      </c>
+      <c r="G14" s="28">
+        <v>4.79</v>
+      </c>
+      <c r="H14" s="28">
+        <v>1759.76</v>
+      </c>
+      <c r="I14" s="28">
+        <v>667929.43999999994</v>
+      </c>
+      <c r="J14" s="27">
+        <v>4.67</v>
+      </c>
+      <c r="K14" s="27">
+        <v>5.13</v>
+      </c>
+      <c r="L14" s="27">
+        <v>2278</v>
+      </c>
+      <c r="M14" s="27">
+        <v>850174</v>
+      </c>
+      <c r="N14" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="O14" s="28">
+        <v>3.9</v>
+      </c>
+      <c r="P14" s="28">
+        <v>2017</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>738919</v>
+      </c>
+      <c r="R14" s="27">
+        <v>5.25</v>
+      </c>
+      <c r="S14" s="27">
+        <v>5.8</v>
+      </c>
+      <c r="T14" s="27">
+        <v>2627.7</v>
+      </c>
+      <c r="U14" s="27">
+        <v>895030</v>
+      </c>
+      <c r="V14" s="27">
+        <v>4.68</v>
+      </c>
+      <c r="W14" s="27">
+        <v>5.79</v>
+      </c>
+      <c r="X14" s="27">
+        <v>2531.92</v>
+      </c>
+      <c r="Y14" s="27">
+        <v>857900.61</v>
+      </c>
+      <c r="Z14" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AA14" s="28">
+        <v>3.93</v>
+      </c>
+      <c r="AB14" s="28">
+        <v>2017.79</v>
+      </c>
+      <c r="AC14" s="28">
+        <v>740968.73</v>
+      </c>
+      <c r="AD14" s="27">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE14" s="27">
+        <v>2261</v>
+      </c>
+      <c r="AF14" s="27">
+        <v>818274</v>
+      </c>
+      <c r="AG14" s="27">
+        <v>4.17</v>
+      </c>
+      <c r="AH14" s="27">
+        <v>4.76</v>
+      </c>
+      <c r="AI14" s="27">
+        <v>2313.13</v>
+      </c>
+      <c r="AJ14" s="27">
+        <v>807420.9</v>
+      </c>
+      <c r="AK14" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AL14" s="28">
+        <v>3.73</v>
+      </c>
+      <c r="AM14" s="28">
+        <v>2013.45</v>
+      </c>
+      <c r="AN14" s="28">
+        <v>724840.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A15" s="30">
+        <v>44344</v>
+      </c>
+      <c r="B15" s="27">
+        <v>4.63</v>
+      </c>
+      <c r="C15" s="27">
+        <v>5.56</v>
+      </c>
+      <c r="D15" s="27">
+        <v>1924</v>
+      </c>
+      <c r="E15" s="27">
+        <v>739290.35</v>
+      </c>
+      <c r="F15" s="28">
+        <v>3.88</v>
+      </c>
+      <c r="G15" s="28">
+        <v>4.79</v>
+      </c>
+      <c r="H15" s="28">
+        <v>1759.76</v>
+      </c>
+      <c r="I15" s="28">
+        <v>667929.43999999994</v>
+      </c>
+      <c r="J15" s="27">
+        <v>4.67</v>
+      </c>
+      <c r="K15" s="27">
+        <v>5.13</v>
+      </c>
+      <c r="L15" s="27">
+        <v>2278</v>
+      </c>
+      <c r="M15" s="27">
+        <v>850174</v>
+      </c>
+      <c r="N15" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="O15" s="28">
+        <v>3.9</v>
+      </c>
+      <c r="P15" s="28">
+        <v>2017</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>738919</v>
+      </c>
+      <c r="R15" s="27">
+        <v>5.25</v>
+      </c>
+      <c r="S15" s="27">
+        <v>5.8</v>
+      </c>
+      <c r="T15" s="27">
+        <v>2627.7</v>
+      </c>
+      <c r="U15" s="27">
+        <v>895030</v>
+      </c>
+      <c r="V15" s="27">
+        <v>4.68</v>
+      </c>
+      <c r="W15" s="27">
+        <v>5.79</v>
+      </c>
+      <c r="X15" s="27">
+        <v>2531.92</v>
+      </c>
+      <c r="Y15" s="27">
+        <v>857900.61</v>
+      </c>
+      <c r="Z15" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AA15" s="28">
+        <v>3.93</v>
+      </c>
+      <c r="AB15" s="28">
+        <v>2017.79</v>
+      </c>
+      <c r="AC15" s="28">
+        <v>740968.73</v>
+      </c>
+      <c r="AD15" s="27">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE15" s="27">
+        <v>2261</v>
+      </c>
+      <c r="AF15" s="27">
+        <v>818274</v>
+      </c>
+      <c r="AG15" s="27">
+        <v>4.17</v>
+      </c>
+      <c r="AH15" s="27">
+        <v>4.76</v>
+      </c>
+      <c r="AI15" s="27">
+        <v>2313.13</v>
+      </c>
+      <c r="AJ15" s="27">
+        <v>807421.39</v>
+      </c>
+      <c r="AK15" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AL15" s="28">
+        <v>3.73</v>
+      </c>
+      <c r="AM15" s="28">
+        <v>2013.45</v>
+      </c>
+      <c r="AN15" s="28">
+        <v>724841.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A16" s="30">
+        <v>44344</v>
+      </c>
+      <c r="B16" s="27">
+        <v>4.63</v>
+      </c>
+      <c r="C16" s="27">
+        <v>5.56</v>
+      </c>
+      <c r="D16" s="27">
+        <v>1924</v>
+      </c>
+      <c r="E16" s="27">
+        <v>739290.35</v>
+      </c>
+      <c r="F16" s="28">
+        <v>3.88</v>
+      </c>
+      <c r="G16" s="28">
+        <v>4.79</v>
+      </c>
+      <c r="H16" s="28">
+        <v>1759.76</v>
+      </c>
+      <c r="I16" s="28">
+        <v>667929.43999999994</v>
+      </c>
+      <c r="J16" s="27">
+        <v>4.67</v>
+      </c>
+      <c r="K16" s="27">
+        <v>5.13</v>
+      </c>
+      <c r="L16" s="27">
+        <v>2278</v>
+      </c>
+      <c r="M16" s="27">
+        <v>850174</v>
+      </c>
+      <c r="N16" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="O16" s="28">
+        <v>3.9</v>
+      </c>
+      <c r="P16" s="28">
+        <v>2017</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>738919</v>
+      </c>
+      <c r="R16" s="27">
+        <v>5.25</v>
+      </c>
+      <c r="S16" s="27">
+        <v>5.8</v>
+      </c>
+      <c r="T16" s="27">
+        <v>2627.7</v>
+      </c>
+      <c r="U16" s="27">
+        <v>895030</v>
+      </c>
+      <c r="V16" s="27">
+        <v>4.68</v>
+      </c>
+      <c r="W16" s="27">
+        <v>5.79</v>
+      </c>
+      <c r="X16" s="27">
+        <v>2531.92</v>
+      </c>
+      <c r="Y16" s="27">
+        <v>857900.61</v>
+      </c>
+      <c r="Z16" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AA16" s="28">
+        <v>3.93</v>
+      </c>
+      <c r="AB16" s="28">
+        <v>2017.79</v>
+      </c>
+      <c r="AC16" s="28">
+        <v>740968.73</v>
+      </c>
+      <c r="AD16" s="27">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE16" s="27">
+        <v>2261</v>
+      </c>
+      <c r="AF16" s="27">
+        <v>818274</v>
+      </c>
+      <c r="AG16" s="27">
+        <v>4.17</v>
+      </c>
+      <c r="AH16" s="27">
+        <v>4.76</v>
+      </c>
+      <c r="AI16" s="27">
+        <v>2313.13</v>
+      </c>
+      <c r="AJ16" s="27">
+        <v>807421.39</v>
+      </c>
+      <c r="AK16" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AL16" s="28">
+        <v>3.73</v>
+      </c>
+      <c r="AM16" s="28">
+        <v>2013.45</v>
+      </c>
+      <c r="AN16" s="28">
+        <v>724841.23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AN13"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" style="8" customWidth="1"/>
-    <col min="3" max="5" width="8.7265625" style="8" customWidth="1"/>
-    <col min="6" max="8" width="8.7265625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.36328125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="11" style="8" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="8" customWidth="1"/>
-    <col min="14" max="17" width="8.7265625" style="1" customWidth="1"/>
-    <col min="18" max="24" width="8.7265625" style="8" customWidth="1"/>
-    <col min="25" max="25" width="11.81640625" style="8" customWidth="1"/>
-    <col min="26" max="29" width="8.7265625" style="5" customWidth="1"/>
-    <col min="30" max="31" width="8.7265625" style="8" customWidth="1"/>
-    <col min="32" max="32" width="10.81640625" style="13" customWidth="1"/>
-    <col min="33" max="36" width="8.7265625" style="1" customWidth="1"/>
-    <col min="37" max="40" width="8.7265625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.36328125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="10.26953125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="21.6328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.26953125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.36328125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.453125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.90625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7265625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="11.08984375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="11.54296875" style="6" customWidth="1"/>
+    <col min="22" max="22" width="14.7265625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="10.54296875" style="6" customWidth="1"/>
+    <col min="24" max="24" width="10.81640625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="11.81640625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="19.54296875" style="5" customWidth="1"/>
+    <col min="27" max="27" width="15.36328125" style="5" customWidth="1"/>
+    <col min="28" max="28" width="15.6328125" style="5" customWidth="1"/>
+    <col min="29" max="29" width="16.08984375" style="5" customWidth="1"/>
+    <col min="30" max="30" width="9.36328125" style="6" customWidth="1"/>
+    <col min="31" max="31" width="9.6328125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="10.81640625" style="10" customWidth="1"/>
+    <col min="33" max="33" width="14.6328125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="10.453125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="10.7265625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="11.1796875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="19.453125" style="6" customWidth="1"/>
+    <col min="38" max="38" width="15.26953125" style="6" customWidth="1"/>
+    <col min="39" max="39" width="15.54296875" style="6" customWidth="1"/>
+    <col min="40" max="40" width="16" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A2" s="26">
+      <c r="A2" s="30">
         <v>44287</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>4.33</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>5.22</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>2068.48</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>795405.16</v>
       </c>
       <c r="F2" s="1">
@@ -4418,16 +7035,16 @@
       <c r="I2" s="1">
         <v>790017</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="6">
         <v>4.67</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="6">
         <v>5.12</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="6">
         <v>2537</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="6">
         <v>946017</v>
       </c>
       <c r="N2" s="1">
@@ -4442,28 +7059,28 @@
       <c r="Q2" s="1">
         <v>822829</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="6">
         <v>5.25</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="6">
         <v>5.82</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="6">
         <v>2927.49</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="6">
         <v>998871</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="6">
         <v>4.68</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="6">
         <v>6.4</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="6">
         <v>3000.94</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="6">
         <v>1060399.24</v>
       </c>
       <c r="Z2" s="5">
@@ -4478,13 +7095,13 @@
       <c r="AC2" s="5">
         <v>825111.77</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AD2" s="6">
         <v>4.55</v>
       </c>
-      <c r="AE2" s="8">
+      <c r="AE2" s="6">
         <v>2460</v>
       </c>
-      <c r="AF2" s="13">
+      <c r="AF2" s="10">
         <v>889777</v>
       </c>
       <c r="AG2" s="1">
@@ -4499,33 +7116,33 @@
       <c r="AJ2" s="1">
         <v>898951.28</v>
       </c>
-      <c r="AK2" s="8">
-        <v>3.67</v>
-      </c>
-      <c r="AL2" s="8">
+      <c r="AK2" s="6">
+        <v>3.67</v>
+      </c>
+      <c r="AL2" s="6">
         <v>3.73</v>
       </c>
-      <c r="AM2" s="8">
+      <c r="AM2" s="6">
         <v>2240.23</v>
       </c>
-      <c r="AN2" s="8">
+      <c r="AN2" s="6">
         <v>806481.31</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A3" s="26">
+      <c r="A3" s="30">
         <v>44288</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>4.33</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>5.22</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>2068.48</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>795405.16</v>
       </c>
       <c r="F3" s="1">
@@ -4540,16 +7157,16 @@
       <c r="I3" s="1">
         <v>790017</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <v>4.67</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>5.12</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="6">
         <v>2537</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="6">
         <v>946017</v>
       </c>
       <c r="N3" s="1">
@@ -4564,28 +7181,28 @@
       <c r="Q3" s="1">
         <v>822829</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="6">
         <v>5.25</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="6">
         <v>5.82</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="6">
         <v>2927.49</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="6">
         <v>998871</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="6">
         <v>4.68</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="6">
         <v>6.4</v>
       </c>
-      <c r="X3" s="8">
+      <c r="X3" s="6">
         <v>3000.94</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y3" s="6">
         <v>1060399.24</v>
       </c>
       <c r="Z3" s="5">
@@ -4600,13 +7217,13 @@
       <c r="AC3" s="5">
         <v>825111.77</v>
       </c>
-      <c r="AD3" s="8">
+      <c r="AD3" s="6">
         <v>4.55</v>
       </c>
-      <c r="AE3" s="8">
+      <c r="AE3" s="6">
         <v>2460</v>
       </c>
-      <c r="AF3" s="13">
+      <c r="AF3" s="10">
         <v>889777</v>
       </c>
       <c r="AG3" s="1">
@@ -4621,155 +7238,155 @@
       <c r="AJ3" s="1">
         <v>898951.83</v>
       </c>
-      <c r="AK3" s="8">
-        <v>3.67</v>
-      </c>
-      <c r="AL3" s="8">
+      <c r="AK3" s="6">
+        <v>3.67</v>
+      </c>
+      <c r="AL3" s="6">
         <v>3.73</v>
       </c>
-      <c r="AM3" s="8">
+      <c r="AM3" s="6">
         <v>2240.23</v>
       </c>
-      <c r="AN3" s="8">
+      <c r="AN3" s="6">
         <v>806481.76</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A4" s="26">
+      <c r="A4" s="30">
         <v>44291</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>4.33</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>5.22</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>2068.48</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>795405.16</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>4.41</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="9">
         <v>5.36</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>2088.13</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="9">
         <v>790017</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="8">
         <v>4.67</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="8">
         <v>5.12</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="8">
         <v>2537</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="8">
         <v>946017</v>
       </c>
-      <c r="N4" s="11">
-        <v>3.67</v>
-      </c>
-      <c r="O4" s="11">
+      <c r="N4" s="9">
+        <v>3.67</v>
+      </c>
+      <c r="O4" s="9">
         <v>3.9</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="9">
         <v>2247</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="9">
         <v>822829</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="8">
         <v>5.25</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="8">
         <v>5.82</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="8">
         <v>2927.49</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="8">
         <v>998871</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="8">
         <v>4.68</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="8">
         <v>6.4</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="8">
         <v>3000.94</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="8">
         <v>1060399.24</v>
       </c>
-      <c r="Z4" s="16">
-        <v>3.67</v>
-      </c>
-      <c r="AA4" s="16">
+      <c r="Z4" s="12">
+        <v>3.67</v>
+      </c>
+      <c r="AA4" s="12">
         <v>3.93</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="12">
         <v>2247.08</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="12">
         <v>825111.77</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AD4" s="8">
         <v>4.55</v>
       </c>
-      <c r="AE4" s="10">
+      <c r="AE4" s="8">
         <v>2460</v>
       </c>
-      <c r="AF4" s="18">
+      <c r="AF4" s="13">
         <v>889777</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG4" s="9">
         <v>4.17</v>
       </c>
-      <c r="AH4" s="11">
+      <c r="AH4" s="9">
         <v>4.67</v>
       </c>
-      <c r="AI4" s="11">
+      <c r="AI4" s="9">
         <v>2575.35</v>
       </c>
-      <c r="AJ4" s="11">
+      <c r="AJ4" s="9">
         <v>898951.83</v>
       </c>
-      <c r="AK4" s="10">
-        <v>3.67</v>
-      </c>
-      <c r="AL4" s="10">
+      <c r="AK4" s="8">
+        <v>3.67</v>
+      </c>
+      <c r="AL4" s="8">
         <v>3.73</v>
       </c>
-      <c r="AM4" s="10">
+      <c r="AM4" s="8">
         <v>2240.23</v>
       </c>
-      <c r="AN4" s="10">
+      <c r="AN4" s="8">
         <v>806481.76</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44294</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>4.33</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>5.22</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>2068.48</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>795405.16</v>
       </c>
       <c r="F5" s="1">
@@ -4784,16 +7401,16 @@
       <c r="I5" s="1">
         <v>790017</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <v>4.67</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>5.12</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="6">
         <v>2537</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="6">
         <v>946017</v>
       </c>
       <c r="N5" s="1">
@@ -4808,28 +7425,28 @@
       <c r="Q5" s="1">
         <v>822829</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="6">
         <v>5.25</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="6">
         <v>5.82</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="6">
         <v>2926.3</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="6">
         <v>998464</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="6">
         <v>4.68</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="6">
         <v>5.79</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="6">
         <v>2819.64</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="6">
         <v>955331.36</v>
       </c>
       <c r="Z5" s="5">
@@ -4844,13 +7461,13 @@
       <c r="AC5" s="5">
         <v>825111.77</v>
       </c>
-      <c r="AD5" s="8">
+      <c r="AD5" s="6">
         <v>4.55</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="6">
         <v>2460</v>
       </c>
-      <c r="AF5" s="13">
+      <c r="AF5" s="10">
         <v>889777</v>
       </c>
       <c r="AG5" s="1">
@@ -4865,33 +7482,33 @@
       <c r="AJ5" s="1">
         <v>898951.83</v>
       </c>
-      <c r="AK5" s="8">
-        <v>3.67</v>
-      </c>
-      <c r="AL5" s="8">
+      <c r="AK5" s="6">
+        <v>3.67</v>
+      </c>
+      <c r="AL5" s="6">
         <v>3.73</v>
       </c>
-      <c r="AM5" s="8">
+      <c r="AM5" s="6">
         <v>2240.23</v>
       </c>
-      <c r="AN5" s="8">
+      <c r="AN5" s="6">
         <v>806481.76</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44295</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>4.33</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>5.22</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>2068.48</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>795405.16</v>
       </c>
       <c r="F6" s="1">
@@ -4906,16 +7523,16 @@
       <c r="I6" s="1">
         <v>743410.4</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>4.67</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>5.12</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="6">
         <v>2537</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="6">
         <v>946017</v>
       </c>
       <c r="N6" s="1">
@@ -4930,28 +7547,28 @@
       <c r="Q6" s="1">
         <v>822829</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="6">
         <v>5.25</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="6">
         <v>5.82</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="6">
         <v>2926.3</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="6">
         <v>998464</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="6">
         <v>4.68</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="6">
         <v>5.79</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="6">
         <v>2819.64</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="6">
         <v>955331.36</v>
       </c>
       <c r="Z6" s="5">
@@ -4966,13 +7583,13 @@
       <c r="AC6" s="5">
         <v>825111.77</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AD6" s="6">
         <v>4.55</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AE6" s="6">
         <v>2460</v>
       </c>
-      <c r="AF6" s="13">
+      <c r="AF6" s="10">
         <v>889777</v>
       </c>
       <c r="AG6" s="1">
@@ -4987,33 +7604,33 @@
       <c r="AJ6" s="1">
         <v>898951.83</v>
       </c>
-      <c r="AK6" s="8">
-        <v>3.67</v>
-      </c>
-      <c r="AL6" s="8">
+      <c r="AK6" s="6">
+        <v>3.67</v>
+      </c>
+      <c r="AL6" s="6">
         <v>3.73</v>
       </c>
-      <c r="AM6" s="8">
+      <c r="AM6" s="6">
         <v>2240.23</v>
       </c>
-      <c r="AN6" s="8">
+      <c r="AN6" s="6">
         <v>806481.76</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44299</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>4.33</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>5.22</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>2068.48</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>795405.16</v>
       </c>
       <c r="F7" s="1">
@@ -5028,16 +7645,16 @@
       <c r="I7" s="1">
         <v>743410.4</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>4.67</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>5.12</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="6">
         <v>2537</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="6">
         <v>946017</v>
       </c>
       <c r="N7" s="1">
@@ -5052,29 +7669,29 @@
       <c r="Q7" s="1">
         <v>822829</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="6">
         <v>5.25</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="6">
         <v>5.82</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="6">
         <v>2926.3</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="6">
         <v>998464</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="6">
         <v>4.68</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="6">
         <v>5.79</v>
       </c>
-      <c r="X7" s="8">
-        <v>2244.1999999999998</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>760469.86</v>
+      <c r="X7" s="6">
+        <v>2819.64</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>955331.36</v>
       </c>
       <c r="Z7" s="1">
         <v>3.67</v>
@@ -5088,13 +7705,13 @@
       <c r="AC7" s="1">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD7" s="8">
+      <c r="AD7" s="6">
         <v>4.55</v>
       </c>
-      <c r="AE7" s="8">
+      <c r="AE7" s="6">
         <v>2460</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AF7" s="10">
         <v>889777</v>
       </c>
       <c r="AG7" s="1">
@@ -5109,33 +7726,33 @@
       <c r="AJ7" s="1">
         <v>901390.84</v>
       </c>
-      <c r="AK7" s="8">
-        <v>3.67</v>
-      </c>
-      <c r="AL7" s="8">
+      <c r="AK7" s="6">
+        <v>3.67</v>
+      </c>
+      <c r="AL7" s="6">
         <v>3.73</v>
       </c>
-      <c r="AM7" s="8">
+      <c r="AM7" s="6">
         <v>2241.69</v>
       </c>
-      <c r="AN7" s="8">
+      <c r="AN7" s="6">
         <v>807005.98</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44300</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>4.33</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>5.22</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>2068.48</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>795405.16</v>
       </c>
       <c r="F8" s="1">
@@ -5150,16 +7767,16 @@
       <c r="I8" s="1">
         <v>743410.4</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <v>4.67</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>5.12</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="6">
         <v>2537</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="6">
         <v>946017</v>
       </c>
       <c r="N8" s="1">
@@ -5174,29 +7791,29 @@
       <c r="Q8" s="1">
         <v>822829</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="6">
         <v>5.25</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="6">
         <v>5.82</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="6">
         <v>2926.3</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="6">
         <v>998464</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="6">
         <v>4.68</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="6">
         <v>5.79</v>
       </c>
-      <c r="X8" s="8">
-        <v>2244.1999999999998</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>760469.86</v>
+      <c r="X8" s="6">
+        <v>2819.64</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>955331.36</v>
       </c>
       <c r="Z8" s="1">
         <v>3.67</v>
@@ -5210,13 +7827,13 @@
       <c r="AC8" s="1">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD8" s="8">
+      <c r="AD8" s="6">
         <v>4.55</v>
       </c>
-      <c r="AE8" s="8">
+      <c r="AE8" s="6">
         <v>2460</v>
       </c>
-      <c r="AF8" s="13">
+      <c r="AF8" s="10">
         <v>889777</v>
       </c>
       <c r="AG8" s="1">
@@ -5231,33 +7848,33 @@
       <c r="AJ8" s="1">
         <v>901391.39</v>
       </c>
-      <c r="AK8" s="8">
-        <v>3.67</v>
-      </c>
-      <c r="AL8" s="8">
+      <c r="AK8" s="6">
+        <v>3.67</v>
+      </c>
+      <c r="AL8" s="6">
         <v>3.73</v>
       </c>
-      <c r="AM8" s="8">
+      <c r="AM8" s="6">
         <v>2241.69</v>
       </c>
-      <c r="AN8" s="8">
+      <c r="AN8" s="6">
         <v>807006.43</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44305</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>4.33</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>5.22</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>2068.48</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>795405.16</v>
       </c>
       <c r="F9" s="1">
@@ -5272,16 +7889,16 @@
       <c r="I9" s="1">
         <v>743410.4</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <v>4.67</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <v>5.12</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="6">
         <v>2537</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="6">
         <v>946017</v>
       </c>
       <c r="N9" s="1">
@@ -5296,29 +7913,29 @@
       <c r="Q9" s="1">
         <v>822829</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="6">
         <v>5.25</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="6">
         <v>5.82</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="6">
         <v>2926.3</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="6">
         <v>998464</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="6">
         <v>4.68</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W9" s="6">
         <v>5.79</v>
       </c>
-      <c r="X9" s="8">
-        <v>2244.1999999999998</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>760469.86</v>
+      <c r="X9" s="6">
+        <v>2819.64</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>955331.36</v>
       </c>
       <c r="Z9" s="1">
         <v>3.67</v>
@@ -5332,13 +7949,13 @@
       <c r="AC9" s="1">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD9" s="8">
+      <c r="AD9" s="6">
         <v>4.76</v>
       </c>
-      <c r="AE9" s="8">
+      <c r="AE9" s="6">
         <v>2518</v>
       </c>
-      <c r="AF9" s="8">
+      <c r="AF9" s="6">
         <v>910765</v>
       </c>
       <c r="AG9" s="1">
@@ -5353,33 +7970,33 @@
       <c r="AJ9" s="1">
         <v>901390.84</v>
       </c>
-      <c r="AK9" s="8">
-        <v>3.67</v>
-      </c>
-      <c r="AL9" s="8">
+      <c r="AK9" s="6">
+        <v>3.67</v>
+      </c>
+      <c r="AL9" s="6">
         <v>3.73</v>
       </c>
-      <c r="AM9" s="8">
+      <c r="AM9" s="6">
         <v>2241.69</v>
       </c>
-      <c r="AN9" s="8">
+      <c r="AN9" s="6">
         <v>807005.98</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>44306</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>4.33</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>5.22</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>2068.48</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>795405.16</v>
       </c>
       <c r="F10" s="1">
@@ -5394,16 +8011,16 @@
       <c r="I10" s="1">
         <v>743410.46</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <v>4.67</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>5.12</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="6">
         <v>2537</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="6">
         <v>946017</v>
       </c>
       <c r="N10" s="1">
@@ -5418,29 +8035,29 @@
       <c r="Q10" s="1">
         <v>822829</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="6">
         <v>5.25</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="6">
         <v>5.82</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="6">
         <v>2926.3</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="6">
         <v>998464</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="6">
         <v>4.68</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="6">
         <v>5.79</v>
       </c>
-      <c r="X10" s="8">
-        <v>2244.1999999999998</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>760469.86</v>
+      <c r="X10" s="6">
+        <v>2819.64</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>955331.36</v>
       </c>
       <c r="Z10" s="1">
         <v>3.67</v>
@@ -5454,13 +8071,13 @@
       <c r="AC10" s="1">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD10" s="8">
+      <c r="AD10" s="6">
         <v>4.76</v>
       </c>
-      <c r="AE10" s="8">
+      <c r="AE10" s="6">
         <v>2518</v>
       </c>
-      <c r="AF10" s="8">
+      <c r="AF10" s="6">
         <v>910765</v>
       </c>
       <c r="AG10" s="1">
@@ -5475,665 +8092,1267 @@
       <c r="AJ10" s="1">
         <v>901390.84</v>
       </c>
-      <c r="AK10" s="8">
-        <v>3.67</v>
-      </c>
-      <c r="AL10" s="8">
+      <c r="AK10" s="6">
+        <v>3.67</v>
+      </c>
+      <c r="AL10" s="6">
         <v>3.73</v>
       </c>
-      <c r="AM10" s="8">
+      <c r="AM10" s="6">
         <v>2241.69</v>
       </c>
-      <c r="AN10" s="8">
+      <c r="AN10" s="6">
         <v>807005.98</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="22"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="22"/>
-      <c r="AJ11" s="22"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21"/>
+      <c r="A11" s="30">
+        <v>44312</v>
+      </c>
+      <c r="B11" s="27">
+        <v>4.33</v>
+      </c>
+      <c r="C11" s="27">
+        <v>5.22</v>
+      </c>
+      <c r="D11" s="27">
+        <v>2068.48</v>
+      </c>
+      <c r="E11" s="27">
+        <v>795405.16</v>
+      </c>
+      <c r="F11" s="28">
+        <v>3.88</v>
+      </c>
+      <c r="G11" s="28">
+        <v>4.78</v>
+      </c>
+      <c r="H11" s="28">
+        <v>1959.73</v>
+      </c>
+      <c r="I11" s="28">
+        <v>743410.46</v>
+      </c>
+      <c r="J11" s="6">
+        <v>4.67</v>
+      </c>
+      <c r="K11" s="6">
+        <v>5.12</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2537</v>
+      </c>
+      <c r="M11" s="6">
+        <v>946017</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2247</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>822829</v>
+      </c>
+      <c r="R11" s="27">
+        <v>5.25</v>
+      </c>
+      <c r="S11" s="27">
+        <v>5.82</v>
+      </c>
+      <c r="T11" s="27">
+        <v>2926.3</v>
+      </c>
+      <c r="U11" s="27">
+        <v>998464</v>
+      </c>
+      <c r="V11" s="27">
+        <v>4.68</v>
+      </c>
+      <c r="W11" s="27">
+        <v>5.79</v>
+      </c>
+      <c r="X11" s="6">
+        <v>2819.64</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>955331.36</v>
+      </c>
+      <c r="Z11" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AA11" s="28">
+        <v>3.93</v>
+      </c>
+      <c r="AB11" s="28">
+        <v>1788.49</v>
+      </c>
+      <c r="AC11" s="28">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD11" s="27">
+        <v>4.76</v>
+      </c>
+      <c r="AE11" s="27">
+        <v>2518</v>
+      </c>
+      <c r="AF11" s="27">
+        <v>910765</v>
+      </c>
+      <c r="AG11" s="28">
+        <v>4.17</v>
+      </c>
+      <c r="AH11" s="28">
+        <v>4.76</v>
+      </c>
+      <c r="AI11" s="28">
+        <v>2582.33</v>
+      </c>
+      <c r="AJ11" s="28">
+        <v>901390.84</v>
+      </c>
+      <c r="AK11" s="27">
+        <v>3.67</v>
+      </c>
+      <c r="AL11" s="27">
+        <v>3.73</v>
+      </c>
+      <c r="AM11" s="27">
+        <v>2241.69</v>
+      </c>
+      <c r="AN11" s="27">
+        <v>807005.98</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A12" s="26">
-        <v>44312</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="30">
+        <v>44322</v>
+      </c>
+      <c r="B12" s="27">
         <v>4.33</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="27">
         <v>5.22</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="27">
         <v>2068.48</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="27">
         <v>795405.16</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="28">
         <v>3.88</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="28">
         <v>4.78</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="28">
         <v>1959.73</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="28">
         <v>743410.46</v>
       </c>
-      <c r="J12">
-        <v>8.75</v>
-      </c>
-      <c r="K12">
-        <v>10.25</v>
-      </c>
-      <c r="L12">
-        <v>2098</v>
-      </c>
-      <c r="M12">
-        <v>37778</v>
-      </c>
-      <c r="N12">
-        <v>10.25</v>
-      </c>
-      <c r="O12">
-        <v>11.91</v>
-      </c>
-      <c r="P12">
-        <v>2123</v>
-      </c>
-      <c r="Q12" s="22"/>
-      <c r="R12">
+      <c r="J12" s="27">
+        <v>4.67</v>
+      </c>
+      <c r="K12" s="27">
+        <v>5.12</v>
+      </c>
+      <c r="L12" s="27">
+        <v>2537</v>
+      </c>
+      <c r="M12" s="27">
+        <v>946017</v>
+      </c>
+      <c r="N12" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="O12" s="28">
+        <v>3.9</v>
+      </c>
+      <c r="P12" s="28">
+        <v>2247</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>822829</v>
+      </c>
+      <c r="R12" s="27">
         <v>5.25</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="27">
         <v>5.82</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="27">
         <v>2926.3</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="27">
         <v>998464</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="27">
         <v>4.68</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="27">
         <v>5.79</v>
       </c>
-      <c r="X12">
-        <v>2244.1999999999998</v>
-      </c>
-      <c r="Y12">
-        <v>760469.86</v>
-      </c>
-      <c r="Z12">
-        <v>3.67</v>
-      </c>
-      <c r="AA12">
+      <c r="X12" s="6">
+        <v>2819.64</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>955331.36</v>
+      </c>
+      <c r="Z12" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AA12" s="28">
         <v>3.93</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="28">
         <v>1788.49</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="28">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="27">
         <v>4.76</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="27">
         <v>2518</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="27">
         <v>910765</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="28">
         <v>4.17</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="28">
         <v>4.76</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" s="28">
         <v>2582.33</v>
       </c>
-      <c r="AJ12">
-        <v>901390.84</v>
-      </c>
-      <c r="AK12">
-        <v>3.67</v>
-      </c>
-      <c r="AL12">
+      <c r="AJ12" s="28">
+        <v>901391.39</v>
+      </c>
+      <c r="AK12" s="27">
+        <v>3.67</v>
+      </c>
+      <c r="AL12" s="27">
         <v>3.73</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" s="27">
         <v>2241.69</v>
       </c>
-      <c r="AN12">
-        <v>807005.98</v>
+      <c r="AN12" s="27">
+        <v>807006.43</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A13" s="26">
-        <v>44322</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="30">
+        <v>44325</v>
+      </c>
+      <c r="B13" s="27">
         <v>4.33</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="27">
         <v>5.22</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="27">
         <v>2068.48</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="27">
         <v>795405.16</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="28">
         <v>3.88</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="28">
         <v>4.78</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="28">
         <v>1959.73</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="28">
         <v>743410.46</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="27">
         <v>4.67</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="27">
         <v>5.12</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="27">
         <v>2537</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="27">
         <v>946017</v>
       </c>
-      <c r="N13">
-        <v>3.67</v>
-      </c>
-      <c r="O13">
+      <c r="N13" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="O13" s="28">
         <v>3.9</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="28">
         <v>2247</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="1">
+        <v>822829</v>
+      </c>
+      <c r="R13" s="27">
+        <v>5.25</v>
+      </c>
+      <c r="S13" s="27">
+        <v>5.82</v>
+      </c>
+      <c r="T13" s="27">
+        <v>2926.3</v>
+      </c>
+      <c r="U13" s="27">
+        <v>998464</v>
+      </c>
+      <c r="V13" s="27">
+        <v>4.68</v>
+      </c>
+      <c r="W13" s="27">
+        <v>5.79</v>
+      </c>
+      <c r="X13" s="6">
+        <v>2819.64</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>955331.36</v>
+      </c>
+      <c r="Z13" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AA13" s="28">
+        <v>3.93</v>
+      </c>
+      <c r="AB13" s="28">
+        <v>1788.49</v>
+      </c>
+      <c r="AC13" s="28">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD13" s="27">
+        <v>4.76</v>
+      </c>
+      <c r="AE13" s="27">
+        <v>2518</v>
+      </c>
+      <c r="AF13" s="27">
+        <v>910765</v>
+      </c>
+      <c r="AG13" s="28">
+        <v>4.17</v>
+      </c>
+      <c r="AH13" s="28">
+        <v>4.76</v>
+      </c>
+      <c r="AI13" s="28">
+        <v>2582.61</v>
+      </c>
+      <c r="AJ13" s="28">
+        <v>901493.6</v>
+      </c>
+      <c r="AK13" s="27">
+        <v>3.67</v>
+      </c>
+      <c r="AL13" s="27">
+        <v>3.73</v>
+      </c>
+      <c r="AM13" s="27">
+        <v>2241.92</v>
+      </c>
+      <c r="AN13" s="27">
+        <v>807088.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A14" s="30">
+        <v>44326</v>
+      </c>
+      <c r="B14" s="27">
+        <v>4.33</v>
+      </c>
+      <c r="C14" s="27">
+        <v>5.22</v>
+      </c>
+      <c r="D14" s="27">
+        <v>2068.48</v>
+      </c>
+      <c r="E14" s="27">
+        <v>795405.16</v>
+      </c>
+      <c r="F14" s="28">
+        <v>3.88</v>
+      </c>
+      <c r="G14" s="28">
+        <v>4.78</v>
+      </c>
+      <c r="H14" s="28">
+        <v>1959.73</v>
+      </c>
+      <c r="I14" s="28">
+        <v>743410.46</v>
+      </c>
+      <c r="J14" s="27">
+        <v>4.67</v>
+      </c>
+      <c r="K14" s="27">
+        <v>5.12</v>
+      </c>
+      <c r="L14" s="27">
+        <v>2537</v>
+      </c>
+      <c r="M14" s="27">
+        <v>946017</v>
+      </c>
+      <c r="N14" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="O14" s="28">
+        <v>3.9</v>
+      </c>
+      <c r="P14" s="28">
         <v>2247</v>
       </c>
-      <c r="R13">
+      <c r="Q14" s="1">
+        <v>822829</v>
+      </c>
+      <c r="R14" s="27">
         <v>5.25</v>
       </c>
-      <c r="S13">
-        <v>5.82</v>
-      </c>
-      <c r="T13">
+      <c r="S14" s="27">
+        <v>5.8</v>
+      </c>
+      <c r="T14" s="27">
         <v>2926.3</v>
       </c>
-      <c r="U13">
-        <v>998464</v>
-      </c>
-      <c r="V13">
+      <c r="U14" s="27">
+        <v>996664</v>
+      </c>
+      <c r="V14" s="27">
         <v>4.68</v>
       </c>
-      <c r="W13">
+      <c r="W14" s="27">
         <v>5.79</v>
       </c>
-      <c r="X13">
-        <v>2244.1999999999998</v>
-      </c>
-      <c r="Y13">
-        <v>760469.86</v>
-      </c>
-      <c r="Z13">
-        <v>3.67</v>
-      </c>
-      <c r="AA13">
+      <c r="X14" s="6">
+        <v>2819.64</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>955331.36</v>
+      </c>
+      <c r="Z14" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AA14" s="28">
         <v>3.93</v>
       </c>
-      <c r="AB13">
+      <c r="AB14" s="28">
         <v>1788.49</v>
       </c>
-      <c r="AC13">
+      <c r="AC14" s="28">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD13">
+      <c r="AD14" s="27">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE14" s="27">
+        <v>2261</v>
+      </c>
+      <c r="AF14" s="27">
+        <v>818274</v>
+      </c>
+      <c r="AG14" s="28">
+        <v>4.17</v>
+      </c>
+      <c r="AH14" s="28">
         <v>4.76</v>
       </c>
-      <c r="AE13">
+      <c r="AI14" s="28">
+        <v>2582.33</v>
+      </c>
+      <c r="AJ14" s="28">
+        <v>901390.84</v>
+      </c>
+      <c r="AK14" s="27">
+        <v>3.67</v>
+      </c>
+      <c r="AL14" s="27">
+        <v>3.73</v>
+      </c>
+      <c r="AM14" s="27">
+        <v>2241.69</v>
+      </c>
+      <c r="AN14" s="27">
+        <v>807005.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A15" s="30">
+        <v>44344</v>
+      </c>
+      <c r="B15" s="27">
+        <v>4.33</v>
+      </c>
+      <c r="C15" s="27">
+        <v>5.22</v>
+      </c>
+      <c r="D15" s="27">
+        <v>2068.48</v>
+      </c>
+      <c r="E15" s="27">
+        <v>795545.16</v>
+      </c>
+      <c r="F15" s="28">
+        <v>3.88</v>
+      </c>
+      <c r="G15" s="28">
+        <v>4.78</v>
+      </c>
+      <c r="H15" s="28">
+        <v>1959.73</v>
+      </c>
+      <c r="I15" s="28">
+        <v>743410.46</v>
+      </c>
+      <c r="J15" s="27">
+        <v>4.67</v>
+      </c>
+      <c r="K15" s="27">
+        <v>5.12</v>
+      </c>
+      <c r="L15" s="27">
+        <v>2537</v>
+      </c>
+      <c r="M15" s="27">
+        <v>946017</v>
+      </c>
+      <c r="N15" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="O15" s="28">
+        <v>3.9</v>
+      </c>
+      <c r="P15" s="28">
+        <v>2247</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>822829</v>
+      </c>
+      <c r="R15" s="27">
+        <v>5.25</v>
+      </c>
+      <c r="S15" s="27">
+        <v>5.8</v>
+      </c>
+      <c r="T15" s="27">
+        <v>2926.3</v>
+      </c>
+      <c r="U15" s="27">
+        <v>996664</v>
+      </c>
+      <c r="V15" s="27">
+        <v>4.68</v>
+      </c>
+      <c r="W15" s="27">
+        <v>5.79</v>
+      </c>
+      <c r="X15" s="6">
+        <v>2819.64</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>955331.36</v>
+      </c>
+      <c r="Z15" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AA15" s="28">
+        <v>3.93</v>
+      </c>
+      <c r="AB15" s="28">
+        <v>1788.49</v>
+      </c>
+      <c r="AC15" s="28">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD15" s="27">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE15" s="27">
+        <v>2261</v>
+      </c>
+      <c r="AF15" s="27">
+        <v>818274</v>
+      </c>
+      <c r="AG15" s="28">
+        <v>4.17</v>
+      </c>
+      <c r="AH15" s="28">
+        <v>4.76</v>
+      </c>
+      <c r="AI15" s="28">
+        <v>2582.33</v>
+      </c>
+      <c r="AJ15" s="28">
+        <v>901391.39</v>
+      </c>
+      <c r="AK15" s="27">
+        <v>3.67</v>
+      </c>
+      <c r="AL15" s="27">
+        <v>3.73</v>
+      </c>
+      <c r="AM15" s="27">
+        <v>2013.45</v>
+      </c>
+      <c r="AN15" s="27">
+        <v>724841.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A16" s="30">
+        <v>44344</v>
+      </c>
+      <c r="B16" s="27">
+        <v>4.33</v>
+      </c>
+      <c r="C16" s="27">
+        <v>5.22</v>
+      </c>
+      <c r="D16" s="27">
+        <v>2068.48</v>
+      </c>
+      <c r="E16" s="27">
+        <v>795545.16</v>
+      </c>
+      <c r="F16" s="28">
+        <v>3.88</v>
+      </c>
+      <c r="G16" s="28">
+        <v>4.78</v>
+      </c>
+      <c r="H16" s="28">
+        <v>1959.73</v>
+      </c>
+      <c r="I16" s="28">
+        <v>743410.46</v>
+      </c>
+      <c r="J16" s="27">
+        <v>4.67</v>
+      </c>
+      <c r="K16" s="27">
+        <v>5.12</v>
+      </c>
+      <c r="L16" s="27">
+        <v>2537</v>
+      </c>
+      <c r="M16" s="27">
+        <v>946017</v>
+      </c>
+      <c r="N16" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="O16" s="28">
+        <v>3.9</v>
+      </c>
+      <c r="P16" s="28">
+        <v>2247</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>822829</v>
+      </c>
+      <c r="R16" s="27">
+        <v>5.25</v>
+      </c>
+      <c r="S16" s="27">
+        <v>5.92</v>
+      </c>
+      <c r="T16" s="27">
+        <v>2926.3</v>
+      </c>
+      <c r="U16" s="27">
+        <v>996664</v>
+      </c>
+      <c r="V16" s="27">
+        <v>4.68</v>
+      </c>
+      <c r="W16" s="27">
+        <v>5.79</v>
+      </c>
+      <c r="X16" s="6">
+        <v>2819.64</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>955331.36</v>
+      </c>
+      <c r="Z16" s="28">
+        <v>3.67</v>
+      </c>
+      <c r="AA16" s="28">
+        <v>3.93</v>
+      </c>
+      <c r="AB16" s="28">
+        <v>2247.08</v>
+      </c>
+      <c r="AC16" s="28">
+        <v>825111.77</v>
+      </c>
+      <c r="AD16" s="27">
+        <v>4.76</v>
+      </c>
+      <c r="AE16" s="27">
         <v>2518</v>
       </c>
-      <c r="AF13">
+      <c r="AF16" s="27">
         <v>910765</v>
       </c>
-      <c r="AG13">
+      <c r="AG16" s="28">
         <v>4.17</v>
       </c>
-      <c r="AH13">
+      <c r="AH16" s="28">
         <v>4.76</v>
       </c>
-      <c r="AI13">
+      <c r="AI16" s="28">
         <v>2582.33</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ16" s="28">
         <v>901391.39</v>
       </c>
-      <c r="AK13">
-        <v>3.67</v>
-      </c>
-      <c r="AL13">
+      <c r="AK16" s="27">
+        <v>3.67</v>
+      </c>
+      <c r="AL16" s="27">
         <v>3.73</v>
       </c>
-      <c r="AM13">
+      <c r="AM16" s="27">
         <v>2241.69</v>
       </c>
-      <c r="AN13">
+      <c r="AN16" s="27">
         <v>807006.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A17" s="37">
+        <v>44345</v>
+      </c>
+      <c r="B17" s="38">
+        <v>4.33</v>
+      </c>
+      <c r="C17" s="38">
+        <v>5.22</v>
+      </c>
+      <c r="D17" s="38">
+        <v>2068.48</v>
+      </c>
+      <c r="E17" s="38">
+        <v>795545.16</v>
+      </c>
+      <c r="F17" s="38">
+        <v>3.88</v>
+      </c>
+      <c r="G17" s="38">
+        <v>4.78</v>
+      </c>
+      <c r="H17" s="38">
+        <v>1959.73</v>
+      </c>
+      <c r="I17" s="38">
+        <v>743410.46</v>
+      </c>
+      <c r="J17" s="38">
+        <v>4.67</v>
+      </c>
+      <c r="K17" s="38">
+        <v>5.12</v>
+      </c>
+      <c r="L17" s="38">
+        <v>2537</v>
+      </c>
+      <c r="M17" s="38">
+        <v>946017</v>
+      </c>
+      <c r="N17" s="38">
+        <v>3.67</v>
+      </c>
+      <c r="O17" s="38">
+        <v>3.9</v>
+      </c>
+      <c r="P17" s="38">
+        <v>2247</v>
+      </c>
+      <c r="Q17" s="38">
+        <v>2247</v>
+      </c>
+      <c r="R17" s="38">
+        <v>5.25</v>
+      </c>
+      <c r="S17" s="38">
+        <v>5.8</v>
+      </c>
+      <c r="T17" s="38">
+        <v>2926.3</v>
+      </c>
+      <c r="U17" s="38">
+        <v>996664</v>
+      </c>
+      <c r="V17" s="38">
+        <v>4.68</v>
+      </c>
+      <c r="W17" s="38">
+        <v>5.79</v>
+      </c>
+      <c r="X17" s="8">
+        <v>2819.64</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>955331.36</v>
+      </c>
+      <c r="Z17" s="38">
+        <v>3.67</v>
+      </c>
+      <c r="AA17" s="38">
+        <v>3.93</v>
+      </c>
+      <c r="AB17" s="38">
+        <v>2247.08</v>
+      </c>
+      <c r="AC17" s="38">
+        <v>825111.77</v>
+      </c>
+      <c r="AD17" s="38">
+        <v>4.76</v>
+      </c>
+      <c r="AE17" s="38">
+        <v>2518</v>
+      </c>
+      <c r="AF17" s="38">
+        <v>910765</v>
+      </c>
+      <c r="AG17" s="38">
+        <v>4.17</v>
+      </c>
+      <c r="AH17" s="38">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AI17" s="38">
+        <v>2582.88</v>
+      </c>
+      <c r="AJ17" s="38">
+        <v>901600.9</v>
+      </c>
+      <c r="AK17" s="38">
+        <v>3.67</v>
+      </c>
+      <c r="AL17" s="38">
+        <v>3.73</v>
+      </c>
+      <c r="AM17" s="38">
+        <v>2242.15</v>
+      </c>
+      <c r="AN17" s="38">
+        <v>807170.24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16" style="9" customWidth="1"/>
-    <col min="2" max="4" width="8.7265625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="16" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>48</v>
       </c>
+      <c r="D1" s="15" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44168</v>
       </c>
-      <c r="B2" s="9">
-        <v>4.8735999999999997</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="7">
         <v>1.9</v>
       </c>
-      <c r="D2" s="9">
+      <c r="C2" s="7">
         <v>1.72</v>
       </c>
-      <c r="E2" s="9">
-        <v>1425</v>
+      <c r="D2" s="7">
+        <v>1.425</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44169</v>
       </c>
-      <c r="B3" s="9">
-        <v>4.8735999999999997</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="7">
         <v>1.88</v>
       </c>
-      <c r="D3" s="9">
+      <c r="C3" s="7">
         <v>1.77</v>
       </c>
-      <c r="E3" s="9">
-        <v>1425</v>
+      <c r="D3" s="7">
+        <v>1.425</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44200</v>
       </c>
-      <c r="B4" s="9">
-        <v>4.8691000000000004</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="7">
         <v>2.0099999999999998</v>
       </c>
-      <c r="D4" s="9">
+      <c r="C4" s="7">
         <v>1.39</v>
       </c>
-      <c r="E4" s="9">
-        <v>1412</v>
+      <c r="D4" s="7">
+        <v>1.4119999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44231</v>
       </c>
-      <c r="B5" s="9">
-        <v>4.8742000000000001</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="7">
         <v>1.53</v>
       </c>
-      <c r="D5" s="9">
+      <c r="C5" s="7">
         <v>1.01</v>
       </c>
-      <c r="E5" s="9">
-        <v>1395</v>
+      <c r="D5" s="7">
+        <v>1.395</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44273</v>
       </c>
-      <c r="B6" s="9">
-        <v>4.8875999999999999</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B6" s="7">
         <v>1.75</v>
       </c>
-      <c r="D6" s="9">
+      <c r="C6" s="7">
         <v>1.64</v>
       </c>
-      <c r="E6" s="9">
-        <v>1418</v>
+      <c r="D6" s="7">
+        <v>1.4179999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44286</v>
       </c>
-      <c r="B7" s="9">
-        <v>4.9250999999999996</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="7">
         <v>1.73</v>
       </c>
-      <c r="D7" s="9">
+      <c r="C7" s="7">
         <v>1.6</v>
       </c>
-      <c r="E7" s="9">
-        <v>1418</v>
+      <c r="D7" s="7">
+        <v>1.4179999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44287</v>
       </c>
-      <c r="B8" s="9">
-        <v>4.9116999999999997</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="7">
         <v>1.69</v>
       </c>
-      <c r="D8" s="9">
+      <c r="C8" s="7">
         <v>1.52</v>
       </c>
-      <c r="E8" s="9">
-        <v>1418</v>
+      <c r="D8" s="7">
+        <v>1.43</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44288</v>
       </c>
-      <c r="B9" s="9">
-        <v>4.9105999999999996</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="7">
         <v>1.67</v>
       </c>
-      <c r="D9" s="9">
+      <c r="C9" s="7">
         <v>1.53</v>
       </c>
-      <c r="E9" s="9">
-        <v>1418</v>
+      <c r="D9" s="7">
+        <v>1.43</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="26">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="30">
         <v>44291</v>
       </c>
       <c r="B10">
-        <v>4.9105999999999996</v>
-      </c>
-      <c r="C10">
         <v>1.67</v>
       </c>
-      <c r="D10" s="9">
+      <c r="C10" s="7">
         <v>1.5</v>
       </c>
-      <c r="E10" s="9">
-        <v>1418</v>
+      <c r="D10" s="7">
+        <v>1.43</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="26">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="30">
         <v>44292</v>
       </c>
       <c r="B11">
-        <v>4.9161000000000001</v>
-      </c>
-      <c r="C11">
         <v>1.63</v>
       </c>
-      <c r="D11" s="9">
+      <c r="C11" s="7">
         <v>1.39</v>
       </c>
-      <c r="E11" s="9">
-        <v>1418</v>
+      <c r="D11" s="7">
+        <v>1.43</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="26">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="30">
         <v>44293</v>
       </c>
       <c r="B12">
-        <v>4.9168000000000003</v>
-      </c>
-      <c r="C12">
         <v>1.46</v>
       </c>
-      <c r="D12" s="9">
+      <c r="C12" s="7">
         <v>1.19</v>
       </c>
-      <c r="E12" s="9">
-        <v>1418</v>
+      <c r="D12" s="7">
+        <v>1.43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="26">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="30">
         <v>44294</v>
       </c>
       <c r="B13">
-        <v>4.9227999999999996</v>
+        <v>1.07</v>
       </c>
       <c r="C13">
-        <v>1.07</v>
-      </c>
-      <c r="D13">
         <v>1.19</v>
       </c>
-      <c r="E13">
-        <v>1418</v>
+      <c r="D13" s="7">
+        <v>1.43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="26">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="30">
         <v>44298</v>
       </c>
       <c r="B14">
-        <v>4.9204999999999997</v>
+        <v>0.98</v>
       </c>
       <c r="C14">
+        <v>0.88</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="30">
+        <v>44299</v>
+      </c>
+      <c r="B15">
         <v>0.98</v>
       </c>
-      <c r="D14">
+      <c r="C15">
         <v>0.88</v>
       </c>
-      <c r="E14">
-        <v>1418</v>
+      <c r="D15" s="7">
+        <v>1.43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="26">
-        <v>44299</v>
-      </c>
-      <c r="B15">
-        <v>4.9225000000000003</v>
-      </c>
-      <c r="C15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="30">
+        <v>44300</v>
+      </c>
+      <c r="B16">
+        <v>0.96</v>
+      </c>
+      <c r="C16">
+        <v>0.88</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="30">
+        <v>44305</v>
+      </c>
+      <c r="B17">
+        <v>0.97</v>
+      </c>
+      <c r="C17">
+        <v>0.91</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="30">
+        <v>44306</v>
+      </c>
+      <c r="B18">
+        <v>0.91</v>
+      </c>
+      <c r="C18">
+        <v>1.03</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="30">
+        <v>44312</v>
+      </c>
+      <c r="B19">
+        <v>1.53</v>
+      </c>
+      <c r="C19">
         <v>0.98</v>
       </c>
-      <c r="D15">
-        <v>0.88</v>
-      </c>
-      <c r="E15">
-        <v>1418</v>
+      <c r="D19" s="7">
+        <v>1.43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="26">
-        <v>44300</v>
-      </c>
-      <c r="B16">
-        <v>4.9226000000000001</v>
-      </c>
-      <c r="C16">
-        <v>0.96</v>
-      </c>
-      <c r="D16">
-        <v>0.88</v>
-      </c>
-      <c r="E16">
-        <v>1418</v>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="30">
+        <v>44322</v>
+      </c>
+      <c r="B20">
+        <v>1.33</v>
+      </c>
+      <c r="C20">
+        <v>1.18</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1.43</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="26">
-        <v>44305</v>
-      </c>
-      <c r="B17">
-        <v>4.9260999999999999</v>
-      </c>
-      <c r="C17">
-        <v>0.97</v>
-      </c>
-      <c r="D17">
-        <v>0.91</v>
-      </c>
-      <c r="E17">
-        <v>1418</v>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="30">
+        <v>44325</v>
+      </c>
+      <c r="B21">
+        <v>1.23</v>
+      </c>
+      <c r="C21">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1.43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="26">
-        <v>44306</v>
-      </c>
-      <c r="B18">
-        <v>4.9279000000000002</v>
-      </c>
-      <c r="C18">
-        <v>0.91</v>
-      </c>
-      <c r="D18">
-        <v>1.03</v>
-      </c>
-      <c r="E18">
-        <v>1418</v>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="30">
+        <v>44326</v>
+      </c>
+      <c r="B22">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C22">
+        <v>1.05</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1.43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="26">
-        <v>44312</v>
-      </c>
-      <c r="B19">
-        <v>4.9257</v>
-      </c>
-      <c r="C19">
-        <v>1.53</v>
-      </c>
-      <c r="D19">
-        <v>0.98</v>
-      </c>
-      <c r="E19">
-        <v>1418</v>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="30">
+        <v>44333</v>
+      </c>
+      <c r="B23">
+        <v>1.18</v>
+      </c>
+      <c r="C23">
+        <v>0.86</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1.43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="26">
-        <v>44322</v>
-      </c>
-      <c r="B20">
-        <v>4.9265999999999996</v>
-      </c>
-      <c r="C20">
-        <v>1.33</v>
-      </c>
-      <c r="D20">
-        <v>1.18</v>
-      </c>
-      <c r="E20">
-        <v>1418</v>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="30">
+        <v>44342</v>
+      </c>
+      <c r="B24">
+        <v>1.39</v>
+      </c>
+      <c r="C24">
+        <v>1.26</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="30">
+        <v>44344</v>
+      </c>
+      <c r="B25">
+        <v>1.32</v>
+      </c>
+      <c r="C25">
+        <v>1.25</v>
+      </c>
+      <c r="D25">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="36">
+        <v>44345</v>
+      </c>
+      <c r="B26">
+        <v>1.32</v>
+      </c>
+      <c r="C26">
+        <v>1.25</v>
+      </c>
+      <c r="D26">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -6148,6 +9367,5 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/EuroEvolutie.xlsx
+++ b/EuroEvolutie.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Desktop\ROBOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC160EC-2434-42CF-BD10-B9FD2DECB6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CF3B35-B285-4763-961C-B3148A579D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="390000" sheetId="1" r:id="rId1"/>
     <sheet name="440000" sheetId="2" r:id="rId2"/>
     <sheet name="490000" sheetId="3" r:id="rId3"/>
     <sheet name="Indici" sheetId="4" r:id="rId4"/>
-    <sheet name="Grafice" sheetId="5" r:id="rId5"/>
+    <sheet name="backup" sheetId="5" r:id="rId5"/>
+    <sheet name="Grafice" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="50">
   <si>
     <t>Data</t>
   </si>
@@ -234,12 +235,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -312,11 +313,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -335,40 +371,39 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="16">
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     </dxf>
@@ -591,1014 +626,7 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1879,7 +907,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-206A-426C-8EEE-AABDCEE51F1A}"/>
+              <c16:uniqueId val="{00000000-F820-4ABF-91C5-561F721D3D41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2092,7 +1120,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-206A-426C-8EEE-AABDCEE51F1A}"/>
+              <c16:uniqueId val="{00000001-F820-4ABF-91C5-561F721D3D41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2305,7 +1333,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-206A-426C-8EEE-AABDCEE51F1A}"/>
+              <c16:uniqueId val="{00000002-F820-4ABF-91C5-561F721D3D41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2514,57 +1542,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:AN14" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56">
-  <autoFilter ref="A1:AN14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AN15" totalsRowShown="0">
+  <autoFilter ref="A1:AN15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="40">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Data" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ING_DobandaPA" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ING_DAE" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ING_PrimaRata" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ING_RambursTotal" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="INGPrima_DobandaPA" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="INGPrima_DAE" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="INGPrima_PrimaRata" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="INGPrima_RambursTotal" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Raif_DobandaPA" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Raif_DAE" dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Raif_PrimaRata" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Raif_RambursTotal" dataDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="RaifPrima_DobandaPA" dataDxfId="41"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="RaifPrima_DAE" dataDxfId="40"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="RaifPrima_PrimaRata" dataDxfId="39"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="RaifPrima_RambursTotal" dataDxfId="38"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="BRD_Dobanda" dataDxfId="37"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="BRD_DAE" dataDxfId="36"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="BRD_Rata" dataDxfId="35"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="BRD_Total" dataDxfId="34"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="BCR_Dobanda" dataDxfId="33"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="BCR_DAE" dataDxfId="32"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="BCR_Rata" dataDxfId="31"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="BCR_Total" dataDxfId="30"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="BCRPrima_Dobanda" dataDxfId="29"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="BCRPrima_DAE" dataDxfId="28"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="BCRPrima_Rata" dataDxfId="27"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="BCRPrima_Total" dataDxfId="26"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="BT_DAE" dataDxfId="25"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="BT_Rata" dataDxfId="24"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="BT_Total" dataDxfId="23"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="CEC_Dobanda" dataDxfId="22"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="CEC_DAE" dataDxfId="21"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="CEC_Rata" dataDxfId="20"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="CEC_Total" dataDxfId="19"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="CECPrima_Dobanda" dataDxfId="18"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="CECPrima_DAE" dataDxfId="17"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="CECPrima_Rata" dataDxfId="16"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="CECPrima_Total" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Data" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ING_DobandaPA"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ING_DAE"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ING_PrimaRata"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ING_RambursTotal"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="INGPrima_DobandaPA"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="INGPrima_DAE"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="INGPrima_PrimaRata"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="INGPrima_RambursTotal"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Raif_DobandaPA"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Raif_DAE"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Raif_PrimaRata"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Raif_RambursTotal"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="RaifPrima_DobandaPA"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="RaifPrima_DAE"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="RaifPrima_PrimaRata"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="RaifPrima_RambursTotal"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="BRD_Dobanda"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="BRD_DAE"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="BRD_Rata"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="BRD_Total"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="BCR_Dobanda"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="BCR_DAE"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="BCR_Rata"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="BCR_Total"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="BCRPrima_Dobanda"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="BCRPrima_DAE"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="BCRPrima_Rata"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="BCRPrima_Total"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="BT_DAE"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="BT_Rata"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="BT_Total"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="CEC_Dobanda"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="CEC_DAE"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="CEC_Rata"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="CEC_Total"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="CECPrima_Dobanda"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="CECPrima_DAE"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="CECPrima_Rata"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="CECPrima_Total"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:AN16" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="A1:AN16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:AN17" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A1:AN17" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="40">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Data" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DobandaPA"/>
@@ -2612,8 +1640,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table6" displayName="Table6" ref="A1:AN17" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:AN17" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table6" displayName="Table6" ref="A1:AN18" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:AN18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="40">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Data" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="DobandaPA"/>
@@ -2661,8 +1689,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="A1:D26" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:D26" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="A1:D29" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:D29" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Data" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ROBOR"/>
@@ -2970,15 +1998,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN1048576"/>
+  <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
     <col min="2" max="2" width="16.7265625" customWidth="1"/>
     <col min="3" max="3" width="10.36328125" customWidth="1"/>
     <col min="4" max="4" width="15.453125" customWidth="1"/>
@@ -2997,8 +2025,8 @@
     <col min="17" max="17" width="23.453125" customWidth="1"/>
     <col min="18" max="18" width="14.90625" customWidth="1"/>
     <col min="19" max="19" width="10.7265625" customWidth="1"/>
-    <col min="20" max="20" width="11.08984375" customWidth="1"/>
-    <col min="21" max="21" width="11.54296875" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" customWidth="1"/>
     <col min="22" max="22" width="14.7265625" customWidth="1"/>
     <col min="23" max="23" width="10.54296875" customWidth="1"/>
     <col min="24" max="24" width="10.81640625" customWidth="1"/>
@@ -3008,8 +2036,8 @@
     <col min="28" max="28" width="15.6328125" customWidth="1"/>
     <col min="29" max="29" width="16.08984375" customWidth="1"/>
     <col min="30" max="30" width="9.36328125" customWidth="1"/>
-    <col min="31" max="31" width="9.7265625" customWidth="1"/>
-    <col min="32" max="32" width="10.1796875" customWidth="1"/>
+    <col min="31" max="31" width="9.6328125" customWidth="1"/>
+    <col min="32" max="32" width="10.08984375" customWidth="1"/>
     <col min="33" max="33" width="14.6328125" customWidth="1"/>
     <col min="34" max="34" width="10.453125" customWidth="1"/>
     <col min="35" max="35" width="10.7265625" customWidth="1"/>
@@ -3020,1756 +2048,1835 @@
     <col min="40" max="40" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="25" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="25" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="25" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="25" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="23" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="23" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="23" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="23" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A2" s="16">
+      <c r="A2" s="34">
         <v>44287</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>4.63</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2">
         <v>5.57</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>1705.36</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <v>655661.06000000006</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>4.41</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>5.38</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>1661.98</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>629543.41</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2">
         <v>4.67</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2">
         <v>5.14</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2">
         <v>2020</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2">
         <v>754331</v>
       </c>
-      <c r="N2" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="O2" s="1">
+      <c r="N2">
+        <v>3.67</v>
+      </c>
+      <c r="O2">
         <v>3.9</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2">
         <v>1788</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2">
         <v>655209</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2">
         <v>5.25</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2">
         <v>5.8</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2">
         <v>2326.71</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2">
         <v>794383</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2">
         <v>4.68</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2">
         <v>6.4</v>
       </c>
-      <c r="X2" s="6">
+      <c r="X2">
         <v>2388.5</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Y2">
         <v>844095.31</v>
       </c>
-      <c r="Z2" s="5">
-        <v>3.67</v>
-      </c>
-      <c r="AA2" s="5">
+      <c r="Z2">
+        <v>3.67</v>
+      </c>
+      <c r="AA2">
         <v>3.93</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2">
         <v>1788.49</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AC2">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AD2">
         <v>4.5599999999999996</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AE2">
         <v>1.958</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AF2">
         <v>709079</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AG2">
         <v>4.17</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AH2">
         <v>4.76</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AI2">
         <v>2049.77</v>
       </c>
-      <c r="AJ2" s="14">
+      <c r="AJ2">
         <v>715490.86</v>
       </c>
-      <c r="AK2" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AL2" s="1">
+      <c r="AK2">
+        <v>3.67</v>
+      </c>
+      <c r="AL2">
         <v>3.73</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AM2">
         <v>1783.04</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2">
         <v>641893.48</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A3" s="16">
+      <c r="A3" s="34">
         <v>44288</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>4.63</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>5.57</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>1705.36</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3">
         <v>655661.06000000006</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>4.41</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>5.38</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>1661.98</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>629543.41</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3">
         <v>4.67</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3">
         <v>5.14</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3">
         <v>2020</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3">
         <v>754331</v>
       </c>
-      <c r="N3" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="O3" s="1">
+      <c r="N3">
+        <v>3.67</v>
+      </c>
+      <c r="O3">
         <v>3.9</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3">
         <v>1788</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3">
         <v>655209</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3">
         <v>5.25</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3">
         <v>5.8</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3">
         <v>2326.7199999999998</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3">
         <v>795383</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3">
         <v>4.68</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3">
         <v>6.4</v>
       </c>
-      <c r="X3" s="6">
+      <c r="X3">
         <v>2388.5</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3">
         <v>844095.31</v>
       </c>
-      <c r="Z3" s="5">
-        <v>3.67</v>
-      </c>
-      <c r="AA3" s="5">
+      <c r="Z3">
+        <v>3.67</v>
+      </c>
+      <c r="AA3">
         <v>3.93</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AB3">
         <v>1788.49</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AC3">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AD3">
         <v>4.5599999999999996</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AE3">
         <v>1.958</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AF3">
         <v>709079</v>
       </c>
-      <c r="AG3" s="6">
+      <c r="AG3">
         <v>4.17</v>
       </c>
-      <c r="AH3" s="6">
+      <c r="AH3">
         <v>4.76</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="AI3">
         <v>2049.77</v>
       </c>
-      <c r="AJ3" s="10">
+      <c r="AJ3">
         <v>715491.29</v>
       </c>
-      <c r="AK3" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AL3" s="1">
+      <c r="AK3">
+        <v>3.67</v>
+      </c>
+      <c r="AL3">
         <v>3.73</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AM3">
         <v>1783.04</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AN3">
         <v>641893.84</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
+      <c r="A4" s="34">
         <v>44294</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>4.63</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>5.57</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>1705.36</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <v>655661.06000000006</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>4.41</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>5.38</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>1661.98</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>629543.41</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4">
         <v>4.67</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4">
         <v>5.14</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4">
         <v>2020</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4">
         <v>754331</v>
       </c>
-      <c r="N4" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="O4" s="1">
+      <c r="N4">
+        <v>3.67</v>
+      </c>
+      <c r="O4">
         <v>3.9</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4">
         <v>1788</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4">
         <v>655209</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4">
         <v>5.25</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4">
         <v>5.82</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4">
         <v>2329.09</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4">
         <v>795196</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4">
         <v>4.68</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4">
         <v>6.4</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4">
         <v>2388.5</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4">
         <v>844095.31</v>
       </c>
-      <c r="Z4" s="5">
-        <v>3.67</v>
-      </c>
-      <c r="AA4" s="5">
+      <c r="Z4">
+        <v>3.67</v>
+      </c>
+      <c r="AA4">
         <v>3.93</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4">
         <v>1788.49</v>
       </c>
-      <c r="AC4" s="5">
+      <c r="AC4">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AD4">
         <v>4.5599999999999996</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AE4">
         <v>1.958</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AF4">
         <v>709079</v>
       </c>
-      <c r="AG4" s="6">
+      <c r="AG4">
         <v>4.17</v>
       </c>
-      <c r="AH4" s="6">
+      <c r="AH4">
         <v>4.76</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AI4">
         <v>2049.77</v>
       </c>
-      <c r="AJ4" s="10">
+      <c r="AJ4">
         <v>715491.29</v>
       </c>
-      <c r="AK4" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AL4" s="1">
+      <c r="AK4">
+        <v>3.67</v>
+      </c>
+      <c r="AL4">
         <v>3.73</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AM4">
         <v>1783.04</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AN4">
         <v>641893.84</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A5" s="16">
+      <c r="A5" s="34">
         <v>44295</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>4.63</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>5.57</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>1705.36</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>655661.06000000006</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>4.41</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>5.38</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>1661.98</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>629543.41</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5">
         <v>4.67</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5">
         <v>5.14</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5">
         <v>2020</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5">
         <v>754331</v>
       </c>
-      <c r="N5" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="O5" s="1">
+      <c r="N5">
+        <v>3.67</v>
+      </c>
+      <c r="O5">
         <v>3.9</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5">
         <v>1788</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5">
         <v>655209</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5">
         <v>5.25</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5">
         <v>5.82</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5">
         <v>2329.09</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5">
         <v>795196</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5">
         <v>4.68</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5">
         <v>5.79</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5">
         <v>2244.1999999999998</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5">
         <v>760469.86</v>
       </c>
-      <c r="Z5" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AA5" s="1">
+      <c r="Z5">
+        <v>3.67</v>
+      </c>
+      <c r="AA5">
         <v>3.93</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5">
         <v>1788.49</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AD5">
         <v>4.5599999999999996</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AE5">
         <v>1.958</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AF5">
         <v>709079</v>
       </c>
-      <c r="AG5" s="6">
+      <c r="AG5">
         <v>4.17</v>
       </c>
-      <c r="AH5" s="6">
+      <c r="AH5">
         <v>4.76</v>
       </c>
-      <c r="AI5" s="6">
+      <c r="AI5">
         <v>2049.77</v>
       </c>
-      <c r="AJ5" s="10">
+      <c r="AJ5">
         <v>715491.29</v>
       </c>
-      <c r="AK5" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AL5" s="1">
+      <c r="AK5">
+        <v>3.67</v>
+      </c>
+      <c r="AL5">
         <v>3.73</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AM5">
         <v>1783.04</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AN5">
         <v>641893.84</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
+      <c r="A6" s="34">
         <v>44299</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>4.63</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>5.57</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>1705.36</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>655661.06000000006</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>3.88</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>4.83</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>1058.68</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>402860.66</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6">
         <v>4.67</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6">
         <v>5.14</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6">
         <v>2020</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6">
         <v>754331</v>
       </c>
-      <c r="N6" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="O6" s="1">
+      <c r="N6">
+        <v>3.67</v>
+      </c>
+      <c r="O6">
         <v>3.9</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6">
         <v>1788</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6">
         <v>655209</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6">
         <v>5.25</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6">
         <v>5.82</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6">
         <v>2329.09</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6">
         <v>795196</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6">
         <v>4.68</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6">
         <v>5.79</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6">
         <v>2244.1999999999998</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6">
         <v>760469.86</v>
       </c>
-      <c r="Z6" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AA6" s="1">
+      <c r="Z6">
+        <v>3.67</v>
+      </c>
+      <c r="AA6">
         <v>3.93</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6">
         <v>1788.49</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC6">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AE6">
         <v>2004</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AF6">
         <v>725783</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AG6">
         <v>4.17</v>
       </c>
-      <c r="AH6" s="6">
+      <c r="AH6">
         <v>4.76</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AI6">
         <v>2043.94</v>
       </c>
-      <c r="AJ6" s="10">
+      <c r="AJ6">
         <v>713454.64</v>
       </c>
-      <c r="AK6" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AL6" s="1">
+      <c r="AK6">
+        <v>3.67</v>
+      </c>
+      <c r="AL6">
         <v>3.73</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AM6">
         <v>1783.04</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AN6">
         <v>641893.84</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A7" s="16">
+      <c r="A7" s="34">
         <v>44299</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>4.63</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>5.57</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>1705.36</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>655661.06000000006</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>3.88</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>4.83</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>1058.68</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>402860.66</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7">
         <v>4.67</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7">
         <v>5.14</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7">
         <v>2020</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7">
         <v>754331</v>
       </c>
-      <c r="N7" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="O7" s="1">
+      <c r="N7">
+        <v>3.67</v>
+      </c>
+      <c r="O7">
         <v>3.9</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7">
         <v>1788</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7">
         <v>655209</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7">
         <v>5.25</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7">
         <v>5.82</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7">
         <v>2329.09</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7">
         <v>795196</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7">
         <v>4.68</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7">
         <v>5.79</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7">
         <v>2244.1999999999998</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7">
         <v>760469.86</v>
       </c>
-      <c r="Z7" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AA7" s="1">
+      <c r="Z7">
+        <v>3.67</v>
+      </c>
+      <c r="AA7">
         <v>3.93</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7">
         <v>1788.49</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AD7">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AE7">
         <v>2004</v>
       </c>
-      <c r="AF7" s="6">
+      <c r="AF7">
         <v>725783</v>
       </c>
-      <c r="AG7" s="6">
+      <c r="AG7">
         <v>4.17</v>
       </c>
-      <c r="AH7" s="6">
+      <c r="AH7">
         <v>4.76</v>
       </c>
-      <c r="AI7" s="6">
+      <c r="AI7">
         <v>2043.94</v>
       </c>
-      <c r="AJ7" s="10">
+      <c r="AJ7">
         <v>713454.64</v>
       </c>
-      <c r="AK7" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AL7" s="1">
+      <c r="AK7">
+        <v>3.67</v>
+      </c>
+      <c r="AL7">
         <v>3.73</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AM7">
         <v>1785.22</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AN7">
         <v>642672.81999999995</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A8" s="16">
+      <c r="A8" s="34">
         <v>44300</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>4.63</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>5.57</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>1705.36</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>655661.06000000006</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>3.88</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>4.83</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>1058.68</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>402860.66</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8">
         <v>4.67</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8">
         <v>5.14</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8">
         <v>2020</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8">
         <v>754331</v>
       </c>
-      <c r="N8" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="O8" s="1">
+      <c r="N8">
+        <v>3.67</v>
+      </c>
+      <c r="O8">
         <v>3.9</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8">
         <v>1788</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8">
         <v>655209</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8">
         <v>5.25</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8">
         <v>5.82</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8">
         <v>2329.09</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8">
         <v>795196</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8">
         <v>4.68</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8">
         <v>5.79</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8">
         <v>2244.1999999999998</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Y8">
         <v>760469.86</v>
       </c>
-      <c r="Z8" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AA8" s="1">
+      <c r="Z8">
+        <v>3.67</v>
+      </c>
+      <c r="AA8">
         <v>3.93</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8">
         <v>1788.49</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC8">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AD8">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AE8">
         <v>2004</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AF8">
         <v>725783</v>
       </c>
-      <c r="AG8" s="6">
+      <c r="AG8">
         <v>4.17</v>
       </c>
-      <c r="AH8" s="6">
+      <c r="AH8">
         <v>4.76</v>
       </c>
-      <c r="AI8" s="6">
+      <c r="AI8">
         <v>2043.94</v>
       </c>
-      <c r="AJ8" s="6">
+      <c r="AJ8">
         <v>713455.08</v>
       </c>
-      <c r="AK8" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AL8" s="1">
+      <c r="AK8">
+        <v>3.67</v>
+      </c>
+      <c r="AL8">
         <v>3.73</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AM8">
         <v>1785.22</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AN8">
         <v>642673.18000000005</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A9" s="16">
+      <c r="A9" s="34">
         <v>44305</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>4.63</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>5.57</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>1705.36</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>655661.06000000006</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>3.88</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>4.8</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>1559.78</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>592448.41</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9">
         <v>4.67</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9">
         <v>5.14</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9">
         <v>2020</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9">
         <v>754331</v>
       </c>
-      <c r="N9" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="O9" s="1">
+      <c r="N9">
+        <v>3.67</v>
+      </c>
+      <c r="O9">
         <v>3.9</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9">
         <v>1788</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9">
         <v>655209</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9">
         <v>5.25</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9">
         <v>5.82</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9">
         <v>2329.09</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9">
         <v>795196</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9">
         <v>4.68</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9">
         <v>5.79</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9">
         <v>2244.1999999999998</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9">
         <v>760469.86</v>
       </c>
-      <c r="Z9" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AA9" s="1">
+      <c r="Z9">
+        <v>3.67</v>
+      </c>
+      <c r="AA9">
         <v>3.93</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9">
         <v>1788.49</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AC9">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AD9">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE9" s="6">
+      <c r="AE9">
         <v>2004</v>
       </c>
-      <c r="AF9" s="6">
+      <c r="AF9">
         <v>725783</v>
       </c>
-      <c r="AG9" s="6">
+      <c r="AG9">
         <v>4.17</v>
       </c>
-      <c r="AH9" s="6">
+      <c r="AH9">
         <v>4.76</v>
       </c>
-      <c r="AI9" s="6">
+      <c r="AI9">
         <v>2043.94</v>
       </c>
-      <c r="AJ9" s="6">
+      <c r="AJ9">
         <v>713454.64</v>
       </c>
-      <c r="AK9" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AL9" s="1">
+      <c r="AK9">
+        <v>3.67</v>
+      </c>
+      <c r="AL9">
         <v>3.73</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AM9">
         <v>1785.22</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AN9">
         <v>642672.81999999995</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A10" s="16">
+      <c r="A10" s="34">
         <v>44306</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>4.63</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>5.57</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>1705.36</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>655661.06000000006</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>3.88</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>4.8</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>1559.78</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>592448.41</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10">
         <v>4.67</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10">
         <v>5.14</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10">
         <v>2020</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10">
         <v>754331</v>
       </c>
-      <c r="N10" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="O10" s="1">
+      <c r="N10">
+        <v>3.67</v>
+      </c>
+      <c r="O10">
         <v>3.9</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10">
         <v>1788</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10">
         <v>655209</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10">
         <v>5.25</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10">
         <v>5.82</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10">
         <v>2329.09</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10">
         <v>795196</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10">
         <v>4.68</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10">
         <v>5.79</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10">
         <v>2244.1999999999998</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10">
         <v>760469.86</v>
       </c>
-      <c r="Z10" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AA10" s="1">
+      <c r="Z10">
+        <v>3.67</v>
+      </c>
+      <c r="AA10">
         <v>3.93</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10">
         <v>1788.49</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC10">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AD10">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AE10">
         <v>2004</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AF10">
         <v>725783</v>
       </c>
-      <c r="AG10" s="6">
+      <c r="AG10">
         <v>4.17</v>
       </c>
-      <c r="AH10" s="6">
+      <c r="AH10">
         <v>4.76</v>
       </c>
-      <c r="AI10" s="6">
+      <c r="AI10">
         <v>2043.94</v>
       </c>
-      <c r="AJ10" s="6">
+      <c r="AJ10">
         <v>713454.64</v>
       </c>
-      <c r="AK10" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AL10" s="1">
+      <c r="AK10">
+        <v>3.67</v>
+      </c>
+      <c r="AL10">
         <v>3.73</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AM10">
         <v>1785.22</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="AN10">
         <v>642672.81999999995</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A11" s="16">
+      <c r="A11" s="34">
         <v>44312</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>4.63</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>5.57</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>1705.36</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <v>655661.06000000006</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>3.88</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>4.8</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>1559.78</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>592448.41</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11">
         <v>4.67</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11">
         <v>5.14</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11">
         <v>2020</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11">
         <v>754331</v>
       </c>
-      <c r="N11" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="O11" s="1">
+      <c r="N11">
+        <v>3.67</v>
+      </c>
+      <c r="O11">
         <v>3.9</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11">
         <v>1788</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11">
         <v>655209</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11">
         <v>5.25</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11">
         <v>5.82</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11">
         <v>2329.09</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11">
         <v>795196</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11">
         <v>4.68</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11">
         <v>5.79</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X11">
         <v>2244.1999999999998</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Y11">
         <v>760469.86</v>
       </c>
-      <c r="Z11" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AA11" s="1">
+      <c r="Z11">
+        <v>3.67</v>
+      </c>
+      <c r="AA11">
         <v>3.93</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AB11">
         <v>1788.49</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AC11">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AD11">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE11" s="6">
+      <c r="AE11">
         <v>2004</v>
       </c>
-      <c r="AF11" s="6">
+      <c r="AF11">
         <v>725783</v>
       </c>
-      <c r="AG11" s="6">
+      <c r="AG11">
         <v>4.17</v>
       </c>
-      <c r="AH11" s="6">
+      <c r="AH11">
         <v>4.76</v>
       </c>
-      <c r="AI11" s="6">
+      <c r="AI11">
         <v>2043.94</v>
       </c>
-      <c r="AJ11" s="6">
+      <c r="AJ11">
         <v>713454.64</v>
       </c>
-      <c r="AK11" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AL11" s="1">
+      <c r="AK11">
+        <v>3.67</v>
+      </c>
+      <c r="AL11">
         <v>3.73</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AM11">
         <v>1785.22</v>
       </c>
-      <c r="AN11" s="1">
+      <c r="AN11">
         <v>642672.81999999995</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A12" s="16">
+      <c r="A12" s="34">
         <v>44325</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>4.63</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>5.57</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>1705.36</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12">
         <v>655661.06000000006</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>3.88</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>4.8</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>1559.78</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>592448.41</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12">
         <v>4.67</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12">
         <v>5.14</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12">
         <v>2020</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12">
         <v>754331</v>
       </c>
-      <c r="N12" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="O12" s="1">
+      <c r="N12">
+        <v>3.67</v>
+      </c>
+      <c r="O12">
         <v>3.9</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12">
         <v>1788</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12">
         <v>655209</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12">
         <v>5.25</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12">
         <v>5.82</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12">
         <v>2329.09</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12">
         <v>795196</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12">
         <v>4.68</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12">
         <v>5.79</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12">
         <v>2244.1999999999998</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Y12">
         <v>760469.86</v>
       </c>
-      <c r="Z12" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AA12" s="1">
+      <c r="Z12">
+        <v>3.67</v>
+      </c>
+      <c r="AA12">
         <v>3.93</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AB12">
         <v>1788.49</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AC12">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AD12">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AE12">
         <v>2004</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AF12">
         <v>725783</v>
       </c>
-      <c r="AG12" s="6">
+      <c r="AG12">
         <v>4.17</v>
       </c>
-      <c r="AH12" s="6">
+      <c r="AH12">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AI12" s="6">
+      <c r="AI12">
         <v>2044.16</v>
       </c>
-      <c r="AJ12" s="6">
+      <c r="AJ12">
         <v>713536.86</v>
       </c>
-      <c r="AK12" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AL12" s="1">
+      <c r="AK12">
+        <v>3.67</v>
+      </c>
+      <c r="AL12">
         <v>3.73</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AM12">
         <v>1785.4</v>
       </c>
-      <c r="AN12" s="1">
+      <c r="AN12">
         <v>642739.03</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A13" s="16">
+      <c r="A13" s="34">
         <v>44326</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>4.63</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <v>5.57</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>1705.36</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
         <v>655661.06000000006</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>3.88</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>4.8</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>1559.78</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>592448.41</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13">
         <v>4.67</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13">
         <v>5.14</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13">
         <v>2020</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13">
         <v>754331</v>
       </c>
-      <c r="N13" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="O13" s="1">
+      <c r="N13">
+        <v>3.67</v>
+      </c>
+      <c r="O13">
         <v>3.9</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13">
         <v>1788</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13">
         <v>655209</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13">
         <v>5.25</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13">
         <v>5.8</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13">
         <v>2329.09</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13">
         <v>793396</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13">
         <v>4.68</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13">
         <v>5.79</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13">
         <v>2244.1999999999998</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Y13">
         <v>760469.86</v>
       </c>
-      <c r="Z13" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AA13" s="1">
+      <c r="Z13">
+        <v>3.67</v>
+      </c>
+      <c r="AA13">
         <v>3.93</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB13">
         <v>1788.49</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AC13">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD13" s="6">
+      <c r="AD13">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE13" s="6">
+      <c r="AE13">
         <v>2004</v>
       </c>
-      <c r="AF13" s="6">
+      <c r="AF13">
         <v>725783</v>
       </c>
-      <c r="AG13" s="6">
+      <c r="AG13">
         <v>4.17</v>
       </c>
-      <c r="AH13" s="6">
+      <c r="AH13">
         <v>4.76</v>
       </c>
-      <c r="AI13" s="6">
+      <c r="AI13">
         <v>2043.94</v>
       </c>
-      <c r="AJ13" s="6">
+      <c r="AJ13">
         <v>713454.64</v>
       </c>
-      <c r="AK13" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="AL13" s="1">
+      <c r="AK13">
+        <v>3.67</v>
+      </c>
+      <c r="AL13">
         <v>3.73</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AM13">
         <v>1785.22</v>
       </c>
-      <c r="AN13" s="1">
+      <c r="AN13">
         <v>642672.81999999995</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A14" s="29">
+      <c r="A14" s="34">
         <v>44344</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14">
         <v>4.63</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14">
         <v>5.57</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14">
         <v>1705.36</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14">
         <v>655801.06000000006</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14">
         <v>3.88</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14">
         <v>4.8</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14">
         <v>1559.78</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14">
         <v>592448.41</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14">
         <v>4.67</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14">
         <v>5.14</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14">
         <v>2020</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14">
         <v>754331</v>
       </c>
-      <c r="N14" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="O14" s="28">
+      <c r="N14">
+        <v>3.67</v>
+      </c>
+      <c r="O14">
         <v>3.93</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14">
         <v>1788</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14">
         <v>655209</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R14">
         <v>5.25</v>
       </c>
-      <c r="S14" s="27">
+      <c r="S14">
         <v>5.8</v>
       </c>
-      <c r="T14" s="27">
+      <c r="T14">
         <v>2329.09</v>
       </c>
-      <c r="U14" s="27">
+      <c r="U14">
         <v>793396</v>
       </c>
-      <c r="V14" s="27">
+      <c r="V14">
         <v>4.68</v>
       </c>
-      <c r="W14" s="27">
+      <c r="W14">
         <v>5.79</v>
       </c>
-      <c r="X14" s="27">
+      <c r="X14">
         <v>2244.1999999999998</v>
       </c>
-      <c r="Y14" s="27">
+      <c r="Y14">
         <v>760469.86</v>
       </c>
-      <c r="Z14" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AA14" s="28">
+      <c r="Z14">
+        <v>3.67</v>
+      </c>
+      <c r="AA14">
         <v>3.93</v>
       </c>
-      <c r="AB14" s="28">
+      <c r="AB14">
         <v>1788.49</v>
       </c>
-      <c r="AC14" s="28">
+      <c r="AC14">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD14" s="27">
+      <c r="AD14">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE14" s="27">
+      <c r="AE14">
         <v>2004</v>
       </c>
-      <c r="AF14" s="27">
+      <c r="AF14">
         <v>725783</v>
       </c>
-      <c r="AG14" s="27">
+      <c r="AG14">
         <v>4.17</v>
       </c>
-      <c r="AH14" s="27">
+      <c r="AH14">
         <v>4.76</v>
       </c>
-      <c r="AI14" s="27">
+      <c r="AI14">
         <v>2043.94</v>
       </c>
-      <c r="AJ14" s="27">
+      <c r="AJ14">
         <v>713455.08</v>
       </c>
-      <c r="AK14" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AL14" s="28">
+      <c r="AK14">
+        <v>3.67</v>
+      </c>
+      <c r="AL14">
         <v>3.73</v>
       </c>
-      <c r="AM14" s="28">
+      <c r="AM14">
         <v>1785.22</v>
       </c>
-      <c r="AN14" s="28">
+      <c r="AN14">
         <v>642673.18000000005</v>
       </c>
     </row>
-    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1048576" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A1048576" s="26"/>
-      <c r="B1048576" s="8"/>
-      <c r="C1048576" s="8"/>
-      <c r="D1048576" s="8"/>
-      <c r="E1048576" s="8"/>
-      <c r="F1048576" s="9"/>
-      <c r="G1048576" s="9"/>
-      <c r="H1048576" s="9"/>
-      <c r="I1048576" s="9"/>
-      <c r="J1048576" s="8"/>
-      <c r="K1048576" s="8"/>
-      <c r="L1048576" s="8"/>
-      <c r="M1048576" s="8"/>
-      <c r="N1048576" s="9"/>
-      <c r="O1048576" s="9"/>
-      <c r="P1048576" s="9"/>
-      <c r="Q1048576" s="9"/>
-      <c r="R1048576" s="8"/>
-      <c r="S1048576" s="8"/>
-      <c r="T1048576" s="8"/>
-      <c r="U1048576" s="8"/>
-      <c r="V1048576" s="8"/>
-      <c r="W1048576" s="8"/>
-      <c r="X1048576" s="8"/>
-      <c r="Y1048576" s="8"/>
-      <c r="Z1048576" s="12"/>
-      <c r="AA1048576" s="12"/>
-      <c r="AB1048576" s="12"/>
-      <c r="AC1048576" s="12"/>
-      <c r="AD1048576" s="8"/>
-      <c r="AE1048576" s="8"/>
-      <c r="AF1048576" s="8"/>
-      <c r="AG1048576" s="8"/>
-      <c r="AH1048576" s="8"/>
-      <c r="AI1048576" s="8"/>
-      <c r="AJ1048576" s="8"/>
-      <c r="AK1048576" s="9"/>
-      <c r="AL1048576" s="9"/>
-      <c r="AM1048576" s="9"/>
-      <c r="AN1048576" s="9"/>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A15" s="35">
+        <v>44346</v>
+      </c>
+      <c r="B15">
+        <v>4.63</v>
+      </c>
+      <c r="C15">
+        <v>5.57</v>
+      </c>
+      <c r="D15">
+        <v>1705.36</v>
+      </c>
+      <c r="E15">
+        <v>655801.06000000006</v>
+      </c>
+      <c r="F15">
+        <v>3.88</v>
+      </c>
+      <c r="G15">
+        <v>4.8</v>
+      </c>
+      <c r="H15">
+        <v>1559.78</v>
+      </c>
+      <c r="I15">
+        <v>592448.41</v>
+      </c>
+      <c r="J15">
+        <v>4.67</v>
+      </c>
+      <c r="K15">
+        <v>5.14</v>
+      </c>
+      <c r="L15">
+        <v>2020</v>
+      </c>
+      <c r="M15">
+        <v>754331</v>
+      </c>
+      <c r="N15">
+        <v>3.67</v>
+      </c>
+      <c r="O15">
+        <v>3.9</v>
+      </c>
+      <c r="P15">
+        <v>1788</v>
+      </c>
+      <c r="Q15">
+        <v>1788</v>
+      </c>
+      <c r="R15">
+        <v>5.25</v>
+      </c>
+      <c r="S15">
+        <v>5.8</v>
+      </c>
+      <c r="T15">
+        <v>2329.09</v>
+      </c>
+      <c r="U15">
+        <v>793396</v>
+      </c>
+      <c r="V15">
+        <v>4.68</v>
+      </c>
+      <c r="W15">
+        <v>5.79</v>
+      </c>
+      <c r="X15">
+        <v>2244.1999999999998</v>
+      </c>
+      <c r="Y15">
+        <v>760469.86</v>
+      </c>
+      <c r="Z15">
+        <v>3.67</v>
+      </c>
+      <c r="AA15">
+        <v>3.93</v>
+      </c>
+      <c r="AB15">
+        <v>1788.49</v>
+      </c>
+      <c r="AC15">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD15">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE15">
+        <v>2004</v>
+      </c>
+      <c r="AF15">
+        <v>725783</v>
+      </c>
+      <c r="AG15">
+        <v>4.17</v>
+      </c>
+      <c r="AH15">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AI15">
+        <v>2044.16</v>
+      </c>
+      <c r="AJ15">
+        <v>713536.86</v>
+      </c>
+      <c r="AK15">
+        <v>3.67</v>
+      </c>
+      <c r="AL15">
+        <v>3.73</v>
+      </c>
+      <c r="AM15">
+        <v>1785.4</v>
+      </c>
+      <c r="AN15">
+        <v>642739.03</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4784,7 +3891,7 @@
   <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView zoomScale="96" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4835,121 +3942,121 @@
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AD1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AE1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AF1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="25" t="s">
+      <c r="AG1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="25" t="s">
+      <c r="AH1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="25" t="s">
+      <c r="AI1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="31" t="s">
+      <c r="AJ1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="23" t="s">
+      <c r="AK1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="23" t="s">
+      <c r="AL1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="23" t="s">
+      <c r="AM1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="32" t="s">
+      <c r="AN1" s="25" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6052,778 +5159,858 @@
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A11" s="30">
+      <c r="A11" s="34">
         <v>44312</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="22">
         <v>4.63</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="22">
         <v>5.56</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="22">
         <v>1924</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="22">
         <v>739150.35</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="23">
         <v>3.88</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="23">
         <v>4.79</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="23">
         <v>1759.76</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="23">
         <v>667929.43999999994</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="22">
         <v>4.67</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="22">
         <v>5.13</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="22">
         <v>2278</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="22">
         <v>850174</v>
       </c>
-      <c r="N11" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="O11" s="28">
+      <c r="N11" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="O11" s="23">
         <v>3.9</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="23">
         <v>2017</v>
       </c>
       <c r="Q11" s="1">
         <v>738919</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="22">
         <v>5.25</v>
       </c>
-      <c r="S11" s="27">
+      <c r="S11" s="22">
         <v>5.82</v>
       </c>
-      <c r="T11" s="27">
+      <c r="T11" s="22">
         <v>2627.7</v>
       </c>
-      <c r="U11" s="27">
+      <c r="U11" s="22">
         <v>896830</v>
       </c>
-      <c r="V11" s="27">
+      <c r="V11" s="22">
         <v>4.68</v>
       </c>
-      <c r="W11" s="27">
+      <c r="W11" s="22">
         <v>5.79</v>
       </c>
-      <c r="X11" s="27">
+      <c r="X11" s="22">
         <v>2531.92</v>
       </c>
-      <c r="Y11" s="27">
+      <c r="Y11" s="22">
         <v>857900.61</v>
       </c>
-      <c r="Z11" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AA11" s="28">
+      <c r="Z11" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AA11" s="23">
         <v>3.93</v>
       </c>
-      <c r="AB11" s="28">
+      <c r="AB11" s="23">
         <v>2017.79</v>
       </c>
-      <c r="AC11" s="28">
+      <c r="AC11" s="23">
         <v>740968.73</v>
       </c>
-      <c r="AD11" s="27">
+      <c r="AD11" s="22">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE11" s="27">
+      <c r="AE11" s="22">
         <v>2261</v>
       </c>
-      <c r="AF11" s="27">
+      <c r="AF11" s="22">
         <v>818274</v>
       </c>
-      <c r="AG11" s="27">
+      <c r="AG11" s="22">
         <v>4.17</v>
       </c>
-      <c r="AH11" s="27">
+      <c r="AH11" s="22">
         <v>4.76</v>
       </c>
-      <c r="AI11" s="27">
+      <c r="AI11" s="22">
         <v>2313.13</v>
       </c>
-      <c r="AJ11" s="27">
+      <c r="AJ11" s="22">
         <v>807420.9</v>
       </c>
-      <c r="AK11" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AL11" s="28">
+      <c r="AK11" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AL11" s="23">
         <v>3.73</v>
       </c>
-      <c r="AM11" s="28">
+      <c r="AM11" s="23">
         <v>2013.45</v>
       </c>
-      <c r="AN11" s="28">
+      <c r="AN11" s="23">
         <v>724840.82</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A12" s="30">
+      <c r="A12" s="34">
         <v>44322</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="22">
         <v>4.63</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="22">
         <v>5.56</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="22">
         <v>1924</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="22">
         <v>739150.35</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="23">
         <v>3.88</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="23">
         <v>4.79</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="23">
         <v>1759.76</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="23">
         <v>667929.43999999994</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="22">
         <v>4.67</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="22">
         <v>5.13</v>
       </c>
-      <c r="L12" s="27">
+      <c r="L12" s="22">
         <v>2278</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="22">
         <v>850174</v>
       </c>
-      <c r="N12" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="O12" s="28">
+      <c r="N12" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="O12" s="23">
         <v>3.9</v>
       </c>
-      <c r="P12" s="28">
+      <c r="P12" s="23">
         <v>2017</v>
       </c>
       <c r="Q12" s="1">
         <v>738919</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="22">
         <v>5.25</v>
       </c>
-      <c r="S12" s="27">
+      <c r="S12" s="22">
         <v>5.82</v>
       </c>
-      <c r="T12" s="27">
+      <c r="T12" s="22">
         <v>2627.7</v>
       </c>
-      <c r="U12" s="27">
+      <c r="U12" s="22">
         <v>896830</v>
       </c>
-      <c r="V12" s="27">
+      <c r="V12" s="22">
         <v>4.68</v>
       </c>
-      <c r="W12" s="27">
+      <c r="W12" s="22">
         <v>5.79</v>
       </c>
-      <c r="X12" s="27">
+      <c r="X12" s="22">
         <v>2531.92</v>
       </c>
-      <c r="Y12" s="27">
+      <c r="Y12" s="22">
         <v>857900.61</v>
       </c>
-      <c r="Z12" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AA12" s="28">
+      <c r="Z12" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AA12" s="23">
         <v>3.93</v>
       </c>
-      <c r="AB12" s="28">
+      <c r="AB12" s="23">
         <v>2017.79</v>
       </c>
-      <c r="AC12" s="28">
+      <c r="AC12" s="23">
         <v>740968.73</v>
       </c>
-      <c r="AD12" s="27">
+      <c r="AD12" s="22">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE12" s="27">
+      <c r="AE12" s="22">
         <v>2261</v>
       </c>
-      <c r="AF12" s="27">
+      <c r="AF12" s="22">
         <v>818274</v>
       </c>
-      <c r="AG12" s="27">
+      <c r="AG12" s="22">
         <v>4.17</v>
       </c>
-      <c r="AH12" s="27">
+      <c r="AH12" s="22">
         <v>4.76</v>
       </c>
-      <c r="AI12" s="27">
+      <c r="AI12" s="22">
         <v>2313.13</v>
       </c>
-      <c r="AJ12" s="27">
+      <c r="AJ12" s="22">
         <v>807421.39</v>
       </c>
-      <c r="AK12" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AL12" s="28">
+      <c r="AK12" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AL12" s="23">
         <v>3.73</v>
       </c>
-      <c r="AM12" s="28">
+      <c r="AM12" s="23">
         <v>2013.45</v>
       </c>
-      <c r="AN12" s="28">
+      <c r="AN12" s="23">
         <v>724841.23</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A13" s="30">
+      <c r="A13" s="34">
         <v>44325</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="22">
         <v>4.63</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="22">
         <v>5.56</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="22">
         <v>1924</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="22">
         <v>739150.35</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="23">
         <v>3.88</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="23">
         <v>4.79</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="23">
         <v>1759.76</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="23">
         <v>667929.43999999994</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="22">
         <v>4.67</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="22">
         <v>5.13</v>
       </c>
-      <c r="L13" s="27">
+      <c r="L13" s="22">
         <v>2278</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="22">
         <v>850174</v>
       </c>
-      <c r="N13" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="O13" s="28">
+      <c r="N13" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="O13" s="23">
         <v>3.9</v>
       </c>
-      <c r="P13" s="28">
+      <c r="P13" s="23">
         <v>2017</v>
       </c>
       <c r="Q13" s="1">
         <v>738919</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="22">
         <v>5.25</v>
       </c>
-      <c r="S13" s="27">
+      <c r="S13" s="22">
         <v>5.82</v>
       </c>
-      <c r="T13" s="27">
+      <c r="T13" s="22">
         <v>2627.7</v>
       </c>
-      <c r="U13" s="27">
+      <c r="U13" s="22">
         <v>896830</v>
       </c>
-      <c r="V13" s="27">
+      <c r="V13" s="22">
         <v>4.68</v>
       </c>
-      <c r="W13" s="27">
+      <c r="W13" s="22">
         <v>5.79</v>
       </c>
-      <c r="X13" s="27">
+      <c r="X13" s="22">
         <v>2531.92</v>
       </c>
-      <c r="Y13" s="27">
+      <c r="Y13" s="22">
         <v>857900.61</v>
       </c>
-      <c r="Z13" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AA13" s="28">
+      <c r="Z13" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AA13" s="23">
         <v>3.93</v>
       </c>
-      <c r="AB13" s="28">
+      <c r="AB13" s="23">
         <v>2017.79</v>
       </c>
-      <c r="AC13" s="28">
+      <c r="AC13" s="23">
         <v>740968.73</v>
       </c>
-      <c r="AD13" s="27">
+      <c r="AD13" s="22">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE13" s="27">
+      <c r="AE13" s="22">
         <v>2261</v>
       </c>
-      <c r="AF13" s="27">
+      <c r="AF13" s="22">
         <v>818274</v>
       </c>
-      <c r="AG13" s="27">
+      <c r="AG13" s="22">
         <v>4.17</v>
       </c>
-      <c r="AH13" s="27">
+      <c r="AH13" s="22">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AI13" s="27">
+      <c r="AI13" s="22">
         <v>2313.37</v>
       </c>
-      <c r="AJ13" s="27">
+      <c r="AJ13" s="22">
         <v>807517.69</v>
       </c>
-      <c r="AK13" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AL13" s="28">
+      <c r="AK13" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AL13" s="23">
         <v>3.73</v>
       </c>
-      <c r="AM13" s="28">
+      <c r="AM13" s="23">
         <v>2013.66</v>
       </c>
-      <c r="AN13" s="28">
+      <c r="AN13" s="23">
         <v>724913.58</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A14" s="30">
+      <c r="A14" s="34">
         <v>44326</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="22">
         <v>4.63</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="22">
         <v>5.56</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="22">
         <v>1924</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="22">
         <v>739150.35</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="23">
         <v>3.88</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="23">
         <v>4.79</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="23">
         <v>1759.76</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="23">
         <v>667929.43999999994</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="22">
         <v>4.67</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="22">
         <v>5.13</v>
       </c>
-      <c r="L14" s="27">
+      <c r="L14" s="22">
         <v>2278</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="22">
         <v>850174</v>
       </c>
-      <c r="N14" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="O14" s="28">
+      <c r="N14" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="O14" s="23">
         <v>3.9</v>
       </c>
-      <c r="P14" s="28">
+      <c r="P14" s="23">
         <v>2017</v>
       </c>
       <c r="Q14" s="1">
         <v>738919</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R14" s="22">
         <v>5.25</v>
       </c>
-      <c r="S14" s="27">
+      <c r="S14" s="22">
         <v>5.8</v>
       </c>
-      <c r="T14" s="27">
+      <c r="T14" s="22">
         <v>2627.7</v>
       </c>
-      <c r="U14" s="27">
+      <c r="U14" s="22">
         <v>895030</v>
       </c>
-      <c r="V14" s="27">
+      <c r="V14" s="22">
         <v>4.68</v>
       </c>
-      <c r="W14" s="27">
+      <c r="W14" s="22">
         <v>5.79</v>
       </c>
-      <c r="X14" s="27">
+      <c r="X14" s="22">
         <v>2531.92</v>
       </c>
-      <c r="Y14" s="27">
+      <c r="Y14" s="22">
         <v>857900.61</v>
       </c>
-      <c r="Z14" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AA14" s="28">
+      <c r="Z14" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AA14" s="23">
         <v>3.93</v>
       </c>
-      <c r="AB14" s="28">
+      <c r="AB14" s="23">
         <v>2017.79</v>
       </c>
-      <c r="AC14" s="28">
+      <c r="AC14" s="23">
         <v>740968.73</v>
       </c>
-      <c r="AD14" s="27">
+      <c r="AD14" s="22">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE14" s="27">
+      <c r="AE14" s="22">
         <v>2261</v>
       </c>
-      <c r="AF14" s="27">
+      <c r="AF14" s="22">
         <v>818274</v>
       </c>
-      <c r="AG14" s="27">
+      <c r="AG14" s="22">
         <v>4.17</v>
       </c>
-      <c r="AH14" s="27">
+      <c r="AH14" s="22">
         <v>4.76</v>
       </c>
-      <c r="AI14" s="27">
+      <c r="AI14" s="22">
         <v>2313.13</v>
       </c>
-      <c r="AJ14" s="27">
+      <c r="AJ14" s="22">
         <v>807420.9</v>
       </c>
-      <c r="AK14" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AL14" s="28">
+      <c r="AK14" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AL14" s="23">
         <v>3.73</v>
       </c>
-      <c r="AM14" s="28">
+      <c r="AM14" s="23">
         <v>2013.45</v>
       </c>
-      <c r="AN14" s="28">
+      <c r="AN14" s="23">
         <v>724840.82</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A15" s="30">
+      <c r="A15" s="34">
         <v>44344</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="22">
         <v>4.63</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="22">
         <v>5.56</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="22">
         <v>1924</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="22">
         <v>739290.35</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="23">
         <v>3.88</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="23">
         <v>4.79</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="23">
         <v>1759.76</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="23">
         <v>667929.43999999994</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="22">
         <v>4.67</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="22">
         <v>5.13</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="22">
         <v>2278</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="22">
         <v>850174</v>
       </c>
-      <c r="N15" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="O15" s="28">
+      <c r="N15" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="O15" s="23">
         <v>3.9</v>
       </c>
-      <c r="P15" s="28">
+      <c r="P15" s="23">
         <v>2017</v>
       </c>
       <c r="Q15" s="1">
         <v>738919</v>
       </c>
-      <c r="R15" s="27">
+      <c r="R15" s="22">
         <v>5.25</v>
       </c>
-      <c r="S15" s="27">
+      <c r="S15" s="22">
         <v>5.8</v>
       </c>
-      <c r="T15" s="27">
+      <c r="T15" s="22">
         <v>2627.7</v>
       </c>
-      <c r="U15" s="27">
+      <c r="U15" s="22">
         <v>895030</v>
       </c>
-      <c r="V15" s="27">
+      <c r="V15" s="22">
         <v>4.68</v>
       </c>
-      <c r="W15" s="27">
+      <c r="W15" s="22">
         <v>5.79</v>
       </c>
-      <c r="X15" s="27">
+      <c r="X15" s="22">
         <v>2531.92</v>
       </c>
-      <c r="Y15" s="27">
+      <c r="Y15" s="22">
         <v>857900.61</v>
       </c>
-      <c r="Z15" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AA15" s="28">
+      <c r="Z15" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AA15" s="23">
         <v>3.93</v>
       </c>
-      <c r="AB15" s="28">
+      <c r="AB15" s="23">
         <v>2017.79</v>
       </c>
-      <c r="AC15" s="28">
+      <c r="AC15" s="23">
         <v>740968.73</v>
       </c>
-      <c r="AD15" s="27">
+      <c r="AD15" s="22">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE15" s="27">
+      <c r="AE15" s="22">
         <v>2261</v>
       </c>
-      <c r="AF15" s="27">
+      <c r="AF15" s="22">
         <v>818274</v>
       </c>
-      <c r="AG15" s="27">
+      <c r="AG15" s="22">
         <v>4.17</v>
       </c>
-      <c r="AH15" s="27">
+      <c r="AH15" s="22">
         <v>4.76</v>
       </c>
-      <c r="AI15" s="27">
+      <c r="AI15" s="22">
         <v>2313.13</v>
       </c>
-      <c r="AJ15" s="27">
+      <c r="AJ15" s="22">
         <v>807421.39</v>
       </c>
-      <c r="AK15" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AL15" s="28">
+      <c r="AK15" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AL15" s="23">
         <v>3.73</v>
       </c>
-      <c r="AM15" s="28">
+      <c r="AM15" s="23">
         <v>2013.45</v>
       </c>
-      <c r="AN15" s="28">
+      <c r="AN15" s="23">
         <v>724841.23</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A16" s="30">
+      <c r="A16" s="34">
         <v>44344</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="22">
         <v>4.63</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="22">
         <v>5.56</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="22">
         <v>1924</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="22">
         <v>739290.35</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="23">
         <v>3.88</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="23">
         <v>4.79</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="23">
         <v>1759.76</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="23">
         <v>667929.43999999994</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="22">
         <v>4.67</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="22">
         <v>5.13</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="22">
         <v>2278</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="22">
         <v>850174</v>
       </c>
-      <c r="N16" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="O16" s="28">
+      <c r="N16" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="O16" s="23">
         <v>3.9</v>
       </c>
-      <c r="P16" s="28">
+      <c r="P16" s="23">
         <v>2017</v>
       </c>
       <c r="Q16" s="1">
         <v>738919</v>
       </c>
-      <c r="R16" s="27">
+      <c r="R16" s="22">
         <v>5.25</v>
       </c>
-      <c r="S16" s="27">
+      <c r="S16" s="22">
         <v>5.8</v>
       </c>
-      <c r="T16" s="27">
+      <c r="T16" s="22">
         <v>2627.7</v>
       </c>
-      <c r="U16" s="27">
+      <c r="U16" s="22">
         <v>895030</v>
       </c>
-      <c r="V16" s="27">
+      <c r="V16" s="22">
         <v>4.68</v>
       </c>
-      <c r="W16" s="27">
+      <c r="W16" s="22">
         <v>5.79</v>
       </c>
-      <c r="X16" s="27">
+      <c r="X16" s="22">
         <v>2531.92</v>
       </c>
-      <c r="Y16" s="27">
+      <c r="Y16" s="22">
         <v>857900.61</v>
       </c>
-      <c r="Z16" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AA16" s="28">
+      <c r="Z16" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AA16" s="23">
         <v>3.93</v>
       </c>
-      <c r="AB16" s="28">
+      <c r="AB16" s="23">
         <v>2017.79</v>
       </c>
-      <c r="AC16" s="28">
+      <c r="AC16" s="23">
         <v>740968.73</v>
       </c>
-      <c r="AD16" s="27">
+      <c r="AD16" s="22">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE16" s="27">
+      <c r="AE16" s="22">
         <v>2261</v>
       </c>
-      <c r="AF16" s="27">
+      <c r="AF16" s="22">
         <v>818274</v>
       </c>
-      <c r="AG16" s="27">
+      <c r="AG16" s="22">
         <v>4.17</v>
       </c>
-      <c r="AH16" s="27">
+      <c r="AH16" s="22">
         <v>4.76</v>
       </c>
-      <c r="AI16" s="27">
+      <c r="AI16" s="22">
         <v>2313.13</v>
       </c>
-      <c r="AJ16" s="27">
+      <c r="AJ16" s="22">
         <v>807421.39</v>
       </c>
-      <c r="AK16" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AL16" s="28">
+      <c r="AK16" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AL16" s="23">
         <v>3.73</v>
       </c>
-      <c r="AM16" s="28">
+      <c r="AM16" s="23">
         <v>2013.45</v>
       </c>
-      <c r="AN16" s="28">
+      <c r="AN16" s="23">
         <v>724841.23</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="22"/>
-      <c r="AJ17" s="34"/>
-      <c r="AK17" s="20"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="35"/>
+      <c r="A17" s="34">
+        <v>44345</v>
+      </c>
+      <c r="B17">
+        <v>4.63</v>
+      </c>
+      <c r="C17">
+        <v>5.56</v>
+      </c>
+      <c r="D17">
+        <v>1924</v>
+      </c>
+      <c r="E17">
+        <v>739290.35</v>
+      </c>
+      <c r="F17">
+        <v>3.88</v>
+      </c>
+      <c r="G17">
+        <v>4.79</v>
+      </c>
+      <c r="H17">
+        <v>1759.76</v>
+      </c>
+      <c r="I17">
+        <v>667929.43999999994</v>
+      </c>
+      <c r="J17">
+        <v>4.67</v>
+      </c>
+      <c r="K17">
+        <v>5.13</v>
+      </c>
+      <c r="L17">
+        <v>2278</v>
+      </c>
+      <c r="M17">
+        <v>850174</v>
+      </c>
+      <c r="N17">
+        <v>3.67</v>
+      </c>
+      <c r="O17">
+        <v>3.9</v>
+      </c>
+      <c r="P17">
+        <v>2017</v>
+      </c>
+      <c r="Q17">
+        <v>2017</v>
+      </c>
+      <c r="R17">
+        <v>5.25</v>
+      </c>
+      <c r="S17">
+        <v>5.8</v>
+      </c>
+      <c r="T17">
+        <v>2627.7</v>
+      </c>
+      <c r="U17">
+        <v>895030</v>
+      </c>
+      <c r="V17">
+        <v>4.68</v>
+      </c>
+      <c r="W17">
+        <v>5.79</v>
+      </c>
+      <c r="X17">
+        <v>2531.92</v>
+      </c>
+      <c r="Y17">
+        <v>857900.61</v>
+      </c>
+      <c r="Z17">
+        <v>3.67</v>
+      </c>
+      <c r="AA17">
+        <v>3.93</v>
+      </c>
+      <c r="AB17">
+        <v>2017.79</v>
+      </c>
+      <c r="AC17">
+        <v>740968.73</v>
+      </c>
+      <c r="AD17">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE17">
+        <v>2261</v>
+      </c>
+      <c r="AF17">
+        <v>818274</v>
+      </c>
+      <c r="AG17">
+        <v>4.17</v>
+      </c>
+      <c r="AH17">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AI17">
+        <v>2313.62</v>
+      </c>
+      <c r="AJ17">
+        <v>807610.06</v>
+      </c>
+      <c r="AK17">
+        <v>3.67</v>
+      </c>
+      <c r="AL17">
+        <v>3.73</v>
+      </c>
+      <c r="AM17">
+        <v>2013.86</v>
+      </c>
+      <c r="AN17">
+        <v>724989.31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6835,10 +6022,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AN17"/>
+  <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6889,126 +6076,126 @@
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AA1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="25" t="s">
+      <c r="AD1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="25" t="s">
+      <c r="AE1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="31" t="s">
+      <c r="AF1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="23" t="s">
+      <c r="AG1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="23" t="s">
+      <c r="AH1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="23" t="s">
+      <c r="AI1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="23" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="25" t="s">
+      <c r="AK1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="25" t="s">
+      <c r="AL1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="25" t="s">
+      <c r="AM1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="25" t="s">
+      <c r="AN1" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A2" s="30">
+      <c r="A2" s="34">
         <v>44287</v>
       </c>
       <c r="B2" s="6">
@@ -7130,7 +6317,7 @@
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A3" s="30">
+      <c r="A3" s="34">
         <v>44288</v>
       </c>
       <c r="B3" s="6">
@@ -7252,7 +6439,7 @@
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A4" s="30">
+      <c r="A4" s="34">
         <v>44291</v>
       </c>
       <c r="B4" s="8">
@@ -8106,31 +7293,31 @@
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A11" s="30">
+      <c r="A11" s="34">
         <v>44312</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="22">
         <v>4.33</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="22">
         <v>5.22</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="22">
         <v>2068.48</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="22">
         <v>795405.16</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="23">
         <v>3.88</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="23">
         <v>4.78</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="23">
         <v>1959.73</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="23">
         <v>743410.46</v>
       </c>
       <c r="J11" s="6">
@@ -8157,22 +7344,22 @@
       <c r="Q11" s="1">
         <v>822829</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="22">
         <v>5.25</v>
       </c>
-      <c r="S11" s="27">
+      <c r="S11" s="22">
         <v>5.82</v>
       </c>
-      <c r="T11" s="27">
+      <c r="T11" s="22">
         <v>2926.3</v>
       </c>
-      <c r="U11" s="27">
+      <c r="U11" s="22">
         <v>998464</v>
       </c>
-      <c r="V11" s="27">
+      <c r="V11" s="22">
         <v>4.68</v>
       </c>
-      <c r="W11" s="27">
+      <c r="W11" s="22">
         <v>5.79</v>
       </c>
       <c r="X11" s="6">
@@ -8181,120 +7368,120 @@
       <c r="Y11" s="6">
         <v>955331.36</v>
       </c>
-      <c r="Z11" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AA11" s="28">
+      <c r="Z11" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AA11" s="23">
         <v>3.93</v>
       </c>
-      <c r="AB11" s="28">
+      <c r="AB11" s="23">
         <v>1788.49</v>
       </c>
-      <c r="AC11" s="28">
+      <c r="AC11" s="23">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD11" s="27">
+      <c r="AD11" s="22">
         <v>4.76</v>
       </c>
-      <c r="AE11" s="27">
+      <c r="AE11" s="22">
         <v>2518</v>
       </c>
-      <c r="AF11" s="27">
+      <c r="AF11" s="22">
         <v>910765</v>
       </c>
-      <c r="AG11" s="28">
+      <c r="AG11" s="23">
         <v>4.17</v>
       </c>
-      <c r="AH11" s="28">
+      <c r="AH11" s="23">
         <v>4.76</v>
       </c>
-      <c r="AI11" s="28">
+      <c r="AI11" s="23">
         <v>2582.33</v>
       </c>
-      <c r="AJ11" s="28">
+      <c r="AJ11" s="23">
         <v>901390.84</v>
       </c>
-      <c r="AK11" s="27">
-        <v>3.67</v>
-      </c>
-      <c r="AL11" s="27">
+      <c r="AK11" s="22">
+        <v>3.67</v>
+      </c>
+      <c r="AL11" s="22">
         <v>3.73</v>
       </c>
-      <c r="AM11" s="27">
+      <c r="AM11" s="22">
         <v>2241.69</v>
       </c>
-      <c r="AN11" s="27">
+      <c r="AN11" s="22">
         <v>807005.98</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A12" s="30">
+      <c r="A12" s="34">
         <v>44322</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="22">
         <v>4.33</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="22">
         <v>5.22</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="22">
         <v>2068.48</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="22">
         <v>795405.16</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="23">
         <v>3.88</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="23">
         <v>4.78</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="23">
         <v>1959.73</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="23">
         <v>743410.46</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="22">
         <v>4.67</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="22">
         <v>5.12</v>
       </c>
-      <c r="L12" s="27">
+      <c r="L12" s="22">
         <v>2537</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="22">
         <v>946017</v>
       </c>
-      <c r="N12" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="O12" s="28">
+      <c r="N12" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="O12" s="23">
         <v>3.9</v>
       </c>
-      <c r="P12" s="28">
+      <c r="P12" s="23">
         <v>2247</v>
       </c>
       <c r="Q12" s="1">
         <v>822829</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="22">
         <v>5.25</v>
       </c>
-      <c r="S12" s="27">
+      <c r="S12" s="22">
         <v>5.82</v>
       </c>
-      <c r="T12" s="27">
+      <c r="T12" s="22">
         <v>2926.3</v>
       </c>
-      <c r="U12" s="27">
+      <c r="U12" s="22">
         <v>998464</v>
       </c>
-      <c r="V12" s="27">
+      <c r="V12" s="22">
         <v>4.68</v>
       </c>
-      <c r="W12" s="27">
+      <c r="W12" s="22">
         <v>5.79</v>
       </c>
       <c r="X12" s="6">
@@ -8303,120 +7490,120 @@
       <c r="Y12" s="6">
         <v>955331.36</v>
       </c>
-      <c r="Z12" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AA12" s="28">
+      <c r="Z12" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AA12" s="23">
         <v>3.93</v>
       </c>
-      <c r="AB12" s="28">
+      <c r="AB12" s="23">
         <v>1788.49</v>
       </c>
-      <c r="AC12" s="28">
+      <c r="AC12" s="23">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD12" s="27">
+      <c r="AD12" s="22">
         <v>4.76</v>
       </c>
-      <c r="AE12" s="27">
+      <c r="AE12" s="22">
         <v>2518</v>
       </c>
-      <c r="AF12" s="27">
+      <c r="AF12" s="22">
         <v>910765</v>
       </c>
-      <c r="AG12" s="28">
+      <c r="AG12" s="23">
         <v>4.17</v>
       </c>
-      <c r="AH12" s="28">
+      <c r="AH12" s="23">
         <v>4.76</v>
       </c>
-      <c r="AI12" s="28">
+      <c r="AI12" s="23">
         <v>2582.33</v>
       </c>
-      <c r="AJ12" s="28">
+      <c r="AJ12" s="23">
         <v>901391.39</v>
       </c>
-      <c r="AK12" s="27">
-        <v>3.67</v>
-      </c>
-      <c r="AL12" s="27">
+      <c r="AK12" s="22">
+        <v>3.67</v>
+      </c>
+      <c r="AL12" s="22">
         <v>3.73</v>
       </c>
-      <c r="AM12" s="27">
+      <c r="AM12" s="22">
         <v>2241.69</v>
       </c>
-      <c r="AN12" s="27">
+      <c r="AN12" s="22">
         <v>807006.43</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A13" s="30">
+      <c r="A13" s="34">
         <v>44325</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="22">
         <v>4.33</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="22">
         <v>5.22</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="22">
         <v>2068.48</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="22">
         <v>795405.16</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="23">
         <v>3.88</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="23">
         <v>4.78</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="23">
         <v>1959.73</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="23">
         <v>743410.46</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="22">
         <v>4.67</v>
       </c>
-      <c r="K13" s="27">
+      <c r="K13" s="22">
         <v>5.12</v>
       </c>
-      <c r="L13" s="27">
+      <c r="L13" s="22">
         <v>2537</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="22">
         <v>946017</v>
       </c>
-      <c r="N13" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="O13" s="28">
+      <c r="N13" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="O13" s="23">
         <v>3.9</v>
       </c>
-      <c r="P13" s="28">
+      <c r="P13" s="23">
         <v>2247</v>
       </c>
       <c r="Q13" s="1">
         <v>822829</v>
       </c>
-      <c r="R13" s="27">
+      <c r="R13" s="22">
         <v>5.25</v>
       </c>
-      <c r="S13" s="27">
+      <c r="S13" s="22">
         <v>5.82</v>
       </c>
-      <c r="T13" s="27">
+      <c r="T13" s="22">
         <v>2926.3</v>
       </c>
-      <c r="U13" s="27">
+      <c r="U13" s="22">
         <v>998464</v>
       </c>
-      <c r="V13" s="27">
+      <c r="V13" s="22">
         <v>4.68</v>
       </c>
-      <c r="W13" s="27">
+      <c r="W13" s="22">
         <v>5.79</v>
       </c>
       <c r="X13" s="6">
@@ -8425,120 +7612,120 @@
       <c r="Y13" s="6">
         <v>955331.36</v>
       </c>
-      <c r="Z13" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AA13" s="28">
+      <c r="Z13" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AA13" s="23">
         <v>3.93</v>
       </c>
-      <c r="AB13" s="28">
+      <c r="AB13" s="23">
         <v>1788.49</v>
       </c>
-      <c r="AC13" s="28">
+      <c r="AC13" s="23">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD13" s="27">
+      <c r="AD13" s="22">
         <v>4.76</v>
       </c>
-      <c r="AE13" s="27">
+      <c r="AE13" s="22">
         <v>2518</v>
       </c>
-      <c r="AF13" s="27">
+      <c r="AF13" s="22">
         <v>910765</v>
       </c>
-      <c r="AG13" s="28">
+      <c r="AG13" s="23">
         <v>4.17</v>
       </c>
-      <c r="AH13" s="28">
+      <c r="AH13" s="23">
         <v>4.76</v>
       </c>
-      <c r="AI13" s="28">
+      <c r="AI13" s="23">
         <v>2582.61</v>
       </c>
-      <c r="AJ13" s="28">
+      <c r="AJ13" s="23">
         <v>901493.6</v>
       </c>
-      <c r="AK13" s="27">
-        <v>3.67</v>
-      </c>
-      <c r="AL13" s="27">
+      <c r="AK13" s="22">
+        <v>3.67</v>
+      </c>
+      <c r="AL13" s="22">
         <v>3.73</v>
       </c>
-      <c r="AM13" s="27">
+      <c r="AM13" s="22">
         <v>2241.92</v>
       </c>
-      <c r="AN13" s="27">
+      <c r="AN13" s="22">
         <v>807088.39</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A14" s="30">
+      <c r="A14" s="34">
         <v>44326</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="22">
         <v>4.33</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="22">
         <v>5.22</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="22">
         <v>2068.48</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="22">
         <v>795405.16</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="23">
         <v>3.88</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="23">
         <v>4.78</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="23">
         <v>1959.73</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="23">
         <v>743410.46</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="22">
         <v>4.67</v>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="22">
         <v>5.12</v>
       </c>
-      <c r="L14" s="27">
+      <c r="L14" s="22">
         <v>2537</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="22">
         <v>946017</v>
       </c>
-      <c r="N14" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="O14" s="28">
+      <c r="N14" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="O14" s="23">
         <v>3.9</v>
       </c>
-      <c r="P14" s="28">
+      <c r="P14" s="23">
         <v>2247</v>
       </c>
       <c r="Q14" s="1">
         <v>822829</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R14" s="22">
         <v>5.25</v>
       </c>
-      <c r="S14" s="27">
+      <c r="S14" s="22">
         <v>5.8</v>
       </c>
-      <c r="T14" s="27">
+      <c r="T14" s="22">
         <v>2926.3</v>
       </c>
-      <c r="U14" s="27">
+      <c r="U14" s="22">
         <v>996664</v>
       </c>
-      <c r="V14" s="27">
+      <c r="V14" s="22">
         <v>4.68</v>
       </c>
-      <c r="W14" s="27">
+      <c r="W14" s="22">
         <v>5.79</v>
       </c>
       <c r="X14" s="6">
@@ -8547,120 +7734,120 @@
       <c r="Y14" s="6">
         <v>955331.36</v>
       </c>
-      <c r="Z14" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AA14" s="28">
+      <c r="Z14" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AA14" s="23">
         <v>3.93</v>
       </c>
-      <c r="AB14" s="28">
+      <c r="AB14" s="23">
         <v>1788.49</v>
       </c>
-      <c r="AC14" s="28">
+      <c r="AC14" s="23">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD14" s="27">
+      <c r="AD14" s="22">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE14" s="27">
+      <c r="AE14" s="22">
         <v>2261</v>
       </c>
-      <c r="AF14" s="27">
+      <c r="AF14" s="22">
         <v>818274</v>
       </c>
-      <c r="AG14" s="28">
+      <c r="AG14" s="23">
         <v>4.17</v>
       </c>
-      <c r="AH14" s="28">
+      <c r="AH14" s="23">
         <v>4.76</v>
       </c>
-      <c r="AI14" s="28">
+      <c r="AI14" s="23">
         <v>2582.33</v>
       </c>
-      <c r="AJ14" s="28">
+      <c r="AJ14" s="23">
         <v>901390.84</v>
       </c>
-      <c r="AK14" s="27">
-        <v>3.67</v>
-      </c>
-      <c r="AL14" s="27">
+      <c r="AK14" s="22">
+        <v>3.67</v>
+      </c>
+      <c r="AL14" s="22">
         <v>3.73</v>
       </c>
-      <c r="AM14" s="27">
+      <c r="AM14" s="22">
         <v>2241.69</v>
       </c>
-      <c r="AN14" s="27">
+      <c r="AN14" s="22">
         <v>807005.98</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A15" s="30">
+      <c r="A15" s="34">
         <v>44344</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="22">
         <v>4.33</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="22">
         <v>5.22</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="22">
         <v>2068.48</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="22">
         <v>795545.16</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="23">
         <v>3.88</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="23">
         <v>4.78</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="23">
         <v>1959.73</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="23">
         <v>743410.46</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="22">
         <v>4.67</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="22">
         <v>5.12</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="22">
         <v>2537</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="22">
         <v>946017</v>
       </c>
-      <c r="N15" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="O15" s="28">
+      <c r="N15" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="O15" s="23">
         <v>3.9</v>
       </c>
-      <c r="P15" s="28">
+      <c r="P15" s="23">
         <v>2247</v>
       </c>
       <c r="Q15" s="1">
         <v>822829</v>
       </c>
-      <c r="R15" s="27">
+      <c r="R15" s="22">
         <v>5.25</v>
       </c>
-      <c r="S15" s="27">
+      <c r="S15" s="22">
         <v>5.8</v>
       </c>
-      <c r="T15" s="27">
+      <c r="T15" s="22">
         <v>2926.3</v>
       </c>
-      <c r="U15" s="27">
+      <c r="U15" s="22">
         <v>996664</v>
       </c>
-      <c r="V15" s="27">
+      <c r="V15" s="22">
         <v>4.68</v>
       </c>
-      <c r="W15" s="27">
+      <c r="W15" s="22">
         <v>5.79</v>
       </c>
       <c r="X15" s="6">
@@ -8669,120 +7856,120 @@
       <c r="Y15" s="6">
         <v>955331.36</v>
       </c>
-      <c r="Z15" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AA15" s="28">
+      <c r="Z15" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AA15" s="23">
         <v>3.93</v>
       </c>
-      <c r="AB15" s="28">
+      <c r="AB15" s="23">
         <v>1788.49</v>
       </c>
-      <c r="AC15" s="28">
+      <c r="AC15" s="23">
         <v>656825.69999999995</v>
       </c>
-      <c r="AD15" s="27">
+      <c r="AD15" s="22">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AE15" s="27">
+      <c r="AE15" s="22">
         <v>2261</v>
       </c>
-      <c r="AF15" s="27">
+      <c r="AF15" s="22">
         <v>818274</v>
       </c>
-      <c r="AG15" s="28">
+      <c r="AG15" s="23">
         <v>4.17</v>
       </c>
-      <c r="AH15" s="28">
+      <c r="AH15" s="23">
         <v>4.76</v>
       </c>
-      <c r="AI15" s="28">
+      <c r="AI15" s="23">
         <v>2582.33</v>
       </c>
-      <c r="AJ15" s="28">
+      <c r="AJ15" s="23">
         <v>901391.39</v>
       </c>
-      <c r="AK15" s="27">
-        <v>3.67</v>
-      </c>
-      <c r="AL15" s="27">
+      <c r="AK15" s="22">
+        <v>3.67</v>
+      </c>
+      <c r="AL15" s="22">
         <v>3.73</v>
       </c>
-      <c r="AM15" s="27">
+      <c r="AM15" s="22">
         <v>2013.45</v>
       </c>
-      <c r="AN15" s="27">
+      <c r="AN15" s="22">
         <v>724841.23</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A16" s="30">
+      <c r="A16" s="34">
         <v>44344</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="22">
         <v>4.33</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="22">
         <v>5.22</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="22">
         <v>2068.48</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="22">
         <v>795545.16</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="23">
         <v>3.88</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="23">
         <v>4.78</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="23">
         <v>1959.73</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="23">
         <v>743410.46</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="22">
         <v>4.67</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="22">
         <v>5.12</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="22">
         <v>2537</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="22">
         <v>946017</v>
       </c>
-      <c r="N16" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="O16" s="28">
+      <c r="N16" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="O16" s="23">
         <v>3.9</v>
       </c>
-      <c r="P16" s="28">
+      <c r="P16" s="23">
         <v>2247</v>
       </c>
       <c r="Q16" s="1">
         <v>822829</v>
       </c>
-      <c r="R16" s="27">
+      <c r="R16" s="22">
         <v>5.25</v>
       </c>
-      <c r="S16" s="27">
+      <c r="S16" s="22">
         <v>5.92</v>
       </c>
-      <c r="T16" s="27">
+      <c r="T16" s="22">
         <v>2926.3</v>
       </c>
-      <c r="U16" s="27">
+      <c r="U16" s="22">
         <v>996664</v>
       </c>
-      <c r="V16" s="27">
+      <c r="V16" s="22">
         <v>4.68</v>
       </c>
-      <c r="W16" s="27">
+      <c r="W16" s="22">
         <v>5.79</v>
       </c>
       <c r="X16" s="6">
@@ -8791,120 +7978,120 @@
       <c r="Y16" s="6">
         <v>955331.36</v>
       </c>
-      <c r="Z16" s="28">
-        <v>3.67</v>
-      </c>
-      <c r="AA16" s="28">
+      <c r="Z16" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AA16" s="23">
         <v>3.93</v>
       </c>
-      <c r="AB16" s="28">
+      <c r="AB16" s="23">
         <v>2247.08</v>
       </c>
-      <c r="AC16" s="28">
+      <c r="AC16" s="23">
         <v>825111.77</v>
       </c>
-      <c r="AD16" s="27">
+      <c r="AD16" s="22">
         <v>4.76</v>
       </c>
-      <c r="AE16" s="27">
+      <c r="AE16" s="22">
         <v>2518</v>
       </c>
-      <c r="AF16" s="27">
+      <c r="AF16" s="22">
         <v>910765</v>
       </c>
-      <c r="AG16" s="28">
+      <c r="AG16" s="23">
         <v>4.17</v>
       </c>
-      <c r="AH16" s="28">
+      <c r="AH16" s="23">
         <v>4.76</v>
       </c>
-      <c r="AI16" s="28">
+      <c r="AI16" s="23">
         <v>2582.33</v>
       </c>
-      <c r="AJ16" s="28">
+      <c r="AJ16" s="23">
         <v>901391.39</v>
       </c>
-      <c r="AK16" s="27">
-        <v>3.67</v>
-      </c>
-      <c r="AL16" s="27">
+      <c r="AK16" s="22">
+        <v>3.67</v>
+      </c>
+      <c r="AL16" s="22">
         <v>3.73</v>
       </c>
-      <c r="AM16" s="27">
+      <c r="AM16" s="22">
         <v>2241.69</v>
       </c>
-      <c r="AN16" s="27">
+      <c r="AN16" s="22">
         <v>807006.43</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="37">
+      <c r="A17" s="34">
         <v>44345</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17">
         <v>4.33</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17">
         <v>5.22</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17">
         <v>2068.48</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17">
         <v>795545.16</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17">
         <v>3.88</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17">
         <v>4.78</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17">
         <v>1959.73</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17">
         <v>743410.46</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17">
         <v>4.67</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17">
         <v>5.12</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17">
         <v>2537</v>
       </c>
-      <c r="M17" s="38">
+      <c r="M17">
         <v>946017</v>
       </c>
-      <c r="N17" s="38">
-        <v>3.67</v>
-      </c>
-      <c r="O17" s="38">
+      <c r="N17">
+        <v>3.67</v>
+      </c>
+      <c r="O17">
         <v>3.9</v>
       </c>
-      <c r="P17" s="38">
+      <c r="P17">
         <v>2247</v>
       </c>
-      <c r="Q17" s="38">
+      <c r="Q17">
         <v>2247</v>
       </c>
-      <c r="R17" s="38">
+      <c r="R17">
         <v>5.25</v>
       </c>
-      <c r="S17" s="38">
+      <c r="S17">
         <v>5.8</v>
       </c>
-      <c r="T17" s="38">
+      <c r="T17">
         <v>2926.3</v>
       </c>
-      <c r="U17" s="38">
+      <c r="U17">
         <v>996664</v>
       </c>
-      <c r="V17" s="38">
+      <c r="V17">
         <v>4.68</v>
       </c>
-      <c r="W17" s="38">
+      <c r="W17">
         <v>5.79</v>
       </c>
       <c r="X17" s="8">
@@ -8913,49 +8100,171 @@
       <c r="Y17" s="8">
         <v>955331.36</v>
       </c>
-      <c r="Z17" s="38">
-        <v>3.67</v>
-      </c>
-      <c r="AA17" s="38">
+      <c r="Z17">
+        <v>3.67</v>
+      </c>
+      <c r="AA17">
         <v>3.93</v>
       </c>
-      <c r="AB17" s="38">
+      <c r="AB17">
         <v>2247.08</v>
       </c>
-      <c r="AC17" s="38">
+      <c r="AC17">
         <v>825111.77</v>
       </c>
-      <c r="AD17" s="38">
+      <c r="AD17">
         <v>4.76</v>
       </c>
-      <c r="AE17" s="38">
+      <c r="AE17">
         <v>2518</v>
       </c>
-      <c r="AF17" s="38">
+      <c r="AF17">
         <v>910765</v>
       </c>
-      <c r="AG17" s="38">
+      <c r="AG17">
         <v>4.17</v>
       </c>
-      <c r="AH17" s="38">
+      <c r="AH17">
         <v>4.7699999999999996</v>
       </c>
-      <c r="AI17" s="38">
+      <c r="AI17">
         <v>2582.88</v>
       </c>
-      <c r="AJ17" s="38">
+      <c r="AJ17">
         <v>901600.9</v>
       </c>
-      <c r="AK17" s="38">
-        <v>3.67</v>
-      </c>
-      <c r="AL17" s="38">
+      <c r="AK17">
+        <v>3.67</v>
+      </c>
+      <c r="AL17">
         <v>3.73</v>
       </c>
-      <c r="AM17" s="38">
+      <c r="AM17">
         <v>2242.15</v>
       </c>
-      <c r="AN17" s="38">
+      <c r="AN17">
+        <v>807170.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A18" s="34">
+        <v>44345</v>
+      </c>
+      <c r="B18">
+        <v>4.33</v>
+      </c>
+      <c r="C18">
+        <v>5.22</v>
+      </c>
+      <c r="D18">
+        <v>2068.48</v>
+      </c>
+      <c r="E18">
+        <v>795545.16</v>
+      </c>
+      <c r="F18">
+        <v>3.88</v>
+      </c>
+      <c r="G18">
+        <v>4.78</v>
+      </c>
+      <c r="H18">
+        <v>1959.73</v>
+      </c>
+      <c r="I18">
+        <v>743410.46</v>
+      </c>
+      <c r="J18">
+        <v>4.67</v>
+      </c>
+      <c r="K18">
+        <v>5.12</v>
+      </c>
+      <c r="L18">
+        <v>2537</v>
+      </c>
+      <c r="M18">
+        <v>946017</v>
+      </c>
+      <c r="N18">
+        <v>3.67</v>
+      </c>
+      <c r="O18">
+        <v>3.9</v>
+      </c>
+      <c r="P18">
+        <v>2247</v>
+      </c>
+      <c r="Q18">
+        <v>2247</v>
+      </c>
+      <c r="R18">
+        <v>5.25</v>
+      </c>
+      <c r="S18">
+        <v>5.92</v>
+      </c>
+      <c r="T18">
+        <v>292.63</v>
+      </c>
+      <c r="U18">
+        <v>100251</v>
+      </c>
+      <c r="V18">
+        <v>4.68</v>
+      </c>
+      <c r="W18">
+        <v>5.79</v>
+      </c>
+      <c r="X18">
+        <v>2819.64</v>
+      </c>
+      <c r="Y18">
+        <v>955331.36</v>
+      </c>
+      <c r="Z18">
+        <v>3.67</v>
+      </c>
+      <c r="AA18">
+        <v>3.93</v>
+      </c>
+      <c r="AB18">
+        <v>2247.08</v>
+      </c>
+      <c r="AC18">
+        <v>825111.77</v>
+      </c>
+      <c r="AD18">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE18">
+        <v>2261</v>
+      </c>
+      <c r="AF18">
+        <v>818274</v>
+      </c>
+      <c r="AG18">
+        <v>4.17</v>
+      </c>
+      <c r="AH18">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AI18">
+        <v>2582.88</v>
+      </c>
+      <c r="AJ18">
+        <v>901600.9</v>
+      </c>
+      <c r="AK18">
+        <v>3.67</v>
+      </c>
+      <c r="AL18">
+        <v>3.73</v>
+      </c>
+      <c r="AM18">
+        <v>2242.15</v>
+      </c>
+      <c r="AN18">
         <v>807170.24</v>
       </c>
     </row>
@@ -8969,10 +8278,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9110,7 +8419,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="30">
+      <c r="A10" s="34">
         <v>44291</v>
       </c>
       <c r="B10">
@@ -9124,7 +8433,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="30">
+      <c r="A11" s="34">
         <v>44292</v>
       </c>
       <c r="B11">
@@ -9138,7 +8447,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="30">
+      <c r="A12" s="34">
         <v>44293</v>
       </c>
       <c r="B12">
@@ -9152,7 +8461,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="30">
+      <c r="A13" s="34">
         <v>44294</v>
       </c>
       <c r="B13">
@@ -9166,7 +8475,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="30">
+      <c r="A14" s="34">
         <v>44298</v>
       </c>
       <c r="B14">
@@ -9180,7 +8489,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="30">
+      <c r="A15" s="34">
         <v>44299</v>
       </c>
       <c r="B15">
@@ -9194,7 +8503,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="30">
+      <c r="A16" s="34">
         <v>44300</v>
       </c>
       <c r="B16">
@@ -9208,7 +8517,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="30">
+      <c r="A17" s="34">
         <v>44305</v>
       </c>
       <c r="B17">
@@ -9222,7 +8531,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="30">
+      <c r="A18" s="34">
         <v>44306</v>
       </c>
       <c r="B18">
@@ -9236,7 +8545,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="30">
+      <c r="A19" s="34">
         <v>44312</v>
       </c>
       <c r="B19">
@@ -9250,7 +8559,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="30">
+      <c r="A20" s="34">
         <v>44322</v>
       </c>
       <c r="B20">
@@ -9264,7 +8573,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="30">
+      <c r="A21" s="34">
         <v>44325</v>
       </c>
       <c r="B21">
@@ -9278,7 +8587,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="30">
+      <c r="A22" s="34">
         <v>44326</v>
       </c>
       <c r="B22">
@@ -9292,7 +8601,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="30">
+      <c r="A23" s="34">
         <v>44333</v>
       </c>
       <c r="B23">
@@ -9306,7 +8615,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="30">
+      <c r="A24" s="34">
         <v>44342</v>
       </c>
       <c r="B24">
@@ -9320,7 +8629,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="30">
+      <c r="A25" s="34">
         <v>44344</v>
       </c>
       <c r="B25">
@@ -9334,7 +8643,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="36">
+      <c r="A26" s="34">
         <v>44345</v>
       </c>
       <c r="B26">
@@ -9344,6 +8653,48 @@
         <v>1.25</v>
       </c>
       <c r="D26">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="34">
+        <v>44345</v>
+      </c>
+      <c r="B27">
+        <v>1.32</v>
+      </c>
+      <c r="C27">
+        <v>1.25</v>
+      </c>
+      <c r="D27">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="34">
+        <v>44345</v>
+      </c>
+      <c r="B28">
+        <v>1.32</v>
+      </c>
+      <c r="C28">
+        <v>1.25</v>
+      </c>
+      <c r="D28">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="34">
+        <v>44345</v>
+      </c>
+      <c r="B29">
+        <v>1.32</v>
+      </c>
+      <c r="C29">
+        <v>1.25</v>
+      </c>
+      <c r="D29">
         <v>1.43</v>
       </c>
     </row>
@@ -9358,6 +8709,1770 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AN1048576"/>
+  <sheetViews>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:40" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A2" s="29">
+        <v>44287</v>
+      </c>
+      <c r="B2" s="27">
+        <v>4.63</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5.57</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1705.36</v>
+      </c>
+      <c r="E2" s="6">
+        <v>655661.06000000006</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4.41</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5.38</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1661.98</v>
+      </c>
+      <c r="I2" s="1">
+        <v>629543.41</v>
+      </c>
+      <c r="J2" s="6">
+        <v>4.67</v>
+      </c>
+      <c r="K2" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="L2" s="6">
+        <v>2020</v>
+      </c>
+      <c r="M2" s="6">
+        <v>754331</v>
+      </c>
+      <c r="N2" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="O2" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1788</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>655209</v>
+      </c>
+      <c r="R2" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="S2" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="T2" s="6">
+        <v>2326.71</v>
+      </c>
+      <c r="U2" s="6">
+        <v>794383</v>
+      </c>
+      <c r="V2" s="6">
+        <v>4.68</v>
+      </c>
+      <c r="W2" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="X2" s="6">
+        <v>2388.5</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>844095.31</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>3.67</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>3.93</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>1788.49</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>1.958</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>709079</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>4.17</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>4.76</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>2049.77</v>
+      </c>
+      <c r="AJ2" s="14">
+        <v>715490.86</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1783.04</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>641893.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A3" s="29">
+        <v>44288</v>
+      </c>
+      <c r="B3" s="27">
+        <v>4.63</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5.57</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1705.36</v>
+      </c>
+      <c r="E3" s="6">
+        <v>655661.06000000006</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4.41</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.38</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1661.98</v>
+      </c>
+      <c r="I3" s="1">
+        <v>629543.41</v>
+      </c>
+      <c r="J3" s="6">
+        <v>4.67</v>
+      </c>
+      <c r="K3" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="L3" s="6">
+        <v>2020</v>
+      </c>
+      <c r="M3" s="6">
+        <v>754331</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="O3" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1788</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>655209</v>
+      </c>
+      <c r="R3" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="S3" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="T3" s="6">
+        <v>2326.7199999999998</v>
+      </c>
+      <c r="U3" s="6">
+        <v>795383</v>
+      </c>
+      <c r="V3" s="6">
+        <v>4.68</v>
+      </c>
+      <c r="W3" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="X3" s="6">
+        <v>2388.5</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>844095.31</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>3.67</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>3.93</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>1788.49</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>1.958</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>709079</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>4.17</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>4.76</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>2049.77</v>
+      </c>
+      <c r="AJ3" s="10">
+        <v>715491.29</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>1783.04</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>641893.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A4" s="29">
+        <v>44294</v>
+      </c>
+      <c r="B4" s="27">
+        <v>4.63</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5.57</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1705.36</v>
+      </c>
+      <c r="E4" s="6">
+        <v>655661.06000000006</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.41</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.38</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1661.98</v>
+      </c>
+      <c r="I4" s="1">
+        <v>629543.41</v>
+      </c>
+      <c r="J4" s="6">
+        <v>4.67</v>
+      </c>
+      <c r="K4" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="L4" s="6">
+        <v>2020</v>
+      </c>
+      <c r="M4" s="6">
+        <v>754331</v>
+      </c>
+      <c r="N4" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="O4" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1788</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>655209</v>
+      </c>
+      <c r="R4" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="S4" s="6">
+        <v>5.82</v>
+      </c>
+      <c r="T4" s="6">
+        <v>2329.09</v>
+      </c>
+      <c r="U4" s="6">
+        <v>795196</v>
+      </c>
+      <c r="V4" s="6">
+        <v>4.68</v>
+      </c>
+      <c r="W4" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="X4" s="6">
+        <v>2388.5</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>844095.31</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>3.67</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>3.93</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>1788.49</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>1.958</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>709079</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>4.17</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>4.76</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>2049.77</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>715491.29</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1783.04</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>641893.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A5" s="29">
+        <v>44295</v>
+      </c>
+      <c r="B5" s="27">
+        <v>4.63</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5.57</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1705.36</v>
+      </c>
+      <c r="E5" s="6">
+        <v>655661.06000000006</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4.41</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.38</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1661.98</v>
+      </c>
+      <c r="I5" s="1">
+        <v>629543.41</v>
+      </c>
+      <c r="J5" s="6">
+        <v>4.67</v>
+      </c>
+      <c r="K5" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="L5" s="6">
+        <v>2020</v>
+      </c>
+      <c r="M5" s="6">
+        <v>754331</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1788</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>655209</v>
+      </c>
+      <c r="R5" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="S5" s="6">
+        <v>5.82</v>
+      </c>
+      <c r="T5" s="6">
+        <v>2329.09</v>
+      </c>
+      <c r="U5" s="6">
+        <v>795196</v>
+      </c>
+      <c r="V5" s="6">
+        <v>4.68</v>
+      </c>
+      <c r="W5" s="6">
+        <v>5.79</v>
+      </c>
+      <c r="X5" s="6">
+        <v>2244.1999999999998</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>760469.86</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1788.49</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>1.958</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>709079</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>4.17</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>4.76</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>2049.77</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>715491.29</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>1783.04</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>641893.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A6" s="29">
+        <v>44299</v>
+      </c>
+      <c r="B6" s="27">
+        <v>4.63</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5.57</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1705.36</v>
+      </c>
+      <c r="E6" s="6">
+        <v>655661.06000000006</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.83</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1058.68</v>
+      </c>
+      <c r="I6" s="1">
+        <v>402860.66</v>
+      </c>
+      <c r="J6" s="6">
+        <v>4.67</v>
+      </c>
+      <c r="K6" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="L6" s="6">
+        <v>2020</v>
+      </c>
+      <c r="M6" s="6">
+        <v>754331</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="O6" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1788</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>655209</v>
+      </c>
+      <c r="R6" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="S6" s="6">
+        <v>5.82</v>
+      </c>
+      <c r="T6" s="6">
+        <v>2329.09</v>
+      </c>
+      <c r="U6" s="6">
+        <v>795196</v>
+      </c>
+      <c r="V6" s="6">
+        <v>4.68</v>
+      </c>
+      <c r="W6" s="6">
+        <v>5.79</v>
+      </c>
+      <c r="X6" s="6">
+        <v>2244.1999999999998</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>760469.86</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1788.49</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>2004</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>725783</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>4.17</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>4.76</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>2043.94</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>713454.64</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>1783.04</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>641893.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A7" s="29">
+        <v>44299</v>
+      </c>
+      <c r="B7" s="27">
+        <v>4.63</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5.57</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1705.36</v>
+      </c>
+      <c r="E7" s="6">
+        <v>655661.06000000006</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.83</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1058.68</v>
+      </c>
+      <c r="I7" s="1">
+        <v>402860.66</v>
+      </c>
+      <c r="J7" s="6">
+        <v>4.67</v>
+      </c>
+      <c r="K7" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="L7" s="6">
+        <v>2020</v>
+      </c>
+      <c r="M7" s="6">
+        <v>754331</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1788</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>655209</v>
+      </c>
+      <c r="R7" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="S7" s="6">
+        <v>5.82</v>
+      </c>
+      <c r="T7" s="6">
+        <v>2329.09</v>
+      </c>
+      <c r="U7" s="6">
+        <v>795196</v>
+      </c>
+      <c r="V7" s="6">
+        <v>4.68</v>
+      </c>
+      <c r="W7" s="6">
+        <v>5.79</v>
+      </c>
+      <c r="X7" s="6">
+        <v>2244.1999999999998</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>760469.86</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1788.49</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>2004</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>725783</v>
+      </c>
+      <c r="AG7" s="6">
+        <v>4.17</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>4.76</v>
+      </c>
+      <c r="AI7" s="6">
+        <v>2043.94</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>713454.64</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>1785.22</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>642672.81999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A8" s="29">
+        <v>44300</v>
+      </c>
+      <c r="B8" s="27">
+        <v>4.63</v>
+      </c>
+      <c r="C8" s="6">
+        <v>5.57</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1705.36</v>
+      </c>
+      <c r="E8" s="6">
+        <v>655661.06000000006</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.83</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1058.68</v>
+      </c>
+      <c r="I8" s="1">
+        <v>402860.66</v>
+      </c>
+      <c r="J8" s="6">
+        <v>4.67</v>
+      </c>
+      <c r="K8" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="L8" s="6">
+        <v>2020</v>
+      </c>
+      <c r="M8" s="6">
+        <v>754331</v>
+      </c>
+      <c r="N8" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="O8" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1788</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>655209</v>
+      </c>
+      <c r="R8" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="S8" s="6">
+        <v>5.82</v>
+      </c>
+      <c r="T8" s="6">
+        <v>2329.09</v>
+      </c>
+      <c r="U8" s="6">
+        <v>795196</v>
+      </c>
+      <c r="V8" s="6">
+        <v>4.68</v>
+      </c>
+      <c r="W8" s="6">
+        <v>5.79</v>
+      </c>
+      <c r="X8" s="6">
+        <v>2244.1999999999998</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>760469.86</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1788.49</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>2004</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>725783</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>4.17</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>4.76</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>2043.94</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>713455.08</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>1785.22</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>642673.18000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A9" s="29">
+        <v>44305</v>
+      </c>
+      <c r="B9" s="27">
+        <v>4.63</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5.57</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1705.36</v>
+      </c>
+      <c r="E9" s="6">
+        <v>655661.06000000006</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1559.78</v>
+      </c>
+      <c r="I9" s="1">
+        <v>592448.41</v>
+      </c>
+      <c r="J9" s="6">
+        <v>4.67</v>
+      </c>
+      <c r="K9" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="L9" s="6">
+        <v>2020</v>
+      </c>
+      <c r="M9" s="6">
+        <v>754331</v>
+      </c>
+      <c r="N9" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1788</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>655209</v>
+      </c>
+      <c r="R9" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="S9" s="6">
+        <v>5.82</v>
+      </c>
+      <c r="T9" s="6">
+        <v>2329.09</v>
+      </c>
+      <c r="U9" s="6">
+        <v>795196</v>
+      </c>
+      <c r="V9" s="6">
+        <v>4.68</v>
+      </c>
+      <c r="W9" s="6">
+        <v>5.79</v>
+      </c>
+      <c r="X9" s="6">
+        <v>2244.1999999999998</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>760469.86</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1788.49</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>2004</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>725783</v>
+      </c>
+      <c r="AG9" s="6">
+        <v>4.17</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>4.76</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>2043.94</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>713454.64</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>1785.22</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>642672.81999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A10" s="29">
+        <v>44306</v>
+      </c>
+      <c r="B10" s="27">
+        <v>4.63</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5.57</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1705.36</v>
+      </c>
+      <c r="E10" s="6">
+        <v>655661.06000000006</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1559.78</v>
+      </c>
+      <c r="I10" s="1">
+        <v>592448.41</v>
+      </c>
+      <c r="J10" s="6">
+        <v>4.67</v>
+      </c>
+      <c r="K10" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="L10" s="6">
+        <v>2020</v>
+      </c>
+      <c r="M10" s="6">
+        <v>754331</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="O10" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1788</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>655209</v>
+      </c>
+      <c r="R10" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="S10" s="6">
+        <v>5.82</v>
+      </c>
+      <c r="T10" s="6">
+        <v>2329.09</v>
+      </c>
+      <c r="U10" s="6">
+        <v>795196</v>
+      </c>
+      <c r="V10" s="6">
+        <v>4.68</v>
+      </c>
+      <c r="W10" s="6">
+        <v>5.79</v>
+      </c>
+      <c r="X10" s="6">
+        <v>2244.1999999999998</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>760469.86</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>1788.49</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE10" s="6">
+        <v>2004</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>725783</v>
+      </c>
+      <c r="AG10" s="6">
+        <v>4.17</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>4.76</v>
+      </c>
+      <c r="AI10" s="6">
+        <v>2043.94</v>
+      </c>
+      <c r="AJ10" s="6">
+        <v>713454.64</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>1785.22</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>642672.81999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A11" s="29">
+        <v>44312</v>
+      </c>
+      <c r="B11" s="27">
+        <v>4.63</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5.57</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1705.36</v>
+      </c>
+      <c r="E11" s="6">
+        <v>655661.06000000006</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1559.78</v>
+      </c>
+      <c r="I11" s="1">
+        <v>592448.41</v>
+      </c>
+      <c r="J11" s="6">
+        <v>4.67</v>
+      </c>
+      <c r="K11" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2020</v>
+      </c>
+      <c r="M11" s="6">
+        <v>754331</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1788</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>655209</v>
+      </c>
+      <c r="R11" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="S11" s="6">
+        <v>5.82</v>
+      </c>
+      <c r="T11" s="6">
+        <v>2329.09</v>
+      </c>
+      <c r="U11" s="6">
+        <v>795196</v>
+      </c>
+      <c r="V11" s="6">
+        <v>4.68</v>
+      </c>
+      <c r="W11" s="6">
+        <v>5.79</v>
+      </c>
+      <c r="X11" s="6">
+        <v>2244.1999999999998</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>760469.86</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>1788.49</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>2004</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>725783</v>
+      </c>
+      <c r="AG11" s="6">
+        <v>4.17</v>
+      </c>
+      <c r="AH11" s="6">
+        <v>4.76</v>
+      </c>
+      <c r="AI11" s="6">
+        <v>2043.94</v>
+      </c>
+      <c r="AJ11" s="6">
+        <v>713454.64</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>1785.22</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>642672.81999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A12" s="29">
+        <v>44325</v>
+      </c>
+      <c r="B12" s="27">
+        <v>4.63</v>
+      </c>
+      <c r="C12" s="6">
+        <v>5.57</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1705.36</v>
+      </c>
+      <c r="E12" s="6">
+        <v>655661.06000000006</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1559.78</v>
+      </c>
+      <c r="I12" s="1">
+        <v>592448.41</v>
+      </c>
+      <c r="J12" s="6">
+        <v>4.67</v>
+      </c>
+      <c r="K12" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="L12" s="6">
+        <v>2020</v>
+      </c>
+      <c r="M12" s="6">
+        <v>754331</v>
+      </c>
+      <c r="N12" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="O12" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1788</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>655209</v>
+      </c>
+      <c r="R12" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="S12" s="6">
+        <v>5.82</v>
+      </c>
+      <c r="T12" s="6">
+        <v>2329.09</v>
+      </c>
+      <c r="U12" s="6">
+        <v>795196</v>
+      </c>
+      <c r="V12" s="6">
+        <v>4.68</v>
+      </c>
+      <c r="W12" s="6">
+        <v>5.79</v>
+      </c>
+      <c r="X12" s="6">
+        <v>2244.1999999999998</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>760469.86</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1788.49</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE12" s="6">
+        <v>2004</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>725783</v>
+      </c>
+      <c r="AG12" s="6">
+        <v>4.17</v>
+      </c>
+      <c r="AH12" s="6">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AI12" s="6">
+        <v>2044.16</v>
+      </c>
+      <c r="AJ12" s="6">
+        <v>713536.86</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>1785.4</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>642739.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A13" s="29">
+        <v>44326</v>
+      </c>
+      <c r="B13" s="27">
+        <v>4.63</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5.57</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1705.36</v>
+      </c>
+      <c r="E13" s="6">
+        <v>655661.06000000006</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1559.78</v>
+      </c>
+      <c r="I13" s="1">
+        <v>592448.41</v>
+      </c>
+      <c r="J13" s="6">
+        <v>4.67</v>
+      </c>
+      <c r="K13" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="L13" s="6">
+        <v>2020</v>
+      </c>
+      <c r="M13" s="6">
+        <v>754331</v>
+      </c>
+      <c r="N13" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="O13" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1788</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>655209</v>
+      </c>
+      <c r="R13" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="S13" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="T13" s="6">
+        <v>2329.09</v>
+      </c>
+      <c r="U13" s="6">
+        <v>793396</v>
+      </c>
+      <c r="V13" s="6">
+        <v>4.68</v>
+      </c>
+      <c r="W13" s="6">
+        <v>5.79</v>
+      </c>
+      <c r="X13" s="6">
+        <v>2244.1999999999998</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>760469.86</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1788.49</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>2004</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>725783</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>4.17</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>4.76</v>
+      </c>
+      <c r="AI13" s="6">
+        <v>2043.94</v>
+      </c>
+      <c r="AJ13" s="6">
+        <v>713454.64</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>1785.22</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>642672.81999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A14" s="29">
+        <v>44344</v>
+      </c>
+      <c r="B14" s="22">
+        <v>4.63</v>
+      </c>
+      <c r="C14" s="22">
+        <v>5.57</v>
+      </c>
+      <c r="D14" s="22">
+        <v>1705.36</v>
+      </c>
+      <c r="E14" s="22">
+        <v>655801.06000000006</v>
+      </c>
+      <c r="F14" s="23">
+        <v>3.88</v>
+      </c>
+      <c r="G14" s="23">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="23">
+        <v>1559.78</v>
+      </c>
+      <c r="I14" s="23">
+        <v>592448.41</v>
+      </c>
+      <c r="J14" s="22">
+        <v>4.67</v>
+      </c>
+      <c r="K14" s="6">
+        <v>5.14</v>
+      </c>
+      <c r="L14" s="6">
+        <v>2020</v>
+      </c>
+      <c r="M14" s="6">
+        <v>754331</v>
+      </c>
+      <c r="N14" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="O14" s="23">
+        <v>3.93</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1788</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>655209</v>
+      </c>
+      <c r="R14" s="22">
+        <v>5.25</v>
+      </c>
+      <c r="S14" s="22">
+        <v>5.8</v>
+      </c>
+      <c r="T14" s="22">
+        <v>2329.09</v>
+      </c>
+      <c r="U14" s="22">
+        <v>793396</v>
+      </c>
+      <c r="V14" s="22">
+        <v>4.68</v>
+      </c>
+      <c r="W14" s="22">
+        <v>5.79</v>
+      </c>
+      <c r="X14" s="22">
+        <v>2244.1999999999998</v>
+      </c>
+      <c r="Y14" s="22">
+        <v>760469.86</v>
+      </c>
+      <c r="Z14" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AA14" s="23">
+        <v>3.93</v>
+      </c>
+      <c r="AB14" s="23">
+        <v>1788.49</v>
+      </c>
+      <c r="AC14" s="23">
+        <v>656825.69999999995</v>
+      </c>
+      <c r="AD14" s="22">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AE14" s="22">
+        <v>2004</v>
+      </c>
+      <c r="AF14" s="22">
+        <v>725783</v>
+      </c>
+      <c r="AG14" s="22">
+        <v>4.17</v>
+      </c>
+      <c r="AH14" s="22">
+        <v>4.76</v>
+      </c>
+      <c r="AI14" s="22">
+        <v>2043.94</v>
+      </c>
+      <c r="AJ14" s="22">
+        <v>713455.08</v>
+      </c>
+      <c r="AK14" s="23">
+        <v>3.67</v>
+      </c>
+      <c r="AL14" s="23">
+        <v>3.73</v>
+      </c>
+      <c r="AM14" s="23">
+        <v>1785.22</v>
+      </c>
+      <c r="AN14" s="23">
+        <v>642673.18000000005</v>
+      </c>
+    </row>
+    <row r="1048576" spans="2:40" x14ac:dyDescent="0.35">
+      <c r="B1048576" s="28"/>
+      <c r="C1048576" s="8"/>
+      <c r="D1048576" s="8"/>
+      <c r="E1048576" s="8"/>
+      <c r="F1048576" s="9"/>
+      <c r="G1048576" s="9"/>
+      <c r="H1048576" s="9"/>
+      <c r="I1048576" s="9"/>
+      <c r="J1048576" s="8"/>
+      <c r="K1048576" s="8"/>
+      <c r="L1048576" s="8"/>
+      <c r="M1048576" s="8"/>
+      <c r="N1048576" s="9"/>
+      <c r="O1048576" s="9"/>
+      <c r="P1048576" s="9"/>
+      <c r="Q1048576" s="9"/>
+      <c r="R1048576" s="8"/>
+      <c r="S1048576" s="8"/>
+      <c r="T1048576" s="8"/>
+      <c r="U1048576" s="8"/>
+      <c r="V1048576" s="8"/>
+      <c r="W1048576" s="8"/>
+      <c r="X1048576" s="8"/>
+      <c r="Y1048576" s="8"/>
+      <c r="Z1048576" s="12"/>
+      <c r="AA1048576" s="12"/>
+      <c r="AB1048576" s="12"/>
+      <c r="AC1048576" s="12"/>
+      <c r="AD1048576" s="8"/>
+      <c r="AE1048576" s="8"/>
+      <c r="AF1048576" s="8"/>
+      <c r="AG1048576" s="8"/>
+      <c r="AH1048576" s="8"/>
+      <c r="AI1048576" s="8"/>
+      <c r="AJ1048576" s="8"/>
+      <c r="AK1048576" s="9"/>
+      <c r="AL1048576" s="9"/>
+      <c r="AM1048576" s="9"/>
+      <c r="AN1048576" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
